--- a/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3555900</v>
+        <v>3531500</v>
       </c>
       <c r="E8" s="3">
-        <v>3087700</v>
+        <v>3066600</v>
       </c>
       <c r="F8" s="3">
-        <v>2477300</v>
+        <v>2460300</v>
       </c>
       <c r="G8" s="3">
-        <v>2217700</v>
+        <v>2202400</v>
       </c>
       <c r="H8" s="3">
-        <v>1902000</v>
+        <v>1888900</v>
       </c>
       <c r="I8" s="3">
-        <v>1621300</v>
+        <v>1610200</v>
       </c>
       <c r="J8" s="3">
-        <v>1451900</v>
+        <v>1441900</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2400800</v>
+        <v>2384300</v>
       </c>
       <c r="E9" s="3">
-        <v>2095900</v>
+        <v>2081500</v>
       </c>
       <c r="F9" s="3">
-        <v>1693400</v>
+        <v>1681700</v>
       </c>
       <c r="G9" s="3">
-        <v>1524800</v>
+        <v>1514300</v>
       </c>
       <c r="H9" s="3">
-        <v>1346800</v>
+        <v>1337600</v>
       </c>
       <c r="I9" s="3">
-        <v>1133800</v>
+        <v>1126000</v>
       </c>
       <c r="J9" s="3">
-        <v>1026100</v>
+        <v>1019100</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1155100</v>
+        <v>1147200</v>
       </c>
       <c r="E10" s="3">
-        <v>991900</v>
+        <v>985000</v>
       </c>
       <c r="F10" s="3">
-        <v>784000</v>
+        <v>778600</v>
       </c>
       <c r="G10" s="3">
-        <v>692900</v>
+        <v>688100</v>
       </c>
       <c r="H10" s="3">
-        <v>555100</v>
+        <v>551300</v>
       </c>
       <c r="I10" s="3">
-        <v>487500</v>
+        <v>484200</v>
       </c>
       <c r="J10" s="3">
-        <v>425800</v>
+        <v>422800</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -862,13 +862,13 @@
         <v>5500</v>
       </c>
       <c r="E14" s="3">
-        <v>405100</v>
+        <v>402300</v>
       </c>
       <c r="F14" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="G14" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
@@ -886,25 +886,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>126200</v>
+        <v>125300</v>
       </c>
       <c r="E15" s="3">
-        <v>102000</v>
+        <v>101300</v>
       </c>
       <c r="F15" s="3">
-        <v>67700</v>
+        <v>67200</v>
       </c>
       <c r="G15" s="3">
-        <v>53900</v>
+        <v>53600</v>
       </c>
       <c r="H15" s="3">
-        <v>47400</v>
+        <v>47100</v>
       </c>
       <c r="I15" s="3">
-        <v>37200</v>
+        <v>36900</v>
       </c>
       <c r="J15" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3338600</v>
+        <v>3315700</v>
       </c>
       <c r="E17" s="3">
-        <v>3303700</v>
+        <v>3281000</v>
       </c>
       <c r="F17" s="3">
-        <v>2313700</v>
+        <v>2297800</v>
       </c>
       <c r="G17" s="3">
-        <v>2083000</v>
+        <v>2068700</v>
       </c>
       <c r="H17" s="3">
-        <v>1785800</v>
+        <v>1773600</v>
       </c>
       <c r="I17" s="3">
-        <v>1530600</v>
+        <v>1520100</v>
       </c>
       <c r="J17" s="3">
-        <v>1393400</v>
+        <v>1383800</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>217300</v>
+        <v>215800</v>
       </c>
       <c r="E18" s="3">
-        <v>-215900</v>
+        <v>-214400</v>
       </c>
       <c r="F18" s="3">
-        <v>163600</v>
+        <v>162500</v>
       </c>
       <c r="G18" s="3">
-        <v>134600</v>
+        <v>133700</v>
       </c>
       <c r="H18" s="3">
-        <v>116100</v>
+        <v>115300</v>
       </c>
       <c r="I18" s="3">
-        <v>90700</v>
+        <v>90100</v>
       </c>
       <c r="J18" s="3">
-        <v>58500</v>
+        <v>58100</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -1005,7 +1005,7 @@
         <v>-11400</v>
       </c>
       <c r="I20" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="J20" s="3">
         <v>-9200</v>
@@ -1017,22 +1017,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>342300</v>
+        <v>342000</v>
       </c>
       <c r="E21" s="3">
-        <v>-115300</v>
+        <v>-112800</v>
       </c>
       <c r="F21" s="3">
-        <v>230700</v>
+        <v>230300</v>
       </c>
       <c r="G21" s="3">
-        <v>189800</v>
+        <v>189400</v>
       </c>
       <c r="H21" s="3">
-        <v>151500</v>
+        <v>151200</v>
       </c>
       <c r="I21" s="3">
-        <v>115700</v>
+        <v>115500</v>
       </c>
       <c r="J21" s="3">
         <v>82800</v>
@@ -1044,16 +1044,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31200</v>
+        <v>31000</v>
       </c>
       <c r="E22" s="3">
-        <v>41100</v>
+        <v>40900</v>
       </c>
       <c r="F22" s="3">
-        <v>16200</v>
+        <v>16100</v>
       </c>
       <c r="G22" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>186600</v>
+        <v>185300</v>
       </c>
       <c r="E23" s="3">
-        <v>-257100</v>
+        <v>-255400</v>
       </c>
       <c r="F23" s="3">
-        <v>147800</v>
+        <v>146700</v>
       </c>
       <c r="G23" s="3">
-        <v>123900</v>
+        <v>123100</v>
       </c>
       <c r="H23" s="3">
-        <v>104700</v>
+        <v>104000</v>
       </c>
       <c r="I23" s="3">
-        <v>79000</v>
+        <v>78500</v>
       </c>
       <c r="J23" s="3">
-        <v>49300</v>
+        <v>49000</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46000</v>
+        <v>45700</v>
       </c>
       <c r="E24" s="3">
-        <v>34800</v>
+        <v>34600</v>
       </c>
       <c r="F24" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="G24" s="3">
-        <v>30900</v>
+        <v>30700</v>
       </c>
       <c r="H24" s="3">
-        <v>35100</v>
+        <v>34900</v>
       </c>
       <c r="I24" s="3">
-        <v>30000</v>
+        <v>29800</v>
       </c>
       <c r="J24" s="3">
-        <v>15700</v>
+        <v>15600</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>140600</v>
+        <v>139600</v>
       </c>
       <c r="E26" s="3">
-        <v>-292000</v>
+        <v>-290000</v>
       </c>
       <c r="F26" s="3">
-        <v>115800</v>
+        <v>115000</v>
       </c>
       <c r="G26" s="3">
-        <v>93000</v>
+        <v>92400</v>
       </c>
       <c r="H26" s="3">
-        <v>69600</v>
+        <v>69100</v>
       </c>
       <c r="I26" s="3">
-        <v>49000</v>
+        <v>48700</v>
       </c>
       <c r="J26" s="3">
-        <v>33600</v>
+        <v>33400</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>111900</v>
+        <v>111200</v>
       </c>
       <c r="E27" s="3">
-        <v>-322700</v>
+        <v>-320500</v>
       </c>
       <c r="F27" s="3">
-        <v>84500</v>
+        <v>83900</v>
       </c>
       <c r="G27" s="3">
-        <v>62800</v>
+        <v>62300</v>
       </c>
       <c r="H27" s="3">
-        <v>43100</v>
+        <v>42800</v>
       </c>
       <c r="I27" s="3">
-        <v>27400</v>
+        <v>27300</v>
       </c>
       <c r="J27" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1329,7 +1329,7 @@
         <v>11400</v>
       </c>
       <c r="I32" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="J32" s="3">
         <v>9200</v>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>111900</v>
+        <v>111200</v>
       </c>
       <c r="E33" s="3">
-        <v>-322700</v>
+        <v>-320500</v>
       </c>
       <c r="F33" s="3">
-        <v>84500</v>
+        <v>83900</v>
       </c>
       <c r="G33" s="3">
-        <v>66000</v>
+        <v>65500</v>
       </c>
       <c r="H33" s="3">
-        <v>43100</v>
+        <v>42800</v>
       </c>
       <c r="I33" s="3">
-        <v>27400</v>
+        <v>27300</v>
       </c>
       <c r="J33" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>111900</v>
+        <v>111200</v>
       </c>
       <c r="E35" s="3">
-        <v>-322700</v>
+        <v>-320500</v>
       </c>
       <c r="F35" s="3">
-        <v>84500</v>
+        <v>83900</v>
       </c>
       <c r="G35" s="3">
-        <v>66000</v>
+        <v>65500</v>
       </c>
       <c r="H35" s="3">
-        <v>43100</v>
+        <v>42800</v>
       </c>
       <c r="I35" s="3">
-        <v>27400</v>
+        <v>27300</v>
       </c>
       <c r="J35" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>236400</v>
+        <v>234800</v>
       </c>
       <c r="E41" s="3">
-        <v>155400</v>
+        <v>154400</v>
       </c>
       <c r="F41" s="3">
+        <v>84500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>72800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>55300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>58000</v>
+      </c>
+      <c r="J41" s="3">
         <v>85100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>73300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>55600</v>
-      </c>
-      <c r="I41" s="3">
-        <v>58400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>85700</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>546800</v>
+        <v>543000</v>
       </c>
       <c r="E43" s="3">
-        <v>510300</v>
+        <v>506800</v>
       </c>
       <c r="F43" s="3">
-        <v>319700</v>
+        <v>317500</v>
       </c>
       <c r="G43" s="3">
-        <v>243900</v>
+        <v>242200</v>
       </c>
       <c r="H43" s="3">
-        <v>213800</v>
+        <v>212300</v>
       </c>
       <c r="I43" s="3">
-        <v>159200</v>
+        <v>158100</v>
       </c>
       <c r="J43" s="3">
-        <v>168500</v>
+        <v>167400</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>182100</v>
+        <v>180900</v>
       </c>
       <c r="E44" s="3">
-        <v>121200</v>
+        <v>120400</v>
       </c>
       <c r="F44" s="3">
-        <v>61900</v>
+        <v>61400</v>
       </c>
       <c r="G44" s="3">
-        <v>97400</v>
+        <v>96700</v>
       </c>
       <c r="H44" s="3">
-        <v>38100</v>
+        <v>37800</v>
       </c>
       <c r="I44" s="3">
-        <v>20700</v>
+        <v>20600</v>
       </c>
       <c r="J44" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>85600</v>
+        <v>85000</v>
       </c>
       <c r="E45" s="3">
-        <v>70000</v>
+        <v>69500</v>
       </c>
       <c r="F45" s="3">
-        <v>65700</v>
+        <v>65300</v>
       </c>
       <c r="G45" s="3">
-        <v>52700</v>
+        <v>52300</v>
       </c>
       <c r="H45" s="3">
-        <v>82100</v>
+        <v>81600</v>
       </c>
       <c r="I45" s="3">
-        <v>56900</v>
+        <v>56500</v>
       </c>
       <c r="J45" s="3">
-        <v>55200</v>
+        <v>54800</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1050900</v>
+        <v>1043600</v>
       </c>
       <c r="E46" s="3">
-        <v>857000</v>
+        <v>851100</v>
       </c>
       <c r="F46" s="3">
-        <v>532400</v>
+        <v>528700</v>
       </c>
       <c r="G46" s="3">
-        <v>418600</v>
+        <v>415700</v>
       </c>
       <c r="H46" s="3">
-        <v>389600</v>
+        <v>387000</v>
       </c>
       <c r="I46" s="3">
-        <v>295300</v>
+        <v>293300</v>
       </c>
       <c r="J46" s="3">
-        <v>321600</v>
+        <v>319400</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1645,7 +1645,7 @@
         <v>5300</v>
       </c>
       <c r="E47" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="F47" s="3">
         <v>5400</v>
@@ -1654,13 +1654,13 @@
         <v>4500</v>
       </c>
       <c r="H47" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I47" s="3">
         <v>4900</v>
       </c>
       <c r="J47" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>358800</v>
+        <v>356400</v>
       </c>
       <c r="E48" s="3">
-        <v>339200</v>
+        <v>336800</v>
       </c>
       <c r="F48" s="3">
-        <v>125800</v>
+        <v>125000</v>
       </c>
       <c r="G48" s="3">
-        <v>219100</v>
+        <v>217600</v>
       </c>
       <c r="H48" s="3">
-        <v>93700</v>
+        <v>93100</v>
       </c>
       <c r="I48" s="3">
-        <v>73800</v>
+        <v>73300</v>
       </c>
       <c r="J48" s="3">
-        <v>70800</v>
+        <v>70300</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1388400</v>
+        <v>1378900</v>
       </c>
       <c r="E49" s="3">
-        <v>1296800</v>
+        <v>1287900</v>
       </c>
       <c r="F49" s="3">
-        <v>620700</v>
+        <v>616500</v>
       </c>
       <c r="G49" s="3">
-        <v>717800</v>
+        <v>712800</v>
       </c>
       <c r="H49" s="3">
-        <v>496700</v>
+        <v>493300</v>
       </c>
       <c r="I49" s="3">
-        <v>384900</v>
+        <v>382300</v>
       </c>
       <c r="J49" s="3">
-        <v>385200</v>
+        <v>382500</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="E52" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="F52" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G52" s="3">
         <v>9200</v>
       </c>
       <c r="H52" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I52" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="J52" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2817300</v>
+        <v>2798000</v>
       </c>
       <c r="E54" s="3">
-        <v>2508100</v>
+        <v>2490900</v>
       </c>
       <c r="F54" s="3">
-        <v>1292200</v>
+        <v>1283300</v>
       </c>
       <c r="G54" s="3">
-        <v>1088000</v>
+        <v>1080500</v>
       </c>
       <c r="H54" s="3">
-        <v>988800</v>
+        <v>982100</v>
       </c>
       <c r="I54" s="3">
-        <v>770200</v>
+        <v>764900</v>
       </c>
       <c r="J54" s="3">
-        <v>789500</v>
+        <v>784100</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>126300</v>
+        <v>125500</v>
       </c>
       <c r="E57" s="3">
-        <v>97800</v>
+        <v>97100</v>
       </c>
       <c r="F57" s="3">
-        <v>53500</v>
+        <v>53100</v>
       </c>
       <c r="G57" s="3">
-        <v>52700</v>
+        <v>52400</v>
       </c>
       <c r="H57" s="3">
-        <v>41500</v>
+        <v>41200</v>
       </c>
       <c r="I57" s="3">
-        <v>31000</v>
+        <v>30800</v>
       </c>
       <c r="J57" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,7 +1911,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>72400</v>
+        <v>71900</v>
       </c>
       <c r="E58" s="3">
         <v>7100</v>
@@ -1920,16 +1920,16 @@
         <v>5000</v>
       </c>
       <c r="G58" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="H58" s="3">
         <v>1300</v>
       </c>
       <c r="I58" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="J58" s="3">
-        <v>22700</v>
+        <v>22600</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>498600</v>
+        <v>495200</v>
       </c>
       <c r="E59" s="3">
-        <v>354600</v>
+        <v>352100</v>
       </c>
       <c r="F59" s="3">
-        <v>232600</v>
+        <v>231000</v>
       </c>
       <c r="G59" s="3">
-        <v>367400</v>
+        <v>364800</v>
       </c>
       <c r="H59" s="3">
-        <v>191600</v>
+        <v>190300</v>
       </c>
       <c r="I59" s="3">
-        <v>130700</v>
+        <v>129800</v>
       </c>
       <c r="J59" s="3">
-        <v>107300</v>
+        <v>106600</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>697400</v>
+        <v>692600</v>
       </c>
       <c r="E60" s="3">
-        <v>459400</v>
+        <v>456300</v>
       </c>
       <c r="F60" s="3">
-        <v>291100</v>
+        <v>289100</v>
       </c>
       <c r="G60" s="3">
-        <v>274100</v>
+        <v>272200</v>
       </c>
       <c r="H60" s="3">
-        <v>234500</v>
+        <v>232900</v>
       </c>
       <c r="I60" s="3">
-        <v>166900</v>
+        <v>165700</v>
       </c>
       <c r="J60" s="3">
-        <v>161700</v>
+        <v>160600</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>683800</v>
+        <v>679100</v>
       </c>
       <c r="E61" s="3">
-        <v>976200</v>
+        <v>969500</v>
       </c>
       <c r="F61" s="3">
-        <v>424000</v>
+        <v>421100</v>
       </c>
       <c r="G61" s="3">
-        <v>342300</v>
+        <v>339900</v>
       </c>
       <c r="H61" s="3">
-        <v>320500</v>
+        <v>318300</v>
       </c>
       <c r="I61" s="3">
-        <v>252900</v>
+        <v>251100</v>
       </c>
       <c r="J61" s="3">
-        <v>284300</v>
+        <v>282300</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>341500</v>
+        <v>339100</v>
       </c>
       <c r="E62" s="3">
-        <v>302200</v>
+        <v>300200</v>
       </c>
       <c r="F62" s="3">
-        <v>79700</v>
+        <v>79100</v>
       </c>
       <c r="G62" s="3">
-        <v>74000</v>
+        <v>73500</v>
       </c>
       <c r="H62" s="3">
-        <v>70400</v>
+        <v>69900</v>
       </c>
       <c r="I62" s="3">
-        <v>36700</v>
+        <v>36500</v>
       </c>
       <c r="J62" s="3">
-        <v>36100</v>
+        <v>35800</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1970300</v>
+        <v>1956700</v>
       </c>
       <c r="E66" s="3">
-        <v>1961800</v>
+        <v>1948400</v>
       </c>
       <c r="F66" s="3">
-        <v>989200</v>
+        <v>982400</v>
       </c>
       <c r="G66" s="3">
-        <v>841400</v>
+        <v>835600</v>
       </c>
       <c r="H66" s="3">
-        <v>756700</v>
+        <v>751500</v>
       </c>
       <c r="I66" s="3">
-        <v>556000</v>
+        <v>552100</v>
       </c>
       <c r="J66" s="3">
-        <v>585900</v>
+        <v>581900</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,22 +2275,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-219400</v>
+        <v>-217900</v>
       </c>
       <c r="E72" s="3">
-        <v>-294800</v>
+        <v>-292800</v>
       </c>
       <c r="F72" s="3">
-        <v>58400</v>
+        <v>58000</v>
       </c>
       <c r="G72" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="H72" s="3">
         <v>-1300</v>
       </c>
       <c r="I72" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>847000</v>
+        <v>841200</v>
       </c>
       <c r="E76" s="3">
-        <v>546200</v>
+        <v>542500</v>
       </c>
       <c r="F76" s="3">
-        <v>303000</v>
+        <v>300900</v>
       </c>
       <c r="G76" s="3">
-        <v>246600</v>
+        <v>244900</v>
       </c>
       <c r="H76" s="3">
-        <v>232200</v>
+        <v>230600</v>
       </c>
       <c r="I76" s="3">
-        <v>214200</v>
+        <v>212800</v>
       </c>
       <c r="J76" s="3">
-        <v>203600</v>
+        <v>202200</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>111900</v>
+        <v>111200</v>
       </c>
       <c r="E81" s="3">
-        <v>-322700</v>
+        <v>-320500</v>
       </c>
       <c r="F81" s="3">
-        <v>84500</v>
+        <v>83900</v>
       </c>
       <c r="G81" s="3">
-        <v>66000</v>
+        <v>65500</v>
       </c>
       <c r="H81" s="3">
-        <v>43100</v>
+        <v>42800</v>
       </c>
       <c r="I81" s="3">
-        <v>27400</v>
+        <v>27300</v>
       </c>
       <c r="J81" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>126200</v>
+        <v>125300</v>
       </c>
       <c r="E83" s="3">
-        <v>102000</v>
+        <v>101300</v>
       </c>
       <c r="F83" s="3">
-        <v>67700</v>
+        <v>67200</v>
       </c>
       <c r="G83" s="3">
-        <v>53900</v>
+        <v>53600</v>
       </c>
       <c r="H83" s="3">
-        <v>47400</v>
+        <v>47100</v>
       </c>
       <c r="I83" s="3">
-        <v>37200</v>
+        <v>36900</v>
       </c>
       <c r="J83" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>374200</v>
+        <v>371700</v>
       </c>
       <c r="E89" s="3">
-        <v>138300</v>
+        <v>137300</v>
       </c>
       <c r="F89" s="3">
-        <v>127600</v>
+        <v>126700</v>
       </c>
       <c r="G89" s="3">
-        <v>148300</v>
+        <v>147300</v>
       </c>
       <c r="H89" s="3">
-        <v>139800</v>
+        <v>138900</v>
       </c>
       <c r="I89" s="3">
-        <v>111700</v>
+        <v>110900</v>
       </c>
       <c r="J89" s="3">
-        <v>57900</v>
+        <v>57500</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50600</v>
+        <v>-50200</v>
       </c>
       <c r="E91" s="3">
-        <v>-59800</v>
+        <v>-59400</v>
       </c>
       <c r="F91" s="3">
-        <v>-52100</v>
+        <v>-51700</v>
       </c>
       <c r="G91" s="3">
-        <v>-46500</v>
+        <v>-46200</v>
       </c>
       <c r="H91" s="3">
-        <v>-37400</v>
+        <v>-37100</v>
       </c>
       <c r="I91" s="3">
-        <v>-25300</v>
+        <v>-25100</v>
       </c>
       <c r="J91" s="3">
-        <v>-28800</v>
+        <v>-28600</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-182500</v>
+        <v>-181200</v>
       </c>
       <c r="E94" s="3">
-        <v>-788800</v>
+        <v>-783300</v>
       </c>
       <c r="F94" s="3">
-        <v>-136200</v>
+        <v>-135300</v>
       </c>
       <c r="G94" s="3">
-        <v>-102200</v>
+        <v>-101500</v>
       </c>
       <c r="H94" s="3">
-        <v>-167800</v>
+        <v>-166700</v>
       </c>
       <c r="I94" s="3">
-        <v>-41400</v>
+        <v>-41100</v>
       </c>
       <c r="J94" s="3">
-        <v>-51200</v>
+        <v>-50800</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,19 +2832,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-35200</v>
+        <v>-35000</v>
       </c>
       <c r="E96" s="3">
-        <v>-28300</v>
+        <v>-28100</v>
       </c>
       <c r="F96" s="3">
-        <v>-24100</v>
+        <v>-23900</v>
       </c>
       <c r="G96" s="3">
-        <v>-22000</v>
+        <v>-21800</v>
       </c>
       <c r="H96" s="3">
-        <v>-19800</v>
+        <v>-19700</v>
       </c>
       <c r="I96" s="3">
         <v>-9200</v>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-96400</v>
+        <v>-95800</v>
       </c>
       <c r="E100" s="3">
-        <v>719700</v>
+        <v>714800</v>
       </c>
       <c r="F100" s="3">
-        <v>26200</v>
+        <v>26000</v>
       </c>
       <c r="G100" s="3">
-        <v>-33800</v>
+        <v>-33500</v>
       </c>
       <c r="H100" s="3">
-        <v>25000</v>
+        <v>24800</v>
       </c>
       <c r="I100" s="3">
-        <v>-96400</v>
+        <v>-95700</v>
       </c>
       <c r="J100" s="3">
-        <v>-31600</v>
+        <v>-31400</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>95700</v>
+        <v>95100</v>
       </c>
       <c r="E102" s="3">
-        <v>69800</v>
+        <v>69400</v>
       </c>
       <c r="F102" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="G102" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="H102" s="3">
         <v>-2800</v>
       </c>
       <c r="I102" s="3">
-        <v>-27200</v>
+        <v>-27000</v>
       </c>
       <c r="J102" s="3">
-        <v>-25100</v>
+        <v>-24900</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>FSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3531500</v>
+        <v>4140300</v>
       </c>
       <c r="E8" s="3">
-        <v>3066600</v>
+        <v>3532900</v>
       </c>
       <c r="F8" s="3">
-        <v>2460300</v>
+        <v>3067800</v>
       </c>
       <c r="G8" s="3">
-        <v>2202400</v>
+        <v>2461300</v>
       </c>
       <c r="H8" s="3">
-        <v>1888900</v>
+        <v>2203300</v>
       </c>
       <c r="I8" s="3">
-        <v>1610200</v>
+        <v>1889600</v>
       </c>
       <c r="J8" s="3">
+        <v>1610800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1441900</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2384300</v>
+        <v>2807100</v>
       </c>
       <c r="E9" s="3">
-        <v>2081500</v>
+        <v>2385200</v>
       </c>
       <c r="F9" s="3">
-        <v>1681700</v>
+        <v>2082300</v>
       </c>
       <c r="G9" s="3">
-        <v>1514300</v>
+        <v>1682400</v>
       </c>
       <c r="H9" s="3">
-        <v>1337600</v>
+        <v>1514900</v>
       </c>
       <c r="I9" s="3">
-        <v>1126000</v>
+        <v>1338100</v>
       </c>
       <c r="J9" s="3">
+        <v>1126400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1019100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1147200</v>
+        <v>1333200</v>
       </c>
       <c r="E10" s="3">
-        <v>985000</v>
+        <v>1147700</v>
       </c>
       <c r="F10" s="3">
-        <v>778600</v>
+        <v>985400</v>
       </c>
       <c r="G10" s="3">
-        <v>688100</v>
+        <v>778900</v>
       </c>
       <c r="H10" s="3">
-        <v>551300</v>
+        <v>688400</v>
       </c>
       <c r="I10" s="3">
-        <v>484200</v>
+        <v>551500</v>
       </c>
       <c r="J10" s="3">
+        <v>484400</v>
+      </c>
+      <c r="K10" s="3">
         <v>422800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E14" s="3">
         <v>5500</v>
       </c>
-      <c r="E14" s="3">
-        <v>402300</v>
-      </c>
       <c r="F14" s="3">
+        <v>402500</v>
+      </c>
+      <c r="G14" s="3">
         <v>5700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1500</v>
       </c>
       <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>125300</v>
+        <v>126100</v>
       </c>
       <c r="E15" s="3">
-        <v>101300</v>
+        <v>125400</v>
       </c>
       <c r="F15" s="3">
+        <v>101400</v>
+      </c>
+      <c r="G15" s="3">
         <v>67200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>53600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>47100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>36900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>33700</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3315700</v>
+        <v>3867400</v>
       </c>
       <c r="E17" s="3">
-        <v>3281000</v>
+        <v>3317000</v>
       </c>
       <c r="F17" s="3">
-        <v>2297800</v>
+        <v>3282300</v>
       </c>
       <c r="G17" s="3">
-        <v>2068700</v>
+        <v>2298700</v>
       </c>
       <c r="H17" s="3">
-        <v>1773600</v>
+        <v>2069600</v>
       </c>
       <c r="I17" s="3">
-        <v>1520100</v>
+        <v>1774300</v>
       </c>
       <c r="J17" s="3">
+        <v>1520700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1383800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>215800</v>
+        <v>272900</v>
       </c>
       <c r="E18" s="3">
-        <v>-214400</v>
+        <v>215900</v>
       </c>
       <c r="F18" s="3">
-        <v>162500</v>
+        <v>-214500</v>
       </c>
       <c r="G18" s="3">
-        <v>133700</v>
+        <v>162600</v>
       </c>
       <c r="H18" s="3">
-        <v>115300</v>
+        <v>133800</v>
       </c>
       <c r="I18" s="3">
-        <v>90100</v>
+        <v>115400</v>
       </c>
       <c r="J18" s="3">
+        <v>90200</v>
+      </c>
+      <c r="K18" s="3">
         <v>58100</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,79 +1016,86 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-11400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9200</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>342000</v>
+        <v>413500</v>
       </c>
       <c r="E21" s="3">
-        <v>-112800</v>
+        <v>342300</v>
       </c>
       <c r="F21" s="3">
-        <v>230300</v>
+        <v>-112700</v>
       </c>
       <c r="G21" s="3">
-        <v>189400</v>
+        <v>230500</v>
       </c>
       <c r="H21" s="3">
-        <v>151200</v>
+        <v>189500</v>
       </c>
       <c r="I21" s="3">
-        <v>115500</v>
+        <v>151400</v>
       </c>
       <c r="J21" s="3">
+        <v>115600</v>
+      </c>
+      <c r="K21" s="3">
         <v>82800</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E22" s="3">
         <v>31000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>16100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12600</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1064,63 +1103,72 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>185300</v>
+        <v>266300</v>
       </c>
       <c r="E23" s="3">
-        <v>-255400</v>
+        <v>185400</v>
       </c>
       <c r="F23" s="3">
-        <v>146700</v>
+        <v>-255500</v>
       </c>
       <c r="G23" s="3">
+        <v>146800</v>
+      </c>
+      <c r="H23" s="3">
         <v>123100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>104000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>78500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>49000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E24" s="3">
         <v>45700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34600</v>
       </c>
-      <c r="F24" s="3">
-        <v>31700</v>
-      </c>
       <c r="G24" s="3">
+        <v>31800</v>
+      </c>
+      <c r="H24" s="3">
         <v>30700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>34900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>29800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15600</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>139600</v>
+        <v>199000</v>
       </c>
       <c r="E26" s="3">
-        <v>-290000</v>
+        <v>139700</v>
       </c>
       <c r="F26" s="3">
+        <v>-290100</v>
+      </c>
+      <c r="G26" s="3">
         <v>115000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>92400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>69100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>48700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>33400</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E27" s="3">
         <v>111200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-320500</v>
-      </c>
       <c r="F27" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="G27" s="3">
         <v>83900</v>
       </c>
-      <c r="G27" s="3">
-        <v>62300</v>
-      </c>
       <c r="H27" s="3">
+        <v>62400</v>
+      </c>
+      <c r="I27" s="3">
         <v>42800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1238,14 +1298,14 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>3200</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>11400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9200</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E33" s="3">
         <v>111200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-320500</v>
-      </c>
       <c r="F33" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="G33" s="3">
         <v>83900</v>
       </c>
-      <c r="G33" s="3">
-        <v>65500</v>
-      </c>
       <c r="H33" s="3">
+        <v>65600</v>
+      </c>
+      <c r="I33" s="3">
         <v>42800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E35" s="3">
         <v>111200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-320500</v>
-      </c>
       <c r="F35" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="G35" s="3">
         <v>83900</v>
       </c>
-      <c r="G35" s="3">
-        <v>65500</v>
-      </c>
       <c r="H35" s="3">
+        <v>65600</v>
+      </c>
+      <c r="I35" s="3">
         <v>42800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>211100</v>
+      </c>
+      <c r="E41" s="3">
         <v>234800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>154400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>84500</v>
       </c>
-      <c r="G41" s="3">
-        <v>72800</v>
-      </c>
       <c r="H41" s="3">
+        <v>72900</v>
+      </c>
+      <c r="I41" s="3">
         <v>55300</v>
       </c>
-      <c r="I41" s="3">
-        <v>58000</v>
-      </c>
       <c r="J41" s="3">
+        <v>58100</v>
+      </c>
+      <c r="K41" s="3">
         <v>85100</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,198 +1616,222 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>543000</v>
+        <v>711600</v>
       </c>
       <c r="E43" s="3">
-        <v>506800</v>
+        <v>543200</v>
       </c>
       <c r="F43" s="3">
-        <v>317500</v>
+        <v>507000</v>
       </c>
       <c r="G43" s="3">
-        <v>242200</v>
+        <v>317600</v>
       </c>
       <c r="H43" s="3">
-        <v>212300</v>
+        <v>242300</v>
       </c>
       <c r="I43" s="3">
-        <v>158100</v>
+        <v>212400</v>
       </c>
       <c r="J43" s="3">
+        <v>158200</v>
+      </c>
+      <c r="K43" s="3">
         <v>167400</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>205700</v>
+      </c>
+      <c r="E44" s="3">
         <v>180900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>120400</v>
       </c>
-      <c r="F44" s="3">
-        <v>61400</v>
-      </c>
       <c r="G44" s="3">
+        <v>61500</v>
+      </c>
+      <c r="H44" s="3">
         <v>96700</v>
       </c>
-      <c r="H44" s="3">
-        <v>37800</v>
-      </c>
       <c r="I44" s="3">
+        <v>37900</v>
+      </c>
+      <c r="J44" s="3">
         <v>20600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>12100</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>85000</v>
+        <v>100900</v>
       </c>
       <c r="E45" s="3">
+        <v>85100</v>
+      </c>
+      <c r="F45" s="3">
         <v>69500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>65300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>52300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>81600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>56500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>54800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1043600</v>
+        <v>1229300</v>
       </c>
       <c r="E46" s="3">
-        <v>851100</v>
+        <v>1044100</v>
       </c>
       <c r="F46" s="3">
-        <v>528700</v>
+        <v>851400</v>
       </c>
       <c r="G46" s="3">
-        <v>415700</v>
+        <v>528900</v>
       </c>
       <c r="H46" s="3">
-        <v>387000</v>
+        <v>415900</v>
       </c>
       <c r="I46" s="3">
-        <v>293300</v>
+        <v>387100</v>
       </c>
       <c r="J46" s="3">
+        <v>293400</v>
+      </c>
+      <c r="K46" s="3">
         <v>319400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5800</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>356400</v>
+        <v>379500</v>
       </c>
       <c r="E48" s="3">
-        <v>336800</v>
+        <v>356500</v>
       </c>
       <c r="F48" s="3">
+        <v>337000</v>
+      </c>
+      <c r="G48" s="3">
         <v>125000</v>
       </c>
-      <c r="G48" s="3">
-        <v>217600</v>
-      </c>
       <c r="H48" s="3">
+        <v>217700</v>
+      </c>
+      <c r="I48" s="3">
         <v>93100</v>
       </c>
-      <c r="I48" s="3">
-        <v>73300</v>
-      </c>
       <c r="J48" s="3">
+        <v>73400</v>
+      </c>
+      <c r="K48" s="3">
         <v>70300</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1378900</v>
+        <v>1561600</v>
       </c>
       <c r="E49" s="3">
-        <v>1287900</v>
+        <v>1379400</v>
       </c>
       <c r="F49" s="3">
-        <v>616500</v>
+        <v>1288400</v>
       </c>
       <c r="G49" s="3">
-        <v>712800</v>
+        <v>616700</v>
       </c>
       <c r="H49" s="3">
-        <v>493300</v>
+        <v>713100</v>
       </c>
       <c r="I49" s="3">
-        <v>382300</v>
+        <v>493500</v>
       </c>
       <c r="J49" s="3">
+        <v>382400</v>
+      </c>
+      <c r="K49" s="3">
         <v>382500</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E52" s="3">
         <v>13800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2798000</v>
+        <v>3197200</v>
       </c>
       <c r="E54" s="3">
-        <v>2490900</v>
+        <v>2799100</v>
       </c>
       <c r="F54" s="3">
-        <v>1283300</v>
+        <v>2491900</v>
       </c>
       <c r="G54" s="3">
-        <v>1080500</v>
+        <v>1283800</v>
       </c>
       <c r="H54" s="3">
-        <v>982100</v>
+        <v>1080900</v>
       </c>
       <c r="I54" s="3">
-        <v>764900</v>
+        <v>982400</v>
       </c>
       <c r="J54" s="3">
+        <v>765200</v>
+      </c>
+      <c r="K54" s="3">
         <v>784100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>127600</v>
+      </c>
+      <c r="E57" s="3">
         <v>125500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>97100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>53100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>52400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>41200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31400</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71900</v>
+        <v>73200</v>
       </c>
       <c r="E58" s="3">
+        <v>72000</v>
+      </c>
+      <c r="F58" s="3">
         <v>7100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>22600</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>495200</v>
+        <v>587300</v>
       </c>
       <c r="E59" s="3">
-        <v>352100</v>
+        <v>495400</v>
       </c>
       <c r="F59" s="3">
-        <v>231000</v>
+        <v>352300</v>
       </c>
       <c r="G59" s="3">
-        <v>364800</v>
+        <v>231100</v>
       </c>
       <c r="H59" s="3">
-        <v>190300</v>
+        <v>365000</v>
       </c>
       <c r="I59" s="3">
-        <v>129800</v>
+        <v>190400</v>
       </c>
       <c r="J59" s="3">
+        <v>129900</v>
+      </c>
+      <c r="K59" s="3">
         <v>106600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>692600</v>
+        <v>788100</v>
       </c>
       <c r="E60" s="3">
-        <v>456300</v>
+        <v>692900</v>
       </c>
       <c r="F60" s="3">
-        <v>289100</v>
+        <v>456500</v>
       </c>
       <c r="G60" s="3">
-        <v>272200</v>
+        <v>289200</v>
       </c>
       <c r="H60" s="3">
-        <v>232900</v>
+        <v>272300</v>
       </c>
       <c r="I60" s="3">
-        <v>165700</v>
+        <v>233000</v>
       </c>
       <c r="J60" s="3">
+        <v>165800</v>
+      </c>
+      <c r="K60" s="3">
         <v>160600</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>679100</v>
+        <v>758700</v>
       </c>
       <c r="E61" s="3">
-        <v>969500</v>
+        <v>679400</v>
       </c>
       <c r="F61" s="3">
-        <v>421100</v>
+        <v>969800</v>
       </c>
       <c r="G61" s="3">
-        <v>339900</v>
+        <v>421300</v>
       </c>
       <c r="H61" s="3">
-        <v>318300</v>
+        <v>340100</v>
       </c>
       <c r="I61" s="3">
-        <v>251100</v>
+        <v>318400</v>
       </c>
       <c r="J61" s="3">
+        <v>251200</v>
+      </c>
+      <c r="K61" s="3">
         <v>282300</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>339100</v>
+        <v>352100</v>
       </c>
       <c r="E62" s="3">
-        <v>300200</v>
+        <v>339300</v>
       </c>
       <c r="F62" s="3">
+        <v>300300</v>
+      </c>
+      <c r="G62" s="3">
         <v>79100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>73500</v>
       </c>
-      <c r="H62" s="3">
-        <v>69900</v>
-      </c>
       <c r="I62" s="3">
+        <v>70000</v>
+      </c>
+      <c r="J62" s="3">
         <v>36500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35800</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1956700</v>
+        <v>2178200</v>
       </c>
       <c r="E66" s="3">
-        <v>1948400</v>
+        <v>1957500</v>
       </c>
       <c r="F66" s="3">
-        <v>982400</v>
+        <v>1949100</v>
       </c>
       <c r="G66" s="3">
-        <v>835600</v>
+        <v>982800</v>
       </c>
       <c r="H66" s="3">
-        <v>751500</v>
+        <v>835900</v>
       </c>
       <c r="I66" s="3">
-        <v>552100</v>
+        <v>751800</v>
       </c>
       <c r="J66" s="3">
+        <v>552400</v>
+      </c>
+      <c r="K66" s="3">
         <v>581900</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-217900</v>
+        <v>-86600</v>
       </c>
       <c r="E72" s="3">
-        <v>-292800</v>
+        <v>-218000</v>
       </c>
       <c r="F72" s="3">
+        <v>-292900</v>
+      </c>
+      <c r="G72" s="3">
         <v>58000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12900</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>841200</v>
+        <v>1019100</v>
       </c>
       <c r="E76" s="3">
-        <v>542500</v>
+        <v>841500</v>
       </c>
       <c r="F76" s="3">
-        <v>300900</v>
+        <v>542700</v>
       </c>
       <c r="G76" s="3">
-        <v>244900</v>
+        <v>301000</v>
       </c>
       <c r="H76" s="3">
-        <v>230600</v>
+        <v>245000</v>
       </c>
       <c r="I76" s="3">
+        <v>230700</v>
+      </c>
+      <c r="J76" s="3">
         <v>212800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>202200</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>172300</v>
+      </c>
+      <c r="E81" s="3">
         <v>111200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-320500</v>
-      </c>
       <c r="F81" s="3">
+        <v>-320600</v>
+      </c>
+      <c r="G81" s="3">
         <v>83900</v>
       </c>
-      <c r="G81" s="3">
-        <v>65500</v>
-      </c>
       <c r="H81" s="3">
+        <v>65600</v>
+      </c>
+      <c r="I81" s="3">
         <v>42800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>125300</v>
+        <v>126100</v>
       </c>
       <c r="E83" s="3">
-        <v>101300</v>
+        <v>125400</v>
       </c>
       <c r="F83" s="3">
+        <v>101400</v>
+      </c>
+      <c r="G83" s="3">
         <v>67200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>53600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>47100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>36900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>371700</v>
+        <v>213200</v>
       </c>
       <c r="E89" s="3">
-        <v>137300</v>
+        <v>371800</v>
       </c>
       <c r="F89" s="3">
+        <v>137400</v>
+      </c>
+      <c r="G89" s="3">
         <v>126700</v>
       </c>
-      <c r="G89" s="3">
-        <v>147300</v>
-      </c>
       <c r="H89" s="3">
+        <v>147400</v>
+      </c>
+      <c r="I89" s="3">
         <v>138900</v>
       </c>
-      <c r="I89" s="3">
-        <v>110900</v>
-      </c>
       <c r="J89" s="3">
+        <v>111000</v>
+      </c>
+      <c r="K89" s="3">
         <v>57500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-50200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-59400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-51700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-46200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28600</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-181200</v>
+        <v>-262900</v>
       </c>
       <c r="E94" s="3">
-        <v>-783300</v>
+        <v>-181300</v>
       </c>
       <c r="F94" s="3">
+        <v>-783600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-135300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-101500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-166700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-41100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50800</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-35000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-28100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-23900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-21800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-19700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-9200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-95800</v>
       </c>
-      <c r="E100" s="3">
-        <v>714800</v>
-      </c>
       <c r="F100" s="3">
+        <v>715100</v>
+      </c>
+      <c r="G100" s="3">
         <v>26000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-33500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-95700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-31400</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E102" s="3">
         <v>95100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>69400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2800</v>
       </c>
-      <c r="I102" s="3">
-        <v>-27000</v>
-      </c>
       <c r="J102" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-24900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4140300</v>
+        <v>4238100</v>
       </c>
       <c r="E8" s="3">
-        <v>3532900</v>
+        <v>3616300</v>
       </c>
       <c r="F8" s="3">
-        <v>3067800</v>
+        <v>3140200</v>
       </c>
       <c r="G8" s="3">
-        <v>2461300</v>
+        <v>2519400</v>
       </c>
       <c r="H8" s="3">
-        <v>2203300</v>
+        <v>2255300</v>
       </c>
       <c r="I8" s="3">
-        <v>1889600</v>
+        <v>1934300</v>
       </c>
       <c r="J8" s="3">
-        <v>1610800</v>
+        <v>1648900</v>
       </c>
       <c r="K8" s="3">
         <v>1441900</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2807100</v>
+        <v>2873400</v>
       </c>
       <c r="E9" s="3">
-        <v>2385200</v>
+        <v>2441600</v>
       </c>
       <c r="F9" s="3">
-        <v>2082300</v>
+        <v>2131500</v>
       </c>
       <c r="G9" s="3">
-        <v>1682400</v>
+        <v>1722100</v>
       </c>
       <c r="H9" s="3">
-        <v>1514900</v>
+        <v>1550700</v>
       </c>
       <c r="I9" s="3">
-        <v>1338100</v>
+        <v>1369700</v>
       </c>
       <c r="J9" s="3">
-        <v>1126400</v>
+        <v>1153000</v>
       </c>
       <c r="K9" s="3">
         <v>1019100</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1333200</v>
+        <v>1364700</v>
       </c>
       <c r="E10" s="3">
-        <v>1147700</v>
+        <v>1174800</v>
       </c>
       <c r="F10" s="3">
-        <v>985400</v>
+        <v>1008700</v>
       </c>
       <c r="G10" s="3">
-        <v>778900</v>
+        <v>797300</v>
       </c>
       <c r="H10" s="3">
-        <v>688400</v>
+        <v>704700</v>
       </c>
       <c r="I10" s="3">
-        <v>551500</v>
+        <v>564500</v>
       </c>
       <c r="J10" s="3">
-        <v>484400</v>
+        <v>495800</v>
       </c>
       <c r="K10" s="3">
         <v>422800</v>
@@ -881,16 +881,16 @@
         <v>-600</v>
       </c>
       <c r="E14" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F14" s="3">
-        <v>402500</v>
+        <v>412000</v>
       </c>
       <c r="G14" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="H14" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>126100</v>
+        <v>129100</v>
       </c>
       <c r="E15" s="3">
-        <v>125400</v>
+        <v>128300</v>
       </c>
       <c r="F15" s="3">
-        <v>101400</v>
+        <v>103800</v>
       </c>
       <c r="G15" s="3">
-        <v>67200</v>
+        <v>68800</v>
       </c>
       <c r="H15" s="3">
-        <v>53600</v>
+        <v>54800</v>
       </c>
       <c r="I15" s="3">
-        <v>47100</v>
+        <v>48200</v>
       </c>
       <c r="J15" s="3">
-        <v>36900</v>
+        <v>37800</v>
       </c>
       <c r="K15" s="3">
         <v>33700</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3867400</v>
+        <v>3958700</v>
       </c>
       <c r="E17" s="3">
-        <v>3317000</v>
+        <v>3395400</v>
       </c>
       <c r="F17" s="3">
-        <v>3282300</v>
+        <v>3359800</v>
       </c>
       <c r="G17" s="3">
-        <v>2298700</v>
+        <v>2353000</v>
       </c>
       <c r="H17" s="3">
-        <v>2069600</v>
+        <v>2118400</v>
       </c>
       <c r="I17" s="3">
-        <v>1774300</v>
+        <v>1816200</v>
       </c>
       <c r="J17" s="3">
-        <v>1520700</v>
+        <v>1556600</v>
       </c>
       <c r="K17" s="3">
         <v>1383800</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>272900</v>
+        <v>279400</v>
       </c>
       <c r="E18" s="3">
-        <v>215900</v>
+        <v>221000</v>
       </c>
       <c r="F18" s="3">
-        <v>-214500</v>
+        <v>-219600</v>
       </c>
       <c r="G18" s="3">
-        <v>162600</v>
+        <v>166400</v>
       </c>
       <c r="H18" s="3">
-        <v>133800</v>
+        <v>136900</v>
       </c>
       <c r="I18" s="3">
-        <v>115400</v>
+        <v>118100</v>
       </c>
       <c r="J18" s="3">
-        <v>90200</v>
+        <v>92300</v>
       </c>
       <c r="K18" s="3">
         <v>58100</v>
@@ -1023,7 +1023,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="E20" s="3">
         <v>500</v>
@@ -1035,13 +1035,13 @@
         <v>300</v>
       </c>
       <c r="H20" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I20" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="J20" s="3">
-        <v>-11600</v>
+        <v>-11900</v>
       </c>
       <c r="K20" s="3">
         <v>-9200</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>413500</v>
+        <v>422100</v>
       </c>
       <c r="E21" s="3">
-        <v>342300</v>
+        <v>349300</v>
       </c>
       <c r="F21" s="3">
-        <v>-112700</v>
+        <v>-116300</v>
       </c>
       <c r="G21" s="3">
-        <v>230500</v>
+        <v>235300</v>
       </c>
       <c r="H21" s="3">
-        <v>189500</v>
+        <v>193500</v>
       </c>
       <c r="I21" s="3">
-        <v>151400</v>
+        <v>154500</v>
       </c>
       <c r="J21" s="3">
-        <v>115600</v>
+        <v>118000</v>
       </c>
       <c r="K21" s="3">
         <v>82800</v>
@@ -1083,19 +1083,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20400</v>
+        <v>20900</v>
       </c>
       <c r="E22" s="3">
-        <v>31000</v>
+        <v>31700</v>
       </c>
       <c r="F22" s="3">
-        <v>40900</v>
+        <v>41800</v>
       </c>
       <c r="G22" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="H22" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>266300</v>
+        <v>272600</v>
       </c>
       <c r="E23" s="3">
-        <v>185400</v>
+        <v>189700</v>
       </c>
       <c r="F23" s="3">
-        <v>-255500</v>
+        <v>-261500</v>
       </c>
       <c r="G23" s="3">
-        <v>146800</v>
+        <v>150300</v>
       </c>
       <c r="H23" s="3">
-        <v>123100</v>
+        <v>126000</v>
       </c>
       <c r="I23" s="3">
-        <v>104000</v>
+        <v>106500</v>
       </c>
       <c r="J23" s="3">
-        <v>78500</v>
+        <v>80400</v>
       </c>
       <c r="K23" s="3">
         <v>49000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>67400</v>
+        <v>69000</v>
       </c>
       <c r="E24" s="3">
-        <v>45700</v>
+        <v>46800</v>
       </c>
       <c r="F24" s="3">
-        <v>34600</v>
+        <v>35400</v>
       </c>
       <c r="G24" s="3">
-        <v>31800</v>
+        <v>32500</v>
       </c>
       <c r="H24" s="3">
-        <v>30700</v>
+        <v>31400</v>
       </c>
       <c r="I24" s="3">
-        <v>34900</v>
+        <v>35700</v>
       </c>
       <c r="J24" s="3">
-        <v>29800</v>
+        <v>30500</v>
       </c>
       <c r="K24" s="3">
         <v>15600</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>199000</v>
+        <v>203700</v>
       </c>
       <c r="E26" s="3">
-        <v>139700</v>
+        <v>142900</v>
       </c>
       <c r="F26" s="3">
-        <v>-290100</v>
+        <v>-296900</v>
       </c>
       <c r="G26" s="3">
-        <v>115000</v>
+        <v>117800</v>
       </c>
       <c r="H26" s="3">
-        <v>92400</v>
+        <v>94600</v>
       </c>
       <c r="I26" s="3">
-        <v>69100</v>
+        <v>70800</v>
       </c>
       <c r="J26" s="3">
-        <v>48700</v>
+        <v>49800</v>
       </c>
       <c r="K26" s="3">
         <v>33400</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>172300</v>
+        <v>176400</v>
       </c>
       <c r="E27" s="3">
-        <v>111200</v>
+        <v>113800</v>
       </c>
       <c r="F27" s="3">
-        <v>-320600</v>
+        <v>-328200</v>
       </c>
       <c r="G27" s="3">
-        <v>83900</v>
+        <v>85900</v>
       </c>
       <c r="H27" s="3">
-        <v>62400</v>
+        <v>63800</v>
       </c>
       <c r="I27" s="3">
-        <v>42800</v>
+        <v>43800</v>
       </c>
       <c r="J27" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="K27" s="3">
         <v>16500</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13900</v>
+        <v>-14200</v>
       </c>
       <c r="E32" s="3">
         <v>-500</v>
@@ -1395,13 +1395,13 @@
         <v>-300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I32" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="J32" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="K32" s="3">
         <v>9200</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>172300</v>
+        <v>176400</v>
       </c>
       <c r="E33" s="3">
-        <v>111200</v>
+        <v>113800</v>
       </c>
       <c r="F33" s="3">
-        <v>-320600</v>
+        <v>-328200</v>
       </c>
       <c r="G33" s="3">
-        <v>83900</v>
+        <v>85900</v>
       </c>
       <c r="H33" s="3">
-        <v>65600</v>
+        <v>67100</v>
       </c>
       <c r="I33" s="3">
-        <v>42800</v>
+        <v>43800</v>
       </c>
       <c r="J33" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="K33" s="3">
         <v>16500</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>172300</v>
+        <v>176400</v>
       </c>
       <c r="E35" s="3">
-        <v>111200</v>
+        <v>113800</v>
       </c>
       <c r="F35" s="3">
-        <v>-320600</v>
+        <v>-328200</v>
       </c>
       <c r="G35" s="3">
-        <v>83900</v>
+        <v>85900</v>
       </c>
       <c r="H35" s="3">
-        <v>65600</v>
+        <v>67100</v>
       </c>
       <c r="I35" s="3">
-        <v>42800</v>
+        <v>43800</v>
       </c>
       <c r="J35" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="K35" s="3">
         <v>16500</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>211100</v>
+        <v>216100</v>
       </c>
       <c r="E41" s="3">
-        <v>234800</v>
+        <v>240400</v>
       </c>
       <c r="F41" s="3">
-        <v>154400</v>
+        <v>158100</v>
       </c>
       <c r="G41" s="3">
-        <v>84500</v>
+        <v>86500</v>
       </c>
       <c r="H41" s="3">
-        <v>72900</v>
+        <v>74600</v>
       </c>
       <c r="I41" s="3">
-        <v>55300</v>
+        <v>56600</v>
       </c>
       <c r="J41" s="3">
-        <v>58100</v>
+        <v>59400</v>
       </c>
       <c r="K41" s="3">
         <v>85100</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>711600</v>
+        <v>728400</v>
       </c>
       <c r="E43" s="3">
-        <v>543200</v>
+        <v>556000</v>
       </c>
       <c r="F43" s="3">
-        <v>507000</v>
+        <v>519000</v>
       </c>
       <c r="G43" s="3">
-        <v>317600</v>
+        <v>325100</v>
       </c>
       <c r="H43" s="3">
-        <v>242300</v>
+        <v>248000</v>
       </c>
       <c r="I43" s="3">
-        <v>212400</v>
+        <v>217400</v>
       </c>
       <c r="J43" s="3">
-        <v>158200</v>
+        <v>161900</v>
       </c>
       <c r="K43" s="3">
         <v>167400</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>205700</v>
+        <v>210500</v>
       </c>
       <c r="E44" s="3">
-        <v>180900</v>
+        <v>185200</v>
       </c>
       <c r="F44" s="3">
-        <v>120400</v>
+        <v>123300</v>
       </c>
       <c r="G44" s="3">
-        <v>61500</v>
+        <v>62900</v>
       </c>
       <c r="H44" s="3">
-        <v>96700</v>
+        <v>99000</v>
       </c>
       <c r="I44" s="3">
-        <v>37900</v>
+        <v>38800</v>
       </c>
       <c r="J44" s="3">
-        <v>20600</v>
+        <v>21100</v>
       </c>
       <c r="K44" s="3">
         <v>12100</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100900</v>
+        <v>103300</v>
       </c>
       <c r="E45" s="3">
-        <v>85100</v>
+        <v>87100</v>
       </c>
       <c r="F45" s="3">
-        <v>69500</v>
+        <v>71200</v>
       </c>
       <c r="G45" s="3">
-        <v>65300</v>
+        <v>66800</v>
       </c>
       <c r="H45" s="3">
-        <v>52300</v>
+        <v>53600</v>
       </c>
       <c r="I45" s="3">
-        <v>81600</v>
+        <v>83500</v>
       </c>
       <c r="J45" s="3">
-        <v>56500</v>
+        <v>57900</v>
       </c>
       <c r="K45" s="3">
         <v>54800</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1229300</v>
+        <v>1258300</v>
       </c>
       <c r="E46" s="3">
-        <v>1044100</v>
+        <v>1068700</v>
       </c>
       <c r="F46" s="3">
-        <v>851400</v>
+        <v>871500</v>
       </c>
       <c r="G46" s="3">
-        <v>528900</v>
+        <v>541400</v>
       </c>
       <c r="H46" s="3">
-        <v>415900</v>
+        <v>425700</v>
       </c>
       <c r="I46" s="3">
-        <v>387100</v>
+        <v>396300</v>
       </c>
       <c r="J46" s="3">
-        <v>293400</v>
+        <v>300300</v>
       </c>
       <c r="K46" s="3">
         <v>319400</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="E47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F47" s="3">
         <v>5300</v>
       </c>
-      <c r="F47" s="3">
-        <v>5100</v>
-      </c>
       <c r="G47" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H47" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I47" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="J47" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K47" s="3">
         <v>5800</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>379500</v>
+        <v>388400</v>
       </c>
       <c r="E48" s="3">
-        <v>356500</v>
+        <v>364900</v>
       </c>
       <c r="F48" s="3">
-        <v>337000</v>
+        <v>344900</v>
       </c>
       <c r="G48" s="3">
-        <v>125000</v>
+        <v>128000</v>
       </c>
       <c r="H48" s="3">
-        <v>217700</v>
+        <v>222900</v>
       </c>
       <c r="I48" s="3">
-        <v>93100</v>
+        <v>95300</v>
       </c>
       <c r="J48" s="3">
-        <v>73400</v>
+        <v>75100</v>
       </c>
       <c r="K48" s="3">
         <v>70300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1561600</v>
+        <v>1598500</v>
       </c>
       <c r="E49" s="3">
-        <v>1379400</v>
+        <v>1412000</v>
       </c>
       <c r="F49" s="3">
-        <v>1288400</v>
+        <v>1318800</v>
       </c>
       <c r="G49" s="3">
-        <v>616700</v>
+        <v>631300</v>
       </c>
       <c r="H49" s="3">
-        <v>713100</v>
+        <v>730000</v>
       </c>
       <c r="I49" s="3">
-        <v>493500</v>
+        <v>505200</v>
       </c>
       <c r="J49" s="3">
-        <v>382400</v>
+        <v>391500</v>
       </c>
       <c r="K49" s="3">
         <v>382500</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20900</v>
+        <v>21400</v>
       </c>
       <c r="E52" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="F52" s="3">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="G52" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="H52" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="I52" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="J52" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="K52" s="3">
         <v>6000</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3197200</v>
+        <v>3272800</v>
       </c>
       <c r="E54" s="3">
-        <v>2799100</v>
+        <v>2865200</v>
       </c>
       <c r="F54" s="3">
-        <v>2491900</v>
+        <v>2550700</v>
       </c>
       <c r="G54" s="3">
-        <v>1283800</v>
+        <v>1314100</v>
       </c>
       <c r="H54" s="3">
-        <v>1080900</v>
+        <v>1106500</v>
       </c>
       <c r="I54" s="3">
-        <v>982400</v>
+        <v>1005600</v>
       </c>
       <c r="J54" s="3">
-        <v>765200</v>
+        <v>783300</v>
       </c>
       <c r="K54" s="3">
         <v>784100</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>127600</v>
+        <v>130600</v>
       </c>
       <c r="E57" s="3">
-        <v>125500</v>
+        <v>128500</v>
       </c>
       <c r="F57" s="3">
-        <v>97100</v>
+        <v>99400</v>
       </c>
       <c r="G57" s="3">
-        <v>53100</v>
+        <v>54400</v>
       </c>
       <c r="H57" s="3">
-        <v>52400</v>
+        <v>53600</v>
       </c>
       <c r="I57" s="3">
-        <v>41200</v>
+        <v>42200</v>
       </c>
       <c r="J57" s="3">
-        <v>30800</v>
+        <v>31500</v>
       </c>
       <c r="K57" s="3">
         <v>31400</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>73200</v>
+        <v>74900</v>
       </c>
       <c r="E58" s="3">
-        <v>72000</v>
+        <v>73700</v>
       </c>
       <c r="F58" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="G58" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H58" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="I58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J58" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="K58" s="3">
         <v>22600</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>587300</v>
+        <v>601200</v>
       </c>
       <c r="E59" s="3">
-        <v>495400</v>
+        <v>507100</v>
       </c>
       <c r="F59" s="3">
-        <v>352300</v>
+        <v>360600</v>
       </c>
       <c r="G59" s="3">
-        <v>231100</v>
+        <v>236500</v>
       </c>
       <c r="H59" s="3">
-        <v>365000</v>
+        <v>373600</v>
       </c>
       <c r="I59" s="3">
-        <v>190400</v>
+        <v>194900</v>
       </c>
       <c r="J59" s="3">
-        <v>129900</v>
+        <v>132900</v>
       </c>
       <c r="K59" s="3">
         <v>106600</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>788100</v>
+        <v>806700</v>
       </c>
       <c r="E60" s="3">
-        <v>692900</v>
+        <v>709300</v>
       </c>
       <c r="F60" s="3">
-        <v>456500</v>
+        <v>467200</v>
       </c>
       <c r="G60" s="3">
-        <v>289200</v>
+        <v>296000</v>
       </c>
       <c r="H60" s="3">
-        <v>272300</v>
+        <v>278700</v>
       </c>
       <c r="I60" s="3">
-        <v>233000</v>
+        <v>238500</v>
       </c>
       <c r="J60" s="3">
-        <v>165800</v>
+        <v>169700</v>
       </c>
       <c r="K60" s="3">
         <v>160600</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>758700</v>
+        <v>776600</v>
       </c>
       <c r="E61" s="3">
-        <v>679400</v>
+        <v>695400</v>
       </c>
       <c r="F61" s="3">
-        <v>969800</v>
+        <v>992800</v>
       </c>
       <c r="G61" s="3">
-        <v>421300</v>
+        <v>431200</v>
       </c>
       <c r="H61" s="3">
-        <v>340100</v>
+        <v>348100</v>
       </c>
       <c r="I61" s="3">
-        <v>318400</v>
+        <v>325900</v>
       </c>
       <c r="J61" s="3">
-        <v>251200</v>
+        <v>257200</v>
       </c>
       <c r="K61" s="3">
         <v>282300</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>352100</v>
+        <v>360400</v>
       </c>
       <c r="E62" s="3">
-        <v>339300</v>
+        <v>347300</v>
       </c>
       <c r="F62" s="3">
-        <v>300300</v>
+        <v>307400</v>
       </c>
       <c r="G62" s="3">
-        <v>79100</v>
+        <v>81000</v>
       </c>
       <c r="H62" s="3">
-        <v>73500</v>
+        <v>75300</v>
       </c>
       <c r="I62" s="3">
-        <v>70000</v>
+        <v>71600</v>
       </c>
       <c r="J62" s="3">
-        <v>36500</v>
+        <v>37400</v>
       </c>
       <c r="K62" s="3">
         <v>35800</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2178200</v>
+        <v>2229600</v>
       </c>
       <c r="E66" s="3">
-        <v>1957500</v>
+        <v>2003700</v>
       </c>
       <c r="F66" s="3">
-        <v>1949100</v>
+        <v>1995200</v>
       </c>
       <c r="G66" s="3">
-        <v>982800</v>
+        <v>1006000</v>
       </c>
       <c r="H66" s="3">
-        <v>835900</v>
+        <v>855700</v>
       </c>
       <c r="I66" s="3">
-        <v>751800</v>
+        <v>769500</v>
       </c>
       <c r="J66" s="3">
-        <v>552400</v>
+        <v>565400</v>
       </c>
       <c r="K66" s="3">
         <v>581900</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-86600</v>
+        <v>-88600</v>
       </c>
       <c r="E72" s="3">
-        <v>-218000</v>
+        <v>-223200</v>
       </c>
       <c r="F72" s="3">
-        <v>-292900</v>
+        <v>-299800</v>
       </c>
       <c r="G72" s="3">
-        <v>58000</v>
+        <v>59400</v>
       </c>
       <c r="H72" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="I72" s="3">
         <v>-1300</v>
       </c>
       <c r="J72" s="3">
-        <v>-12900</v>
+        <v>-13200</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1019100</v>
+        <v>1043200</v>
       </c>
       <c r="E76" s="3">
-        <v>841500</v>
+        <v>861400</v>
       </c>
       <c r="F76" s="3">
-        <v>542700</v>
+        <v>555500</v>
       </c>
       <c r="G76" s="3">
-        <v>301000</v>
+        <v>308100</v>
       </c>
       <c r="H76" s="3">
-        <v>245000</v>
+        <v>250800</v>
       </c>
       <c r="I76" s="3">
-        <v>230700</v>
+        <v>236100</v>
       </c>
       <c r="J76" s="3">
-        <v>212800</v>
+        <v>217900</v>
       </c>
       <c r="K76" s="3">
         <v>202200</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>172300</v>
+        <v>176400</v>
       </c>
       <c r="E81" s="3">
-        <v>111200</v>
+        <v>113800</v>
       </c>
       <c r="F81" s="3">
-        <v>-320600</v>
+        <v>-328200</v>
       </c>
       <c r="G81" s="3">
-        <v>83900</v>
+        <v>85900</v>
       </c>
       <c r="H81" s="3">
-        <v>65600</v>
+        <v>67100</v>
       </c>
       <c r="I81" s="3">
-        <v>42800</v>
+        <v>43800</v>
       </c>
       <c r="J81" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="K81" s="3">
         <v>16500</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>126100</v>
+        <v>129100</v>
       </c>
       <c r="E83" s="3">
-        <v>125400</v>
+        <v>128300</v>
       </c>
       <c r="F83" s="3">
-        <v>101400</v>
+        <v>103800</v>
       </c>
       <c r="G83" s="3">
-        <v>67200</v>
+        <v>68800</v>
       </c>
       <c r="H83" s="3">
-        <v>53600</v>
+        <v>54800</v>
       </c>
       <c r="I83" s="3">
-        <v>47100</v>
+        <v>48200</v>
       </c>
       <c r="J83" s="3">
-        <v>36900</v>
+        <v>37800</v>
       </c>
       <c r="K83" s="3">
         <v>33700</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>213200</v>
+        <v>218200</v>
       </c>
       <c r="E89" s="3">
-        <v>371800</v>
+        <v>380600</v>
       </c>
       <c r="F89" s="3">
-        <v>137400</v>
+        <v>140600</v>
       </c>
       <c r="G89" s="3">
-        <v>126700</v>
+        <v>129700</v>
       </c>
       <c r="H89" s="3">
-        <v>147400</v>
+        <v>150800</v>
       </c>
       <c r="I89" s="3">
-        <v>138900</v>
+        <v>142200</v>
       </c>
       <c r="J89" s="3">
-        <v>111000</v>
+        <v>113600</v>
       </c>
       <c r="K89" s="3">
         <v>57500</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-74200</v>
+        <v>-75900</v>
       </c>
       <c r="E91" s="3">
-        <v>-50200</v>
+        <v>-51400</v>
       </c>
       <c r="F91" s="3">
-        <v>-59400</v>
+        <v>-60800</v>
       </c>
       <c r="G91" s="3">
-        <v>-51700</v>
+        <v>-53000</v>
       </c>
       <c r="H91" s="3">
-        <v>-46200</v>
+        <v>-47300</v>
       </c>
       <c r="I91" s="3">
-        <v>-37100</v>
+        <v>-38000</v>
       </c>
       <c r="J91" s="3">
-        <v>-25100</v>
+        <v>-25700</v>
       </c>
       <c r="K91" s="3">
         <v>-28600</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-262900</v>
+        <v>-269100</v>
       </c>
       <c r="E94" s="3">
-        <v>-181300</v>
+        <v>-185600</v>
       </c>
       <c r="F94" s="3">
-        <v>-783600</v>
+        <v>-802200</v>
       </c>
       <c r="G94" s="3">
-        <v>-135300</v>
+        <v>-138500</v>
       </c>
       <c r="H94" s="3">
-        <v>-101500</v>
+        <v>-103900</v>
       </c>
       <c r="I94" s="3">
-        <v>-166700</v>
+        <v>-170700</v>
       </c>
       <c r="J94" s="3">
-        <v>-41100</v>
+        <v>-42100</v>
       </c>
       <c r="K94" s="3">
         <v>-50800</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-39800</v>
+        <v>-40700</v>
       </c>
       <c r="E96" s="3">
-        <v>-35000</v>
+        <v>-35800</v>
       </c>
       <c r="F96" s="3">
-        <v>-28100</v>
+        <v>-28800</v>
       </c>
       <c r="G96" s="3">
-        <v>-23900</v>
+        <v>-24500</v>
       </c>
       <c r="H96" s="3">
-        <v>-21800</v>
+        <v>-22400</v>
       </c>
       <c r="I96" s="3">
-        <v>-19700</v>
+        <v>-20200</v>
       </c>
       <c r="J96" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>31100</v>
+        <v>31900</v>
       </c>
       <c r="E100" s="3">
-        <v>-95800</v>
+        <v>-98100</v>
       </c>
       <c r="F100" s="3">
-        <v>715100</v>
+        <v>732000</v>
       </c>
       <c r="G100" s="3">
-        <v>26000</v>
+        <v>26700</v>
       </c>
       <c r="H100" s="3">
-        <v>-33500</v>
+        <v>-34300</v>
       </c>
       <c r="I100" s="3">
-        <v>24800</v>
+        <v>25400</v>
       </c>
       <c r="J100" s="3">
-        <v>-95700</v>
+        <v>-98000</v>
       </c>
       <c r="K100" s="3">
         <v>-31400</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-18700</v>
+        <v>-19100</v>
       </c>
       <c r="E102" s="3">
-        <v>95100</v>
+        <v>97400</v>
       </c>
       <c r="F102" s="3">
-        <v>69400</v>
+        <v>71000</v>
       </c>
       <c r="G102" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="H102" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="I102" s="3">
         <v>-2800</v>
       </c>
       <c r="J102" s="3">
-        <v>-27100</v>
+        <v>-27700</v>
       </c>
       <c r="K102" s="3">
         <v>-24900</v>

--- a/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4238100</v>
+        <v>4199100</v>
       </c>
       <c r="E8" s="3">
-        <v>3616300</v>
+        <v>3583100</v>
       </c>
       <c r="F8" s="3">
-        <v>3140200</v>
+        <v>3111300</v>
       </c>
       <c r="G8" s="3">
-        <v>2519400</v>
+        <v>2496200</v>
       </c>
       <c r="H8" s="3">
-        <v>2255300</v>
+        <v>2234600</v>
       </c>
       <c r="I8" s="3">
-        <v>1934300</v>
+        <v>1916500</v>
       </c>
       <c r="J8" s="3">
-        <v>1648900</v>
+        <v>1633700</v>
       </c>
       <c r="K8" s="3">
         <v>1441900</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2873400</v>
+        <v>2847000</v>
       </c>
       <c r="E9" s="3">
-        <v>2441600</v>
+        <v>2419100</v>
       </c>
       <c r="F9" s="3">
-        <v>2131500</v>
+        <v>2111900</v>
       </c>
       <c r="G9" s="3">
-        <v>1722100</v>
+        <v>1706300</v>
       </c>
       <c r="H9" s="3">
-        <v>1550700</v>
+        <v>1536400</v>
       </c>
       <c r="I9" s="3">
-        <v>1369700</v>
+        <v>1357100</v>
       </c>
       <c r="J9" s="3">
-        <v>1153000</v>
+        <v>1142400</v>
       </c>
       <c r="K9" s="3">
         <v>1019100</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1364700</v>
+        <v>1352200</v>
       </c>
       <c r="E10" s="3">
-        <v>1174800</v>
+        <v>1164000</v>
       </c>
       <c r="F10" s="3">
-        <v>1008700</v>
+        <v>999400</v>
       </c>
       <c r="G10" s="3">
-        <v>797300</v>
+        <v>789900</v>
       </c>
       <c r="H10" s="3">
-        <v>704700</v>
+        <v>698200</v>
       </c>
       <c r="I10" s="3">
-        <v>564500</v>
+        <v>559400</v>
       </c>
       <c r="J10" s="3">
-        <v>495800</v>
+        <v>491300</v>
       </c>
       <c r="K10" s="3">
         <v>422800</v>
@@ -884,13 +884,13 @@
         <v>5600</v>
       </c>
       <c r="F14" s="3">
-        <v>412000</v>
+        <v>408200</v>
       </c>
       <c r="G14" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="H14" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>129100</v>
+        <v>127900</v>
       </c>
       <c r="E15" s="3">
-        <v>128300</v>
+        <v>127100</v>
       </c>
       <c r="F15" s="3">
-        <v>103800</v>
+        <v>102800</v>
       </c>
       <c r="G15" s="3">
-        <v>68800</v>
+        <v>68200</v>
       </c>
       <c r="H15" s="3">
-        <v>54800</v>
+        <v>54300</v>
       </c>
       <c r="I15" s="3">
-        <v>48200</v>
+        <v>47800</v>
       </c>
       <c r="J15" s="3">
-        <v>37800</v>
+        <v>37500</v>
       </c>
       <c r="K15" s="3">
         <v>33700</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3958700</v>
+        <v>3922300</v>
       </c>
       <c r="E17" s="3">
-        <v>3395400</v>
+        <v>3364100</v>
       </c>
       <c r="F17" s="3">
-        <v>3359800</v>
+        <v>3328900</v>
       </c>
       <c r="G17" s="3">
-        <v>2353000</v>
+        <v>2331400</v>
       </c>
       <c r="H17" s="3">
-        <v>2118400</v>
+        <v>2098900</v>
       </c>
       <c r="I17" s="3">
-        <v>1816200</v>
+        <v>1799500</v>
       </c>
       <c r="J17" s="3">
-        <v>1556600</v>
+        <v>1542300</v>
       </c>
       <c r="K17" s="3">
         <v>1383800</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>279400</v>
+        <v>276800</v>
       </c>
       <c r="E18" s="3">
-        <v>221000</v>
+        <v>218900</v>
       </c>
       <c r="F18" s="3">
-        <v>-219600</v>
+        <v>-217600</v>
       </c>
       <c r="G18" s="3">
-        <v>166400</v>
+        <v>164900</v>
       </c>
       <c r="H18" s="3">
-        <v>136900</v>
+        <v>135700</v>
       </c>
       <c r="I18" s="3">
-        <v>118100</v>
+        <v>117000</v>
       </c>
       <c r="J18" s="3">
-        <v>92300</v>
+        <v>91400</v>
       </c>
       <c r="K18" s="3">
         <v>58100</v>
@@ -1023,7 +1023,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14200</v>
+        <v>14100</v>
       </c>
       <c r="E20" s="3">
         <v>500</v>
@@ -1038,10 +1038,10 @@
         <v>2000</v>
       </c>
       <c r="I20" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="J20" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="K20" s="3">
         <v>-9200</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>422100</v>
+        <v>419200</v>
       </c>
       <c r="E21" s="3">
-        <v>349300</v>
+        <v>347000</v>
       </c>
       <c r="F21" s="3">
-        <v>-116300</v>
+        <v>-114500</v>
       </c>
       <c r="G21" s="3">
-        <v>235300</v>
+        <v>233600</v>
       </c>
       <c r="H21" s="3">
-        <v>193500</v>
+        <v>192100</v>
       </c>
       <c r="I21" s="3">
-        <v>154500</v>
+        <v>153400</v>
       </c>
       <c r="J21" s="3">
-        <v>118000</v>
+        <v>117200</v>
       </c>
       <c r="K21" s="3">
         <v>82800</v>
@@ -1083,19 +1083,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20900</v>
+        <v>20700</v>
       </c>
       <c r="E22" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="F22" s="3">
-        <v>41800</v>
+        <v>41500</v>
       </c>
       <c r="G22" s="3">
-        <v>16500</v>
+        <v>16300</v>
       </c>
       <c r="H22" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>272600</v>
+        <v>270100</v>
       </c>
       <c r="E23" s="3">
-        <v>189700</v>
+        <v>188000</v>
       </c>
       <c r="F23" s="3">
-        <v>-261500</v>
+        <v>-259100</v>
       </c>
       <c r="G23" s="3">
-        <v>150300</v>
+        <v>148900</v>
       </c>
       <c r="H23" s="3">
-        <v>126000</v>
+        <v>124900</v>
       </c>
       <c r="I23" s="3">
-        <v>106500</v>
+        <v>105500</v>
       </c>
       <c r="J23" s="3">
-        <v>80400</v>
+        <v>79600</v>
       </c>
       <c r="K23" s="3">
         <v>49000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>69000</v>
+        <v>68300</v>
       </c>
       <c r="E24" s="3">
-        <v>46800</v>
+        <v>46400</v>
       </c>
       <c r="F24" s="3">
+        <v>35100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>32200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>31100</v>
+      </c>
+      <c r="I24" s="3">
         <v>35400</v>
       </c>
-      <c r="G24" s="3">
-        <v>32500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>31400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>35700</v>
-      </c>
       <c r="J24" s="3">
-        <v>30500</v>
+        <v>30300</v>
       </c>
       <c r="K24" s="3">
         <v>15600</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>203700</v>
+        <v>201800</v>
       </c>
       <c r="E26" s="3">
-        <v>142900</v>
+        <v>141600</v>
       </c>
       <c r="F26" s="3">
-        <v>-296900</v>
+        <v>-294200</v>
       </c>
       <c r="G26" s="3">
-        <v>117800</v>
+        <v>116700</v>
       </c>
       <c r="H26" s="3">
-        <v>94600</v>
+        <v>93700</v>
       </c>
       <c r="I26" s="3">
-        <v>70800</v>
+        <v>70100</v>
       </c>
       <c r="J26" s="3">
-        <v>49800</v>
+        <v>49400</v>
       </c>
       <c r="K26" s="3">
         <v>33400</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>176400</v>
+        <v>174700</v>
       </c>
       <c r="E27" s="3">
-        <v>113800</v>
+        <v>112800</v>
       </c>
       <c r="F27" s="3">
-        <v>-328200</v>
+        <v>-325200</v>
       </c>
       <c r="G27" s="3">
-        <v>85900</v>
+        <v>85100</v>
       </c>
       <c r="H27" s="3">
-        <v>63800</v>
+        <v>63200</v>
       </c>
       <c r="I27" s="3">
-        <v>43800</v>
+        <v>43400</v>
       </c>
       <c r="J27" s="3">
-        <v>27900</v>
+        <v>27700</v>
       </c>
       <c r="K27" s="3">
         <v>16500</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="E32" s="3">
         <v>-500</v>
@@ -1398,10 +1398,10 @@
         <v>-2000</v>
       </c>
       <c r="I32" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="J32" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="K32" s="3">
         <v>9200</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>176400</v>
+        <v>174700</v>
       </c>
       <c r="E33" s="3">
-        <v>113800</v>
+        <v>112800</v>
       </c>
       <c r="F33" s="3">
-        <v>-328200</v>
+        <v>-325200</v>
       </c>
       <c r="G33" s="3">
-        <v>85900</v>
+        <v>85100</v>
       </c>
       <c r="H33" s="3">
-        <v>67100</v>
+        <v>66500</v>
       </c>
       <c r="I33" s="3">
-        <v>43800</v>
+        <v>43400</v>
       </c>
       <c r="J33" s="3">
-        <v>27900</v>
+        <v>27700</v>
       </c>
       <c r="K33" s="3">
         <v>16500</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>176400</v>
+        <v>174700</v>
       </c>
       <c r="E35" s="3">
-        <v>113800</v>
+        <v>112800</v>
       </c>
       <c r="F35" s="3">
-        <v>-328200</v>
+        <v>-325200</v>
       </c>
       <c r="G35" s="3">
-        <v>85900</v>
+        <v>85100</v>
       </c>
       <c r="H35" s="3">
-        <v>67100</v>
+        <v>66500</v>
       </c>
       <c r="I35" s="3">
-        <v>43800</v>
+        <v>43400</v>
       </c>
       <c r="J35" s="3">
-        <v>27900</v>
+        <v>27700</v>
       </c>
       <c r="K35" s="3">
         <v>16500</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>216100</v>
+        <v>214100</v>
       </c>
       <c r="E41" s="3">
-        <v>240400</v>
+        <v>238200</v>
       </c>
       <c r="F41" s="3">
-        <v>158100</v>
+        <v>156600</v>
       </c>
       <c r="G41" s="3">
-        <v>86500</v>
+        <v>85700</v>
       </c>
       <c r="H41" s="3">
-        <v>74600</v>
+        <v>73900</v>
       </c>
       <c r="I41" s="3">
-        <v>56600</v>
+        <v>56100</v>
       </c>
       <c r="J41" s="3">
-        <v>59400</v>
+        <v>58900</v>
       </c>
       <c r="K41" s="3">
         <v>85100</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>728400</v>
+        <v>721700</v>
       </c>
       <c r="E43" s="3">
-        <v>556000</v>
+        <v>550900</v>
       </c>
       <c r="F43" s="3">
-        <v>519000</v>
+        <v>514200</v>
       </c>
       <c r="G43" s="3">
-        <v>325100</v>
+        <v>322100</v>
       </c>
       <c r="H43" s="3">
-        <v>248000</v>
+        <v>245800</v>
       </c>
       <c r="I43" s="3">
-        <v>217400</v>
+        <v>215400</v>
       </c>
       <c r="J43" s="3">
-        <v>161900</v>
+        <v>160500</v>
       </c>
       <c r="K43" s="3">
         <v>167400</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>210500</v>
+        <v>208600</v>
       </c>
       <c r="E44" s="3">
-        <v>185200</v>
+        <v>183500</v>
       </c>
       <c r="F44" s="3">
-        <v>123300</v>
+        <v>122100</v>
       </c>
       <c r="G44" s="3">
-        <v>62900</v>
+        <v>62300</v>
       </c>
       <c r="H44" s="3">
-        <v>99000</v>
+        <v>98100</v>
       </c>
       <c r="I44" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="J44" s="3">
-        <v>21100</v>
+        <v>20900</v>
       </c>
       <c r="K44" s="3">
         <v>12100</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>103300</v>
+        <v>102400</v>
       </c>
       <c r="E45" s="3">
-        <v>87100</v>
+        <v>86300</v>
       </c>
       <c r="F45" s="3">
-        <v>71200</v>
+        <v>70500</v>
       </c>
       <c r="G45" s="3">
-        <v>66800</v>
+        <v>66200</v>
       </c>
       <c r="H45" s="3">
-        <v>53600</v>
+        <v>53100</v>
       </c>
       <c r="I45" s="3">
-        <v>83500</v>
+        <v>82800</v>
       </c>
       <c r="J45" s="3">
-        <v>57900</v>
+        <v>57300</v>
       </c>
       <c r="K45" s="3">
         <v>54800</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1258300</v>
+        <v>1246700</v>
       </c>
       <c r="E46" s="3">
-        <v>1068700</v>
+        <v>1058900</v>
       </c>
       <c r="F46" s="3">
-        <v>871500</v>
+        <v>863500</v>
       </c>
       <c r="G46" s="3">
-        <v>541400</v>
+        <v>536400</v>
       </c>
       <c r="H46" s="3">
-        <v>425700</v>
+        <v>421800</v>
       </c>
       <c r="I46" s="3">
-        <v>396300</v>
+        <v>392600</v>
       </c>
       <c r="J46" s="3">
-        <v>300300</v>
+        <v>297500</v>
       </c>
       <c r="K46" s="3">
         <v>319400</v>
@@ -1746,22 +1746,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="E47" s="3">
         <v>5400</v>
       </c>
       <c r="F47" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="G47" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="H47" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="I47" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="J47" s="3">
         <v>5000</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>388400</v>
+        <v>384900</v>
       </c>
       <c r="E48" s="3">
-        <v>364900</v>
+        <v>361600</v>
       </c>
       <c r="F48" s="3">
-        <v>344900</v>
+        <v>341800</v>
       </c>
       <c r="G48" s="3">
-        <v>128000</v>
+        <v>126800</v>
       </c>
       <c r="H48" s="3">
-        <v>222900</v>
+        <v>220800</v>
       </c>
       <c r="I48" s="3">
-        <v>95300</v>
+        <v>94500</v>
       </c>
       <c r="J48" s="3">
-        <v>75100</v>
+        <v>74400</v>
       </c>
       <c r="K48" s="3">
         <v>70300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1598500</v>
+        <v>1583800</v>
       </c>
       <c r="E49" s="3">
-        <v>1412000</v>
+        <v>1399000</v>
       </c>
       <c r="F49" s="3">
-        <v>1318800</v>
+        <v>1306700</v>
       </c>
       <c r="G49" s="3">
-        <v>631300</v>
+        <v>625500</v>
       </c>
       <c r="H49" s="3">
-        <v>730000</v>
+        <v>723200</v>
       </c>
       <c r="I49" s="3">
-        <v>505200</v>
+        <v>500500</v>
       </c>
       <c r="J49" s="3">
-        <v>391500</v>
+        <v>387900</v>
       </c>
       <c r="K49" s="3">
         <v>382500</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="E52" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="F52" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="G52" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="H52" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="I52" s="3">
         <v>3900</v>
       </c>
       <c r="J52" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="K52" s="3">
         <v>6000</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3272800</v>
+        <v>3242700</v>
       </c>
       <c r="E54" s="3">
-        <v>2865200</v>
+        <v>2838800</v>
       </c>
       <c r="F54" s="3">
-        <v>2550700</v>
+        <v>2527200</v>
       </c>
       <c r="G54" s="3">
-        <v>1314100</v>
+        <v>1302100</v>
       </c>
       <c r="H54" s="3">
-        <v>1106500</v>
+        <v>1096300</v>
       </c>
       <c r="I54" s="3">
-        <v>1005600</v>
+        <v>996400</v>
       </c>
       <c r="J54" s="3">
-        <v>783300</v>
+        <v>776100</v>
       </c>
       <c r="K54" s="3">
         <v>784100</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>130600</v>
+        <v>129400</v>
       </c>
       <c r="E57" s="3">
-        <v>128500</v>
+        <v>127300</v>
       </c>
       <c r="F57" s="3">
-        <v>99400</v>
+        <v>98500</v>
       </c>
       <c r="G57" s="3">
-        <v>54400</v>
+        <v>53900</v>
       </c>
       <c r="H57" s="3">
-        <v>53600</v>
+        <v>53100</v>
       </c>
       <c r="I57" s="3">
-        <v>42200</v>
+        <v>41800</v>
       </c>
       <c r="J57" s="3">
-        <v>31500</v>
+        <v>31200</v>
       </c>
       <c r="K57" s="3">
         <v>31400</v>
@@ -2044,10 +2044,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>74900</v>
+        <v>74200</v>
       </c>
       <c r="E58" s="3">
-        <v>73700</v>
+        <v>73000</v>
       </c>
       <c r="F58" s="3">
         <v>7200</v>
@@ -2056,13 +2056,13 @@
         <v>5100</v>
       </c>
       <c r="H58" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="I58" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J58" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="K58" s="3">
         <v>22600</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>601200</v>
+        <v>595700</v>
       </c>
       <c r="E59" s="3">
-        <v>507100</v>
+        <v>502500</v>
       </c>
       <c r="F59" s="3">
-        <v>360600</v>
+        <v>357300</v>
       </c>
       <c r="G59" s="3">
-        <v>236500</v>
+        <v>234300</v>
       </c>
       <c r="H59" s="3">
-        <v>373600</v>
+        <v>370200</v>
       </c>
       <c r="I59" s="3">
-        <v>194900</v>
+        <v>193100</v>
       </c>
       <c r="J59" s="3">
-        <v>132900</v>
+        <v>131700</v>
       </c>
       <c r="K59" s="3">
         <v>106600</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>806700</v>
+        <v>799300</v>
       </c>
       <c r="E60" s="3">
-        <v>709300</v>
+        <v>702700</v>
       </c>
       <c r="F60" s="3">
-        <v>467200</v>
+        <v>462900</v>
       </c>
       <c r="G60" s="3">
-        <v>296000</v>
+        <v>293300</v>
       </c>
       <c r="H60" s="3">
-        <v>278700</v>
+        <v>276200</v>
       </c>
       <c r="I60" s="3">
-        <v>238500</v>
+        <v>236300</v>
       </c>
       <c r="J60" s="3">
-        <v>169700</v>
+        <v>168100</v>
       </c>
       <c r="K60" s="3">
         <v>160600</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>776600</v>
+        <v>769500</v>
       </c>
       <c r="E61" s="3">
-        <v>695400</v>
+        <v>689000</v>
       </c>
       <c r="F61" s="3">
-        <v>992800</v>
+        <v>983600</v>
       </c>
       <c r="G61" s="3">
-        <v>431200</v>
+        <v>427300</v>
       </c>
       <c r="H61" s="3">
-        <v>348100</v>
+        <v>344900</v>
       </c>
       <c r="I61" s="3">
-        <v>325900</v>
+        <v>322900</v>
       </c>
       <c r="J61" s="3">
-        <v>257200</v>
+        <v>254800</v>
       </c>
       <c r="K61" s="3">
         <v>282300</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>360400</v>
+        <v>357100</v>
       </c>
       <c r="E62" s="3">
-        <v>347300</v>
+        <v>344100</v>
       </c>
       <c r="F62" s="3">
-        <v>307400</v>
+        <v>304500</v>
       </c>
       <c r="G62" s="3">
-        <v>81000</v>
+        <v>80300</v>
       </c>
       <c r="H62" s="3">
-        <v>75300</v>
+        <v>74600</v>
       </c>
       <c r="I62" s="3">
-        <v>71600</v>
+        <v>70900</v>
       </c>
       <c r="J62" s="3">
-        <v>37400</v>
+        <v>37000</v>
       </c>
       <c r="K62" s="3">
         <v>35800</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2229600</v>
+        <v>2209100</v>
       </c>
       <c r="E66" s="3">
-        <v>2003700</v>
+        <v>1985300</v>
       </c>
       <c r="F66" s="3">
-        <v>1995200</v>
+        <v>1976800</v>
       </c>
       <c r="G66" s="3">
-        <v>1006000</v>
+        <v>996800</v>
       </c>
       <c r="H66" s="3">
-        <v>855700</v>
+        <v>847800</v>
       </c>
       <c r="I66" s="3">
-        <v>769500</v>
+        <v>762400</v>
       </c>
       <c r="J66" s="3">
-        <v>565400</v>
+        <v>560200</v>
       </c>
       <c r="K66" s="3">
         <v>581900</v>
@@ -2448,16 +2448,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-88600</v>
+        <v>-87800</v>
       </c>
       <c r="E72" s="3">
-        <v>-223200</v>
+        <v>-221100</v>
       </c>
       <c r="F72" s="3">
-        <v>-299800</v>
+        <v>-297100</v>
       </c>
       <c r="G72" s="3">
-        <v>59400</v>
+        <v>58900</v>
       </c>
       <c r="H72" s="3">
         <v>9800</v>
@@ -2466,7 +2466,7 @@
         <v>-1300</v>
       </c>
       <c r="J72" s="3">
-        <v>-13200</v>
+        <v>-13100</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1043200</v>
+        <v>1033600</v>
       </c>
       <c r="E76" s="3">
-        <v>861400</v>
+        <v>853500</v>
       </c>
       <c r="F76" s="3">
-        <v>555500</v>
+        <v>550400</v>
       </c>
       <c r="G76" s="3">
-        <v>308100</v>
+        <v>305300</v>
       </c>
       <c r="H76" s="3">
-        <v>250800</v>
+        <v>248500</v>
       </c>
       <c r="I76" s="3">
-        <v>236100</v>
+        <v>234000</v>
       </c>
       <c r="J76" s="3">
-        <v>217900</v>
+        <v>215900</v>
       </c>
       <c r="K76" s="3">
         <v>202200</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>176400</v>
+        <v>174700</v>
       </c>
       <c r="E81" s="3">
-        <v>113800</v>
+        <v>112800</v>
       </c>
       <c r="F81" s="3">
-        <v>-328200</v>
+        <v>-325200</v>
       </c>
       <c r="G81" s="3">
-        <v>85900</v>
+        <v>85100</v>
       </c>
       <c r="H81" s="3">
-        <v>67100</v>
+        <v>66500</v>
       </c>
       <c r="I81" s="3">
-        <v>43800</v>
+        <v>43400</v>
       </c>
       <c r="J81" s="3">
-        <v>27900</v>
+        <v>27700</v>
       </c>
       <c r="K81" s="3">
         <v>16500</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>129100</v>
+        <v>127900</v>
       </c>
       <c r="E83" s="3">
-        <v>128300</v>
+        <v>127100</v>
       </c>
       <c r="F83" s="3">
-        <v>103800</v>
+        <v>102800</v>
       </c>
       <c r="G83" s="3">
-        <v>68800</v>
+        <v>68200</v>
       </c>
       <c r="H83" s="3">
-        <v>54800</v>
+        <v>54300</v>
       </c>
       <c r="I83" s="3">
-        <v>48200</v>
+        <v>47800</v>
       </c>
       <c r="J83" s="3">
-        <v>37800</v>
+        <v>37500</v>
       </c>
       <c r="K83" s="3">
         <v>33700</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>218200</v>
+        <v>216200</v>
       </c>
       <c r="E89" s="3">
-        <v>380600</v>
+        <v>377100</v>
       </c>
       <c r="F89" s="3">
-        <v>140600</v>
+        <v>139300</v>
       </c>
       <c r="G89" s="3">
-        <v>129700</v>
+        <v>128500</v>
       </c>
       <c r="H89" s="3">
-        <v>150800</v>
+        <v>149400</v>
       </c>
       <c r="I89" s="3">
-        <v>142200</v>
+        <v>140900</v>
       </c>
       <c r="J89" s="3">
-        <v>113600</v>
+        <v>112600</v>
       </c>
       <c r="K89" s="3">
         <v>57500</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-75900</v>
+        <v>-75200</v>
       </c>
       <c r="E91" s="3">
-        <v>-51400</v>
+        <v>-50900</v>
       </c>
       <c r="F91" s="3">
-        <v>-60800</v>
+        <v>-60300</v>
       </c>
       <c r="G91" s="3">
-        <v>-53000</v>
+        <v>-52500</v>
       </c>
       <c r="H91" s="3">
-        <v>-47300</v>
+        <v>-46900</v>
       </c>
       <c r="I91" s="3">
-        <v>-38000</v>
+        <v>-37600</v>
       </c>
       <c r="J91" s="3">
-        <v>-25700</v>
+        <v>-25500</v>
       </c>
       <c r="K91" s="3">
         <v>-28600</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-269100</v>
+        <v>-266600</v>
       </c>
       <c r="E94" s="3">
-        <v>-185600</v>
+        <v>-183900</v>
       </c>
       <c r="F94" s="3">
-        <v>-802200</v>
+        <v>-794800</v>
       </c>
       <c r="G94" s="3">
-        <v>-138500</v>
+        <v>-137300</v>
       </c>
       <c r="H94" s="3">
-        <v>-103900</v>
+        <v>-103000</v>
       </c>
       <c r="I94" s="3">
-        <v>-170700</v>
+        <v>-169100</v>
       </c>
       <c r="J94" s="3">
-        <v>-42100</v>
+        <v>-41700</v>
       </c>
       <c r="K94" s="3">
         <v>-50800</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-40700</v>
+        <v>-40300</v>
       </c>
       <c r="E96" s="3">
-        <v>-35800</v>
+        <v>-35500</v>
       </c>
       <c r="F96" s="3">
-        <v>-28800</v>
+        <v>-28500</v>
       </c>
       <c r="G96" s="3">
-        <v>-24500</v>
+        <v>-24300</v>
       </c>
       <c r="H96" s="3">
-        <v>-22400</v>
+        <v>-22200</v>
       </c>
       <c r="I96" s="3">
-        <v>-20200</v>
+        <v>-20000</v>
       </c>
       <c r="J96" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="E100" s="3">
-        <v>-98100</v>
+        <v>-97200</v>
       </c>
       <c r="F100" s="3">
-        <v>732000</v>
+        <v>725200</v>
       </c>
       <c r="G100" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="H100" s="3">
-        <v>-34300</v>
+        <v>-34000</v>
       </c>
       <c r="I100" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="J100" s="3">
-        <v>-98000</v>
+        <v>-97100</v>
       </c>
       <c r="K100" s="3">
         <v>-31400</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19100</v>
+        <v>-19000</v>
       </c>
       <c r="E102" s="3">
-        <v>97400</v>
+        <v>96500</v>
       </c>
       <c r="F102" s="3">
-        <v>71000</v>
+        <v>70400</v>
       </c>
       <c r="G102" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="H102" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="I102" s="3">
         <v>-2800</v>
       </c>
       <c r="J102" s="3">
-        <v>-27700</v>
+        <v>-27400</v>
       </c>
       <c r="K102" s="3">
         <v>-24900</v>

--- a/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4199100</v>
+        <v>4327100</v>
       </c>
       <c r="E8" s="3">
-        <v>3583100</v>
+        <v>3692300</v>
       </c>
       <c r="F8" s="3">
-        <v>3111300</v>
+        <v>3206200</v>
       </c>
       <c r="G8" s="3">
-        <v>2496200</v>
+        <v>2572300</v>
       </c>
       <c r="H8" s="3">
-        <v>2234600</v>
+        <v>2302700</v>
       </c>
       <c r="I8" s="3">
-        <v>1916500</v>
+        <v>1974900</v>
       </c>
       <c r="J8" s="3">
-        <v>1633700</v>
+        <v>1683500</v>
       </c>
       <c r="K8" s="3">
         <v>1441900</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2847000</v>
+        <v>2933700</v>
       </c>
       <c r="E9" s="3">
-        <v>2419100</v>
+        <v>2492900</v>
       </c>
       <c r="F9" s="3">
-        <v>2111900</v>
+        <v>2176300</v>
       </c>
       <c r="G9" s="3">
-        <v>1706300</v>
+        <v>1758300</v>
       </c>
       <c r="H9" s="3">
-        <v>1536400</v>
+        <v>1583300</v>
       </c>
       <c r="I9" s="3">
-        <v>1357100</v>
+        <v>1398500</v>
       </c>
       <c r="J9" s="3">
-        <v>1142400</v>
+        <v>1177300</v>
       </c>
       <c r="K9" s="3">
         <v>1019100</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1352200</v>
+        <v>1393400</v>
       </c>
       <c r="E10" s="3">
-        <v>1164000</v>
+        <v>1199400</v>
       </c>
       <c r="F10" s="3">
-        <v>999400</v>
+        <v>1029900</v>
       </c>
       <c r="G10" s="3">
-        <v>789900</v>
+        <v>814000</v>
       </c>
       <c r="H10" s="3">
-        <v>698200</v>
+        <v>719500</v>
       </c>
       <c r="I10" s="3">
-        <v>559400</v>
+        <v>576400</v>
       </c>
       <c r="J10" s="3">
-        <v>491300</v>
+        <v>506200</v>
       </c>
       <c r="K10" s="3">
         <v>422800</v>
@@ -878,19 +878,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E14" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F14" s="3">
-        <v>408200</v>
+        <v>420600</v>
       </c>
       <c r="G14" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="H14" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>127900</v>
+        <v>131800</v>
       </c>
       <c r="E15" s="3">
-        <v>127100</v>
+        <v>131000</v>
       </c>
       <c r="F15" s="3">
-        <v>102800</v>
+        <v>106000</v>
       </c>
       <c r="G15" s="3">
-        <v>68200</v>
+        <v>70300</v>
       </c>
       <c r="H15" s="3">
-        <v>54300</v>
+        <v>56000</v>
       </c>
       <c r="I15" s="3">
-        <v>47800</v>
+        <v>49200</v>
       </c>
       <c r="J15" s="3">
-        <v>37500</v>
+        <v>38600</v>
       </c>
       <c r="K15" s="3">
         <v>33700</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3922300</v>
+        <v>4041900</v>
       </c>
       <c r="E17" s="3">
-        <v>3364100</v>
+        <v>3466700</v>
       </c>
       <c r="F17" s="3">
-        <v>3328900</v>
+        <v>3430400</v>
       </c>
       <c r="G17" s="3">
-        <v>2331400</v>
+        <v>2402400</v>
       </c>
       <c r="H17" s="3">
-        <v>2098900</v>
+        <v>2162900</v>
       </c>
       <c r="I17" s="3">
-        <v>1799500</v>
+        <v>1854300</v>
       </c>
       <c r="J17" s="3">
-        <v>1542300</v>
+        <v>1589300</v>
       </c>
       <c r="K17" s="3">
         <v>1383800</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>276800</v>
+        <v>285200</v>
       </c>
       <c r="E18" s="3">
-        <v>218900</v>
+        <v>225600</v>
       </c>
       <c r="F18" s="3">
-        <v>-217600</v>
+        <v>-224200</v>
       </c>
       <c r="G18" s="3">
-        <v>164900</v>
+        <v>169900</v>
       </c>
       <c r="H18" s="3">
-        <v>135700</v>
+        <v>139800</v>
       </c>
       <c r="I18" s="3">
-        <v>117000</v>
+        <v>120600</v>
       </c>
       <c r="J18" s="3">
-        <v>91400</v>
+        <v>94200</v>
       </c>
       <c r="K18" s="3">
         <v>58100</v>
@@ -1023,7 +1023,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="E20" s="3">
         <v>500</v>
@@ -1038,10 +1038,10 @@
         <v>2000</v>
       </c>
       <c r="I20" s="3">
-        <v>-11500</v>
+        <v>-11900</v>
       </c>
       <c r="J20" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="K20" s="3">
         <v>-9200</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>419200</v>
+        <v>433600</v>
       </c>
       <c r="E21" s="3">
-        <v>347000</v>
+        <v>359200</v>
       </c>
       <c r="F21" s="3">
-        <v>-114500</v>
+        <v>-116700</v>
       </c>
       <c r="G21" s="3">
-        <v>233600</v>
+        <v>241600</v>
       </c>
       <c r="H21" s="3">
-        <v>192100</v>
+        <v>198700</v>
       </c>
       <c r="I21" s="3">
-        <v>153400</v>
+        <v>158700</v>
       </c>
       <c r="J21" s="3">
-        <v>117200</v>
+        <v>121300</v>
       </c>
       <c r="K21" s="3">
         <v>82800</v>
@@ -1083,19 +1083,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20700</v>
+        <v>21400</v>
       </c>
       <c r="E22" s="3">
-        <v>31400</v>
+        <v>32400</v>
       </c>
       <c r="F22" s="3">
-        <v>41500</v>
+        <v>42700</v>
       </c>
       <c r="G22" s="3">
-        <v>16300</v>
+        <v>16800</v>
       </c>
       <c r="H22" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>270100</v>
+        <v>278400</v>
       </c>
       <c r="E23" s="3">
-        <v>188000</v>
+        <v>193700</v>
       </c>
       <c r="F23" s="3">
-        <v>-259100</v>
+        <v>-267000</v>
       </c>
       <c r="G23" s="3">
-        <v>148900</v>
+        <v>153400</v>
       </c>
       <c r="H23" s="3">
-        <v>124900</v>
+        <v>128700</v>
       </c>
       <c r="I23" s="3">
-        <v>105500</v>
+        <v>108700</v>
       </c>
       <c r="J23" s="3">
-        <v>79600</v>
+        <v>82100</v>
       </c>
       <c r="K23" s="3">
         <v>49000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>68300</v>
+        <v>70400</v>
       </c>
       <c r="E24" s="3">
-        <v>46400</v>
+        <v>47800</v>
       </c>
       <c r="F24" s="3">
-        <v>35100</v>
+        <v>36200</v>
       </c>
       <c r="G24" s="3">
-        <v>32200</v>
+        <v>33200</v>
       </c>
       <c r="H24" s="3">
-        <v>31100</v>
+        <v>32100</v>
       </c>
       <c r="I24" s="3">
-        <v>35400</v>
+        <v>36500</v>
       </c>
       <c r="J24" s="3">
-        <v>30300</v>
+        <v>31200</v>
       </c>
       <c r="K24" s="3">
         <v>15600</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>201800</v>
+        <v>207900</v>
       </c>
       <c r="E26" s="3">
-        <v>141600</v>
+        <v>146000</v>
       </c>
       <c r="F26" s="3">
-        <v>-294200</v>
+        <v>-303200</v>
       </c>
       <c r="G26" s="3">
-        <v>116700</v>
+        <v>120200</v>
       </c>
       <c r="H26" s="3">
-        <v>93700</v>
+        <v>96600</v>
       </c>
       <c r="I26" s="3">
-        <v>70100</v>
+        <v>72200</v>
       </c>
       <c r="J26" s="3">
-        <v>49400</v>
+        <v>50900</v>
       </c>
       <c r="K26" s="3">
         <v>33400</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>174700</v>
+        <v>180100</v>
       </c>
       <c r="E27" s="3">
-        <v>112800</v>
+        <v>116200</v>
       </c>
       <c r="F27" s="3">
-        <v>-325200</v>
+        <v>-335100</v>
       </c>
       <c r="G27" s="3">
-        <v>85100</v>
+        <v>87700</v>
       </c>
       <c r="H27" s="3">
-        <v>63200</v>
+        <v>65200</v>
       </c>
       <c r="I27" s="3">
-        <v>43400</v>
+        <v>44700</v>
       </c>
       <c r="J27" s="3">
-        <v>27700</v>
+        <v>28500</v>
       </c>
       <c r="K27" s="3">
         <v>16500</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1383,7 +1383,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14100</v>
+        <v>-14500</v>
       </c>
       <c r="E32" s="3">
         <v>-500</v>
@@ -1398,10 +1398,10 @@
         <v>-2000</v>
       </c>
       <c r="I32" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="J32" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="K32" s="3">
         <v>9200</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>174700</v>
+        <v>180100</v>
       </c>
       <c r="E33" s="3">
-        <v>112800</v>
+        <v>116200</v>
       </c>
       <c r="F33" s="3">
-        <v>-325200</v>
+        <v>-335100</v>
       </c>
       <c r="G33" s="3">
-        <v>85100</v>
+        <v>87700</v>
       </c>
       <c r="H33" s="3">
-        <v>66500</v>
+        <v>68500</v>
       </c>
       <c r="I33" s="3">
-        <v>43400</v>
+        <v>44700</v>
       </c>
       <c r="J33" s="3">
-        <v>27700</v>
+        <v>28500</v>
       </c>
       <c r="K33" s="3">
         <v>16500</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>174700</v>
+        <v>180100</v>
       </c>
       <c r="E35" s="3">
-        <v>112800</v>
+        <v>116200</v>
       </c>
       <c r="F35" s="3">
-        <v>-325200</v>
+        <v>-335100</v>
       </c>
       <c r="G35" s="3">
-        <v>85100</v>
+        <v>87700</v>
       </c>
       <c r="H35" s="3">
-        <v>66500</v>
+        <v>68500</v>
       </c>
       <c r="I35" s="3">
-        <v>43400</v>
+        <v>44700</v>
       </c>
       <c r="J35" s="3">
-        <v>27700</v>
+        <v>28500</v>
       </c>
       <c r="K35" s="3">
         <v>16500</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>214100</v>
+        <v>220600</v>
       </c>
       <c r="E41" s="3">
-        <v>238200</v>
+        <v>245400</v>
       </c>
       <c r="F41" s="3">
-        <v>156600</v>
+        <v>161400</v>
       </c>
       <c r="G41" s="3">
-        <v>85700</v>
+        <v>88400</v>
       </c>
       <c r="H41" s="3">
-        <v>73900</v>
+        <v>76200</v>
       </c>
       <c r="I41" s="3">
-        <v>56100</v>
+        <v>57800</v>
       </c>
       <c r="J41" s="3">
-        <v>58900</v>
+        <v>60700</v>
       </c>
       <c r="K41" s="3">
         <v>85100</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>721700</v>
+        <v>743700</v>
       </c>
       <c r="E43" s="3">
-        <v>550900</v>
+        <v>567700</v>
       </c>
       <c r="F43" s="3">
-        <v>514200</v>
+        <v>529900</v>
       </c>
       <c r="G43" s="3">
-        <v>322100</v>
+        <v>332000</v>
       </c>
       <c r="H43" s="3">
-        <v>245800</v>
+        <v>253300</v>
       </c>
       <c r="I43" s="3">
-        <v>215400</v>
+        <v>222000</v>
       </c>
       <c r="J43" s="3">
-        <v>160500</v>
+        <v>165300</v>
       </c>
       <c r="K43" s="3">
         <v>167400</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>208600</v>
+        <v>214900</v>
       </c>
       <c r="E44" s="3">
-        <v>183500</v>
+        <v>189100</v>
       </c>
       <c r="F44" s="3">
-        <v>122100</v>
+        <v>125900</v>
       </c>
       <c r="G44" s="3">
-        <v>62300</v>
+        <v>64200</v>
       </c>
       <c r="H44" s="3">
-        <v>98100</v>
+        <v>101100</v>
       </c>
       <c r="I44" s="3">
-        <v>38400</v>
+        <v>39600</v>
       </c>
       <c r="J44" s="3">
-        <v>20900</v>
+        <v>21500</v>
       </c>
       <c r="K44" s="3">
         <v>12100</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>102400</v>
+        <v>105500</v>
       </c>
       <c r="E45" s="3">
-        <v>86300</v>
+        <v>88900</v>
       </c>
       <c r="F45" s="3">
-        <v>70500</v>
+        <v>72600</v>
       </c>
       <c r="G45" s="3">
-        <v>66200</v>
+        <v>68200</v>
       </c>
       <c r="H45" s="3">
-        <v>53100</v>
+        <v>54700</v>
       </c>
       <c r="I45" s="3">
-        <v>82800</v>
+        <v>85300</v>
       </c>
       <c r="J45" s="3">
-        <v>57300</v>
+        <v>59100</v>
       </c>
       <c r="K45" s="3">
         <v>54800</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1246700</v>
+        <v>1284700</v>
       </c>
       <c r="E46" s="3">
-        <v>1058900</v>
+        <v>1091200</v>
       </c>
       <c r="F46" s="3">
-        <v>863500</v>
+        <v>889800</v>
       </c>
       <c r="G46" s="3">
-        <v>536400</v>
+        <v>552800</v>
       </c>
       <c r="H46" s="3">
-        <v>421800</v>
+        <v>434700</v>
       </c>
       <c r="I46" s="3">
-        <v>392600</v>
+        <v>404600</v>
       </c>
       <c r="J46" s="3">
-        <v>297500</v>
+        <v>306600</v>
       </c>
       <c r="K46" s="3">
         <v>319400</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E47" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F47" s="3">
         <v>5400</v>
       </c>
-      <c r="F47" s="3">
-        <v>5200</v>
-      </c>
       <c r="G47" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="H47" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="I47" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="J47" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K47" s="3">
         <v>5800</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>384900</v>
+        <v>396600</v>
       </c>
       <c r="E48" s="3">
-        <v>361600</v>
+        <v>372600</v>
       </c>
       <c r="F48" s="3">
-        <v>341800</v>
+        <v>352200</v>
       </c>
       <c r="G48" s="3">
-        <v>126800</v>
+        <v>130700</v>
       </c>
       <c r="H48" s="3">
-        <v>220800</v>
+        <v>227500</v>
       </c>
       <c r="I48" s="3">
-        <v>94500</v>
+        <v>97300</v>
       </c>
       <c r="J48" s="3">
-        <v>74400</v>
+        <v>76700</v>
       </c>
       <c r="K48" s="3">
         <v>70300</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1583800</v>
+        <v>1632100</v>
       </c>
       <c r="E49" s="3">
-        <v>1399000</v>
+        <v>1441700</v>
       </c>
       <c r="F49" s="3">
-        <v>1306700</v>
+        <v>1346500</v>
       </c>
       <c r="G49" s="3">
-        <v>625500</v>
+        <v>644500</v>
       </c>
       <c r="H49" s="3">
-        <v>723200</v>
+        <v>745300</v>
       </c>
       <c r="I49" s="3">
-        <v>500500</v>
+        <v>515800</v>
       </c>
       <c r="J49" s="3">
-        <v>387900</v>
+        <v>399700</v>
       </c>
       <c r="K49" s="3">
         <v>382500</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21200</v>
+        <v>21800</v>
       </c>
       <c r="E52" s="3">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="F52" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="G52" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="H52" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="I52" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J52" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="K52" s="3">
         <v>6000</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3242700</v>
+        <v>3341500</v>
       </c>
       <c r="E54" s="3">
-        <v>2838800</v>
+        <v>2925400</v>
       </c>
       <c r="F54" s="3">
-        <v>2527200</v>
+        <v>2604300</v>
       </c>
       <c r="G54" s="3">
-        <v>1302100</v>
+        <v>1341800</v>
       </c>
       <c r="H54" s="3">
-        <v>1096300</v>
+        <v>1129700</v>
       </c>
       <c r="I54" s="3">
-        <v>996400</v>
+        <v>1026800</v>
       </c>
       <c r="J54" s="3">
-        <v>776100</v>
+        <v>799700</v>
       </c>
       <c r="K54" s="3">
         <v>784100</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>129400</v>
+        <v>133300</v>
       </c>
       <c r="E57" s="3">
-        <v>127300</v>
+        <v>131200</v>
       </c>
       <c r="F57" s="3">
-        <v>98500</v>
+        <v>101500</v>
       </c>
       <c r="G57" s="3">
-        <v>53900</v>
+        <v>55500</v>
       </c>
       <c r="H57" s="3">
-        <v>53100</v>
+        <v>54700</v>
       </c>
       <c r="I57" s="3">
-        <v>41800</v>
+        <v>43100</v>
       </c>
       <c r="J57" s="3">
-        <v>31200</v>
+        <v>32200</v>
       </c>
       <c r="K57" s="3">
         <v>31400</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>74200</v>
+        <v>76500</v>
       </c>
       <c r="E58" s="3">
-        <v>73000</v>
+        <v>75200</v>
       </c>
       <c r="F58" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="G58" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H58" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="I58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J58" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="K58" s="3">
         <v>22600</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>595700</v>
+        <v>613800</v>
       </c>
       <c r="E59" s="3">
-        <v>502500</v>
+        <v>517800</v>
       </c>
       <c r="F59" s="3">
-        <v>357300</v>
+        <v>368200</v>
       </c>
       <c r="G59" s="3">
-        <v>234300</v>
+        <v>241500</v>
       </c>
       <c r="H59" s="3">
-        <v>370200</v>
+        <v>381500</v>
       </c>
       <c r="I59" s="3">
-        <v>193100</v>
+        <v>199000</v>
       </c>
       <c r="J59" s="3">
-        <v>131700</v>
+        <v>135700</v>
       </c>
       <c r="K59" s="3">
         <v>106600</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>799300</v>
+        <v>823700</v>
       </c>
       <c r="E60" s="3">
-        <v>702700</v>
+        <v>724200</v>
       </c>
       <c r="F60" s="3">
-        <v>462900</v>
+        <v>477100</v>
       </c>
       <c r="G60" s="3">
-        <v>293300</v>
+        <v>302200</v>
       </c>
       <c r="H60" s="3">
-        <v>276200</v>
+        <v>284600</v>
       </c>
       <c r="I60" s="3">
-        <v>236300</v>
+        <v>243500</v>
       </c>
       <c r="J60" s="3">
-        <v>168100</v>
+        <v>173300</v>
       </c>
       <c r="K60" s="3">
         <v>160600</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>769500</v>
+        <v>792900</v>
       </c>
       <c r="E61" s="3">
-        <v>689000</v>
+        <v>710000</v>
       </c>
       <c r="F61" s="3">
-        <v>983600</v>
+        <v>1013600</v>
       </c>
       <c r="G61" s="3">
-        <v>427300</v>
+        <v>440300</v>
       </c>
       <c r="H61" s="3">
-        <v>344900</v>
+        <v>355400</v>
       </c>
       <c r="I61" s="3">
-        <v>322900</v>
+        <v>332800</v>
       </c>
       <c r="J61" s="3">
-        <v>254800</v>
+        <v>262600</v>
       </c>
       <c r="K61" s="3">
         <v>282300</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>357100</v>
+        <v>368000</v>
       </c>
       <c r="E62" s="3">
-        <v>344100</v>
+        <v>354600</v>
       </c>
       <c r="F62" s="3">
-        <v>304500</v>
+        <v>313800</v>
       </c>
       <c r="G62" s="3">
-        <v>80300</v>
+        <v>82700</v>
       </c>
       <c r="H62" s="3">
-        <v>74600</v>
+        <v>76800</v>
       </c>
       <c r="I62" s="3">
-        <v>70900</v>
+        <v>73100</v>
       </c>
       <c r="J62" s="3">
-        <v>37000</v>
+        <v>38100</v>
       </c>
       <c r="K62" s="3">
         <v>35800</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2209100</v>
+        <v>2276400</v>
       </c>
       <c r="E66" s="3">
-        <v>1985300</v>
+        <v>2045800</v>
       </c>
       <c r="F66" s="3">
-        <v>1976800</v>
+        <v>2037100</v>
       </c>
       <c r="G66" s="3">
-        <v>996800</v>
+        <v>1027100</v>
       </c>
       <c r="H66" s="3">
-        <v>847800</v>
+        <v>873600</v>
       </c>
       <c r="I66" s="3">
-        <v>762400</v>
+        <v>785700</v>
       </c>
       <c r="J66" s="3">
-        <v>560200</v>
+        <v>577300</v>
       </c>
       <c r="K66" s="3">
         <v>581900</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-87800</v>
+        <v>-90500</v>
       </c>
       <c r="E72" s="3">
-        <v>-221100</v>
+        <v>-227900</v>
       </c>
       <c r="F72" s="3">
-        <v>-297100</v>
+        <v>-306100</v>
       </c>
       <c r="G72" s="3">
-        <v>58900</v>
+        <v>60600</v>
       </c>
       <c r="H72" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="I72" s="3">
         <v>-1300</v>
       </c>
       <c r="J72" s="3">
-        <v>-13100</v>
+        <v>-13500</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1033600</v>
+        <v>1065100</v>
       </c>
       <c r="E76" s="3">
-        <v>853500</v>
+        <v>879500</v>
       </c>
       <c r="F76" s="3">
-        <v>550400</v>
+        <v>567200</v>
       </c>
       <c r="G76" s="3">
-        <v>305300</v>
+        <v>314600</v>
       </c>
       <c r="H76" s="3">
-        <v>248500</v>
+        <v>256100</v>
       </c>
       <c r="I76" s="3">
-        <v>234000</v>
+        <v>241100</v>
       </c>
       <c r="J76" s="3">
-        <v>215900</v>
+        <v>222400</v>
       </c>
       <c r="K76" s="3">
         <v>202200</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>174700</v>
+        <v>180100</v>
       </c>
       <c r="E81" s="3">
-        <v>112800</v>
+        <v>116200</v>
       </c>
       <c r="F81" s="3">
-        <v>-325200</v>
+        <v>-335100</v>
       </c>
       <c r="G81" s="3">
-        <v>85100</v>
+        <v>87700</v>
       </c>
       <c r="H81" s="3">
-        <v>66500</v>
+        <v>68500</v>
       </c>
       <c r="I81" s="3">
-        <v>43400</v>
+        <v>44700</v>
       </c>
       <c r="J81" s="3">
-        <v>27700</v>
+        <v>28500</v>
       </c>
       <c r="K81" s="3">
         <v>16500</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>127900</v>
+        <v>131800</v>
       </c>
       <c r="E83" s="3">
-        <v>127100</v>
+        <v>131000</v>
       </c>
       <c r="F83" s="3">
-        <v>102800</v>
+        <v>106000</v>
       </c>
       <c r="G83" s="3">
-        <v>68200</v>
+        <v>70300</v>
       </c>
       <c r="H83" s="3">
-        <v>54300</v>
+        <v>56000</v>
       </c>
       <c r="I83" s="3">
-        <v>47800</v>
+        <v>49200</v>
       </c>
       <c r="J83" s="3">
-        <v>37500</v>
+        <v>38600</v>
       </c>
       <c r="K83" s="3">
         <v>33700</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>216200</v>
+        <v>222800</v>
       </c>
       <c r="E89" s="3">
-        <v>377100</v>
+        <v>388600</v>
       </c>
       <c r="F89" s="3">
-        <v>139300</v>
+        <v>143600</v>
       </c>
       <c r="G89" s="3">
-        <v>128500</v>
+        <v>132500</v>
       </c>
       <c r="H89" s="3">
-        <v>149400</v>
+        <v>154000</v>
       </c>
       <c r="I89" s="3">
-        <v>140900</v>
+        <v>145200</v>
       </c>
       <c r="J89" s="3">
-        <v>112600</v>
+        <v>116000</v>
       </c>
       <c r="K89" s="3">
         <v>57500</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-75200</v>
+        <v>-77500</v>
       </c>
       <c r="E91" s="3">
-        <v>-50900</v>
+        <v>-52500</v>
       </c>
       <c r="F91" s="3">
-        <v>-60300</v>
+        <v>-62100</v>
       </c>
       <c r="G91" s="3">
-        <v>-52500</v>
+        <v>-54100</v>
       </c>
       <c r="H91" s="3">
-        <v>-46900</v>
+        <v>-48300</v>
       </c>
       <c r="I91" s="3">
-        <v>-37600</v>
+        <v>-38800</v>
       </c>
       <c r="J91" s="3">
-        <v>-25500</v>
+        <v>-26200</v>
       </c>
       <c r="K91" s="3">
         <v>-28600</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-266600</v>
+        <v>-274800</v>
       </c>
       <c r="E94" s="3">
-        <v>-183900</v>
+        <v>-189500</v>
       </c>
       <c r="F94" s="3">
-        <v>-794800</v>
+        <v>-819000</v>
       </c>
       <c r="G94" s="3">
-        <v>-137300</v>
+        <v>-141400</v>
       </c>
       <c r="H94" s="3">
-        <v>-103000</v>
+        <v>-106100</v>
       </c>
       <c r="I94" s="3">
-        <v>-169100</v>
+        <v>-174300</v>
       </c>
       <c r="J94" s="3">
-        <v>-41700</v>
+        <v>-43000</v>
       </c>
       <c r="K94" s="3">
         <v>-50800</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-40300</v>
+        <v>-41600</v>
       </c>
       <c r="E96" s="3">
-        <v>-35500</v>
+        <v>-36600</v>
       </c>
       <c r="F96" s="3">
-        <v>-28500</v>
+        <v>-29400</v>
       </c>
       <c r="G96" s="3">
-        <v>-24300</v>
+        <v>-25000</v>
       </c>
       <c r="H96" s="3">
-        <v>-22200</v>
+        <v>-22800</v>
       </c>
       <c r="I96" s="3">
-        <v>-20000</v>
+        <v>-20600</v>
       </c>
       <c r="J96" s="3">
-        <v>-9300</v>
+        <v>-9600</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>31600</v>
+        <v>32500</v>
       </c>
       <c r="E100" s="3">
-        <v>-97200</v>
+        <v>-100100</v>
       </c>
       <c r="F100" s="3">
-        <v>725200</v>
+        <v>747300</v>
       </c>
       <c r="G100" s="3">
-        <v>26400</v>
+        <v>27200</v>
       </c>
       <c r="H100" s="3">
-        <v>-34000</v>
+        <v>-35100</v>
       </c>
       <c r="I100" s="3">
-        <v>25200</v>
+        <v>26000</v>
       </c>
       <c r="J100" s="3">
-        <v>-97100</v>
+        <v>-100100</v>
       </c>
       <c r="K100" s="3">
         <v>-31400</v>
@@ -3218,7 +3218,7 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F101" s="3">
         <v>600</v>
@@ -3227,7 +3227,7 @@
         <v>-1000</v>
       </c>
       <c r="H101" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I101" s="3">
         <v>200</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19000</v>
+        <v>-19500</v>
       </c>
       <c r="E102" s="3">
-        <v>96500</v>
+        <v>99400</v>
       </c>
       <c r="F102" s="3">
-        <v>70400</v>
+        <v>72500</v>
       </c>
       <c r="G102" s="3">
-        <v>16700</v>
+        <v>17200</v>
       </c>
       <c r="H102" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="I102" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="J102" s="3">
-        <v>-27400</v>
+        <v>-28300</v>
       </c>
       <c r="K102" s="3">
         <v>-24900</v>

--- a/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>FSV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4327100</v>
+        <v>5179400</v>
       </c>
       <c r="E8" s="3">
-        <v>3692300</v>
+        <v>4492500</v>
       </c>
       <c r="F8" s="3">
-        <v>3206200</v>
+        <v>3833400</v>
       </c>
       <c r="G8" s="3">
-        <v>2572300</v>
+        <v>3328700</v>
       </c>
       <c r="H8" s="3">
-        <v>2302700</v>
+        <v>2670600</v>
       </c>
       <c r="I8" s="3">
-        <v>1974900</v>
+        <v>2390700</v>
       </c>
       <c r="J8" s="3">
+        <v>2050400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1683500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1441900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2933700</v>
+        <v>3547600</v>
       </c>
       <c r="E9" s="3">
-        <v>2492900</v>
+        <v>3045900</v>
       </c>
       <c r="F9" s="3">
-        <v>2176300</v>
+        <v>2588100</v>
       </c>
       <c r="G9" s="3">
-        <v>1758300</v>
+        <v>2259500</v>
       </c>
       <c r="H9" s="3">
-        <v>1583300</v>
+        <v>1825500</v>
       </c>
       <c r="I9" s="3">
-        <v>1398500</v>
+        <v>1643800</v>
       </c>
       <c r="J9" s="3">
+        <v>1452000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1177300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1019100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1393400</v>
+        <v>1631700</v>
       </c>
       <c r="E10" s="3">
-        <v>1199400</v>
+        <v>1446600</v>
       </c>
       <c r="F10" s="3">
-        <v>1029900</v>
+        <v>1245300</v>
       </c>
       <c r="G10" s="3">
-        <v>814000</v>
+        <v>1069300</v>
       </c>
       <c r="H10" s="3">
-        <v>719500</v>
+        <v>845100</v>
       </c>
       <c r="I10" s="3">
-        <v>576400</v>
+        <v>747000</v>
       </c>
       <c r="J10" s="3">
+        <v>598400</v>
+      </c>
+      <c r="K10" s="3">
         <v>506200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>422800</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-700</v>
       </c>
-      <c r="E14" s="3">
-        <v>5700</v>
-      </c>
       <c r="F14" s="3">
-        <v>420600</v>
+        <v>5900</v>
       </c>
       <c r="G14" s="3">
-        <v>6000</v>
+        <v>436700</v>
       </c>
       <c r="H14" s="3">
-        <v>10900</v>
+        <v>6200</v>
       </c>
       <c r="I14" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1500</v>
       </c>
       <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>131800</v>
+        <v>152300</v>
       </c>
       <c r="E15" s="3">
-        <v>131000</v>
+        <v>136800</v>
       </c>
       <c r="F15" s="3">
-        <v>106000</v>
+        <v>136000</v>
       </c>
       <c r="G15" s="3">
-        <v>70300</v>
+        <v>110000</v>
       </c>
       <c r="H15" s="3">
-        <v>56000</v>
+        <v>73000</v>
       </c>
       <c r="I15" s="3">
-        <v>49200</v>
+        <v>58100</v>
       </c>
       <c r="J15" s="3">
+        <v>51100</v>
+      </c>
+      <c r="K15" s="3">
         <v>38600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>33700</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4041900</v>
+        <v>4876500</v>
       </c>
       <c r="E17" s="3">
-        <v>3466700</v>
+        <v>4196400</v>
       </c>
       <c r="F17" s="3">
-        <v>3430400</v>
+        <v>3599200</v>
       </c>
       <c r="G17" s="3">
-        <v>2402400</v>
+        <v>3561500</v>
       </c>
       <c r="H17" s="3">
-        <v>2162900</v>
+        <v>2494300</v>
       </c>
       <c r="I17" s="3">
-        <v>1854300</v>
+        <v>2245600</v>
       </c>
       <c r="J17" s="3">
+        <v>1925200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1589300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1383800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>285200</v>
+        <v>302800</v>
       </c>
       <c r="E18" s="3">
-        <v>225600</v>
+        <v>296100</v>
       </c>
       <c r="F18" s="3">
-        <v>-224200</v>
+        <v>234200</v>
       </c>
       <c r="G18" s="3">
-        <v>169900</v>
+        <v>-232800</v>
       </c>
       <c r="H18" s="3">
-        <v>139800</v>
+        <v>176400</v>
       </c>
       <c r="I18" s="3">
-        <v>120600</v>
+        <v>145100</v>
       </c>
       <c r="J18" s="3">
+        <v>125200</v>
+      </c>
+      <c r="K18" s="3">
         <v>94200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>58100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,88 +1049,95 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14500</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>300</v>
-      </c>
       <c r="H20" s="3">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="I20" s="3">
-        <v>-11900</v>
+        <v>2100</v>
       </c>
       <c r="J20" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-12200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9200</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>433600</v>
+        <v>455100</v>
       </c>
       <c r="E21" s="3">
-        <v>359200</v>
+        <v>447800</v>
       </c>
       <c r="F21" s="3">
-        <v>-116700</v>
+        <v>370600</v>
       </c>
       <c r="G21" s="3">
-        <v>241600</v>
+        <v>-123000</v>
       </c>
       <c r="H21" s="3">
-        <v>198700</v>
+        <v>249600</v>
       </c>
       <c r="I21" s="3">
-        <v>158700</v>
+        <v>205300</v>
       </c>
       <c r="J21" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K21" s="3">
         <v>121300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>82800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21400</v>
+        <v>34800</v>
       </c>
       <c r="E22" s="3">
-        <v>32400</v>
+        <v>22200</v>
       </c>
       <c r="F22" s="3">
-        <v>42700</v>
+        <v>33600</v>
       </c>
       <c r="G22" s="3">
-        <v>16800</v>
+        <v>44400</v>
       </c>
       <c r="H22" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>17400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>13600</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>278400</v>
+        <v>268200</v>
       </c>
       <c r="E23" s="3">
-        <v>193700</v>
+        <v>289000</v>
       </c>
       <c r="F23" s="3">
-        <v>-267000</v>
+        <v>201100</v>
       </c>
       <c r="G23" s="3">
-        <v>153400</v>
+        <v>-277200</v>
       </c>
       <c r="H23" s="3">
-        <v>128700</v>
+        <v>159300</v>
       </c>
       <c r="I23" s="3">
-        <v>108700</v>
+        <v>133600</v>
       </c>
       <c r="J23" s="3">
+        <v>112900</v>
+      </c>
+      <c r="K23" s="3">
         <v>82100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>49000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70400</v>
+        <v>67700</v>
       </c>
       <c r="E24" s="3">
-        <v>47800</v>
+        <v>73100</v>
       </c>
       <c r="F24" s="3">
-        <v>36200</v>
+        <v>49600</v>
       </c>
       <c r="G24" s="3">
-        <v>33200</v>
+        <v>37500</v>
       </c>
       <c r="H24" s="3">
-        <v>32100</v>
+        <v>34500</v>
       </c>
       <c r="I24" s="3">
-        <v>36500</v>
+        <v>33300</v>
       </c>
       <c r="J24" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K24" s="3">
         <v>31200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>207900</v>
+        <v>200500</v>
       </c>
       <c r="E26" s="3">
-        <v>146000</v>
+        <v>215900</v>
       </c>
       <c r="F26" s="3">
-        <v>-303200</v>
+        <v>151500</v>
       </c>
       <c r="G26" s="3">
-        <v>120200</v>
+        <v>-314700</v>
       </c>
       <c r="H26" s="3">
-        <v>96600</v>
+        <v>124800</v>
       </c>
       <c r="I26" s="3">
-        <v>72200</v>
+        <v>100300</v>
       </c>
       <c r="J26" s="3">
+        <v>75000</v>
+      </c>
+      <c r="K26" s="3">
         <v>50900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>33400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>180100</v>
+        <v>167400</v>
       </c>
       <c r="E27" s="3">
-        <v>116200</v>
+        <v>187000</v>
       </c>
       <c r="F27" s="3">
-        <v>-335100</v>
+        <v>120700</v>
       </c>
       <c r="G27" s="3">
-        <v>87700</v>
+        <v>-347900</v>
       </c>
       <c r="H27" s="3">
-        <v>65200</v>
+        <v>91100</v>
       </c>
       <c r="I27" s="3">
-        <v>44700</v>
+        <v>67700</v>
       </c>
       <c r="J27" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K27" s="3">
         <v>28500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16500</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,14 +1361,14 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>3500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14500</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-300</v>
-      </c>
       <c r="H32" s="3">
-        <v>-2000</v>
+        <v>-400</v>
       </c>
       <c r="I32" s="3">
-        <v>11900</v>
+        <v>-2100</v>
       </c>
       <c r="J32" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K32" s="3">
         <v>12200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9200</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>180100</v>
+        <v>167400</v>
       </c>
       <c r="E33" s="3">
-        <v>116200</v>
+        <v>187000</v>
       </c>
       <c r="F33" s="3">
-        <v>-335100</v>
+        <v>120700</v>
       </c>
       <c r="G33" s="3">
-        <v>87700</v>
+        <v>-347900</v>
       </c>
       <c r="H33" s="3">
-        <v>68500</v>
+        <v>91100</v>
       </c>
       <c r="I33" s="3">
-        <v>44700</v>
+        <v>71100</v>
       </c>
       <c r="J33" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K33" s="3">
         <v>28500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16500</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>180100</v>
+        <v>167400</v>
       </c>
       <c r="E35" s="3">
-        <v>116200</v>
+        <v>187000</v>
       </c>
       <c r="F35" s="3">
-        <v>-335100</v>
+        <v>120700</v>
       </c>
       <c r="G35" s="3">
-        <v>87700</v>
+        <v>-347900</v>
       </c>
       <c r="H35" s="3">
-        <v>68500</v>
+        <v>91100</v>
       </c>
       <c r="I35" s="3">
-        <v>44700</v>
+        <v>71100</v>
       </c>
       <c r="J35" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K35" s="3">
         <v>28500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16500</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>220600</v>
+        <v>188400</v>
       </c>
       <c r="E41" s="3">
-        <v>245400</v>
+        <v>229100</v>
       </c>
       <c r="F41" s="3">
-        <v>161400</v>
+        <v>254800</v>
       </c>
       <c r="G41" s="3">
-        <v>88400</v>
+        <v>167600</v>
       </c>
       <c r="H41" s="3">
-        <v>76200</v>
+        <v>91700</v>
       </c>
       <c r="I41" s="3">
-        <v>57800</v>
+        <v>79100</v>
       </c>
       <c r="J41" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K41" s="3">
         <v>60700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>85100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,219 +1708,243 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>743700</v>
+        <v>908200</v>
       </c>
       <c r="E43" s="3">
-        <v>567700</v>
+        <v>772100</v>
       </c>
       <c r="F43" s="3">
-        <v>529900</v>
+        <v>589400</v>
       </c>
       <c r="G43" s="3">
-        <v>332000</v>
+        <v>550100</v>
       </c>
       <c r="H43" s="3">
-        <v>253300</v>
+        <v>344700</v>
       </c>
       <c r="I43" s="3">
-        <v>222000</v>
+        <v>262900</v>
       </c>
       <c r="J43" s="3">
+        <v>230400</v>
+      </c>
+      <c r="K43" s="3">
         <v>165300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>167400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>214900</v>
+        <v>335100</v>
       </c>
       <c r="E44" s="3">
-        <v>189100</v>
+        <v>223100</v>
       </c>
       <c r="F44" s="3">
-        <v>125900</v>
+        <v>196300</v>
       </c>
       <c r="G44" s="3">
-        <v>64200</v>
+        <v>130700</v>
       </c>
       <c r="H44" s="3">
-        <v>101100</v>
+        <v>66700</v>
       </c>
       <c r="I44" s="3">
-        <v>39600</v>
+        <v>105000</v>
       </c>
       <c r="J44" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K44" s="3">
         <v>21500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>105500</v>
+        <v>101600</v>
       </c>
       <c r="E45" s="3">
-        <v>88900</v>
+        <v>109500</v>
       </c>
       <c r="F45" s="3">
-        <v>72600</v>
+        <v>92300</v>
       </c>
       <c r="G45" s="3">
-        <v>68200</v>
+        <v>75400</v>
       </c>
       <c r="H45" s="3">
-        <v>54700</v>
+        <v>70900</v>
       </c>
       <c r="I45" s="3">
-        <v>85300</v>
+        <v>56800</v>
       </c>
       <c r="J45" s="3">
+        <v>88500</v>
+      </c>
+      <c r="K45" s="3">
         <v>59100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>54800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1284700</v>
+        <v>1533200</v>
       </c>
       <c r="E46" s="3">
-        <v>1091200</v>
+        <v>1333800</v>
       </c>
       <c r="F46" s="3">
-        <v>889800</v>
+        <v>1132900</v>
       </c>
       <c r="G46" s="3">
-        <v>552800</v>
+        <v>923800</v>
       </c>
       <c r="H46" s="3">
-        <v>434700</v>
+        <v>573900</v>
       </c>
       <c r="I46" s="3">
-        <v>404600</v>
+        <v>451300</v>
       </c>
       <c r="J46" s="3">
+        <v>420100</v>
+      </c>
+      <c r="K46" s="3">
         <v>306600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>319400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6300</v>
+        <v>6700</v>
       </c>
       <c r="E47" s="3">
-        <v>5600</v>
+        <v>6500</v>
       </c>
       <c r="F47" s="3">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="G47" s="3">
         <v>5600</v>
       </c>
       <c r="H47" s="3">
-        <v>4700</v>
+        <v>5800</v>
       </c>
       <c r="I47" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K47" s="3">
         <v>5100</v>
       </c>
-      <c r="J47" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5800</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>396600</v>
+        <v>515100</v>
       </c>
       <c r="E48" s="3">
-        <v>372600</v>
+        <v>411800</v>
       </c>
       <c r="F48" s="3">
-        <v>352200</v>
+        <v>386800</v>
       </c>
       <c r="G48" s="3">
-        <v>130700</v>
+        <v>365600</v>
       </c>
       <c r="H48" s="3">
-        <v>227500</v>
+        <v>135600</v>
       </c>
       <c r="I48" s="3">
-        <v>97300</v>
+        <v>236200</v>
       </c>
       <c r="J48" s="3">
+        <v>101100</v>
+      </c>
+      <c r="K48" s="3">
         <v>76700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>70300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1632100</v>
+        <v>1734600</v>
       </c>
       <c r="E49" s="3">
-        <v>1441700</v>
+        <v>1694500</v>
       </c>
       <c r="F49" s="3">
-        <v>1346500</v>
+        <v>1496800</v>
       </c>
       <c r="G49" s="3">
-        <v>644500</v>
+        <v>1398000</v>
       </c>
       <c r="H49" s="3">
-        <v>745300</v>
+        <v>669200</v>
       </c>
       <c r="I49" s="3">
-        <v>515800</v>
+        <v>773800</v>
       </c>
       <c r="J49" s="3">
+        <v>535500</v>
+      </c>
+      <c r="K49" s="3">
         <v>399700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>382500</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>21800</v>
+        <v>46600</v>
       </c>
       <c r="E52" s="3">
-        <v>14400</v>
+        <v>22600</v>
       </c>
       <c r="F52" s="3">
-        <v>10400</v>
+        <v>14900</v>
       </c>
       <c r="G52" s="3">
-        <v>8200</v>
+        <v>10800</v>
       </c>
       <c r="H52" s="3">
-        <v>9600</v>
+        <v>8500</v>
       </c>
       <c r="I52" s="3">
-        <v>4000</v>
+        <v>9900</v>
       </c>
       <c r="J52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K52" s="3">
         <v>11600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3341500</v>
+        <v>3836300</v>
       </c>
       <c r="E54" s="3">
-        <v>2925400</v>
+        <v>3469200</v>
       </c>
       <c r="F54" s="3">
-        <v>2604300</v>
+        <v>3037200</v>
       </c>
       <c r="G54" s="3">
-        <v>1341800</v>
+        <v>2703800</v>
       </c>
       <c r="H54" s="3">
-        <v>1129700</v>
+        <v>1393000</v>
       </c>
       <c r="I54" s="3">
-        <v>1026800</v>
+        <v>1172900</v>
       </c>
       <c r="J54" s="3">
+        <v>1066000</v>
+      </c>
+      <c r="K54" s="3">
         <v>799700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>784100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>133300</v>
+        <v>160400</v>
       </c>
       <c r="E57" s="3">
-        <v>131200</v>
+        <v>138400</v>
       </c>
       <c r="F57" s="3">
-        <v>101500</v>
+        <v>136200</v>
       </c>
       <c r="G57" s="3">
-        <v>55500</v>
+        <v>105400</v>
       </c>
       <c r="H57" s="3">
-        <v>54700</v>
+        <v>57700</v>
       </c>
       <c r="I57" s="3">
-        <v>43100</v>
+        <v>56800</v>
       </c>
       <c r="J57" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K57" s="3">
         <v>32200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31400</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>76500</v>
+        <v>49300</v>
       </c>
       <c r="E58" s="3">
-        <v>75200</v>
+        <v>79400</v>
       </c>
       <c r="F58" s="3">
-        <v>7400</v>
+        <v>78100</v>
       </c>
       <c r="G58" s="3">
-        <v>5200</v>
+        <v>7700</v>
       </c>
       <c r="H58" s="3">
-        <v>7300</v>
+        <v>5400</v>
       </c>
       <c r="I58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>22600</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>613800</v>
+        <v>671100</v>
       </c>
       <c r="E59" s="3">
-        <v>517800</v>
+        <v>637300</v>
       </c>
       <c r="F59" s="3">
-        <v>368200</v>
+        <v>537600</v>
       </c>
       <c r="G59" s="3">
-        <v>241500</v>
+        <v>382200</v>
       </c>
       <c r="H59" s="3">
-        <v>381500</v>
+        <v>250700</v>
       </c>
       <c r="I59" s="3">
-        <v>199000</v>
+        <v>396000</v>
       </c>
       <c r="J59" s="3">
+        <v>206600</v>
+      </c>
+      <c r="K59" s="3">
         <v>135700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>106600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>823700</v>
+        <v>880800</v>
       </c>
       <c r="E60" s="3">
-        <v>724200</v>
+        <v>855200</v>
       </c>
       <c r="F60" s="3">
-        <v>477100</v>
+        <v>751800</v>
       </c>
       <c r="G60" s="3">
-        <v>302200</v>
+        <v>495300</v>
       </c>
       <c r="H60" s="3">
-        <v>284600</v>
+        <v>313800</v>
       </c>
       <c r="I60" s="3">
-        <v>243500</v>
+        <v>295500</v>
       </c>
       <c r="J60" s="3">
+        <v>252800</v>
+      </c>
+      <c r="K60" s="3">
         <v>173300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>160600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>792900</v>
+        <v>966200</v>
       </c>
       <c r="E61" s="3">
-        <v>710000</v>
+        <v>823200</v>
       </c>
       <c r="F61" s="3">
-        <v>1013600</v>
+        <v>737200</v>
       </c>
       <c r="G61" s="3">
-        <v>440300</v>
+        <v>1052300</v>
       </c>
       <c r="H61" s="3">
-        <v>355400</v>
+        <v>457100</v>
       </c>
       <c r="I61" s="3">
-        <v>332800</v>
+        <v>369000</v>
       </c>
       <c r="J61" s="3">
+        <v>345500</v>
+      </c>
+      <c r="K61" s="3">
         <v>262600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>282300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>368000</v>
+        <v>411800</v>
       </c>
       <c r="E62" s="3">
-        <v>354600</v>
+        <v>382100</v>
       </c>
       <c r="F62" s="3">
-        <v>313800</v>
+        <v>368100</v>
       </c>
       <c r="G62" s="3">
-        <v>82700</v>
+        <v>325800</v>
       </c>
       <c r="H62" s="3">
-        <v>76800</v>
+        <v>85900</v>
       </c>
       <c r="I62" s="3">
-        <v>73100</v>
+        <v>79800</v>
       </c>
       <c r="J62" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K62" s="3">
         <v>38100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2276400</v>
+        <v>2581600</v>
       </c>
       <c r="E66" s="3">
-        <v>2045800</v>
+        <v>2363500</v>
       </c>
       <c r="F66" s="3">
-        <v>2037100</v>
+        <v>2124000</v>
       </c>
       <c r="G66" s="3">
-        <v>1027100</v>
+        <v>2115000</v>
       </c>
       <c r="H66" s="3">
-        <v>873600</v>
+        <v>1066400</v>
       </c>
       <c r="I66" s="3">
-        <v>785700</v>
+        <v>907000</v>
       </c>
       <c r="J66" s="3">
+        <v>815700</v>
+      </c>
+      <c r="K66" s="3">
         <v>577300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>581900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-90500</v>
+        <v>24000</v>
       </c>
       <c r="E72" s="3">
-        <v>-227900</v>
+        <v>-93900</v>
       </c>
       <c r="F72" s="3">
-        <v>-306100</v>
+        <v>-236600</v>
       </c>
       <c r="G72" s="3">
-        <v>60600</v>
+        <v>-317800</v>
       </c>
       <c r="H72" s="3">
-        <v>10000</v>
+        <v>63000</v>
       </c>
       <c r="I72" s="3">
-        <v>-1300</v>
+        <v>10400</v>
       </c>
       <c r="J72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-13500</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1065100</v>
+        <v>1254800</v>
       </c>
       <c r="E76" s="3">
-        <v>879500</v>
+        <v>1105800</v>
       </c>
       <c r="F76" s="3">
-        <v>567200</v>
+        <v>913100</v>
       </c>
       <c r="G76" s="3">
-        <v>314600</v>
+        <v>588900</v>
       </c>
       <c r="H76" s="3">
-        <v>256100</v>
+        <v>326600</v>
       </c>
       <c r="I76" s="3">
-        <v>241100</v>
+        <v>265900</v>
       </c>
       <c r="J76" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K76" s="3">
         <v>222400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>202200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>180100</v>
+        <v>167400</v>
       </c>
       <c r="E81" s="3">
-        <v>116200</v>
+        <v>187000</v>
       </c>
       <c r="F81" s="3">
-        <v>-335100</v>
+        <v>120700</v>
       </c>
       <c r="G81" s="3">
-        <v>87700</v>
+        <v>-347900</v>
       </c>
       <c r="H81" s="3">
-        <v>68500</v>
+        <v>91100</v>
       </c>
       <c r="I81" s="3">
-        <v>44700</v>
+        <v>71100</v>
       </c>
       <c r="J81" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K81" s="3">
         <v>28500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16500</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>131800</v>
+        <v>152300</v>
       </c>
       <c r="E83" s="3">
-        <v>131000</v>
+        <v>136800</v>
       </c>
       <c r="F83" s="3">
-        <v>106000</v>
+        <v>136000</v>
       </c>
       <c r="G83" s="3">
-        <v>70300</v>
+        <v>110000</v>
       </c>
       <c r="H83" s="3">
-        <v>56000</v>
+        <v>73000</v>
       </c>
       <c r="I83" s="3">
-        <v>49200</v>
+        <v>58100</v>
       </c>
       <c r="J83" s="3">
+        <v>51100</v>
+      </c>
+      <c r="K83" s="3">
         <v>38600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33700</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>222800</v>
+        <v>146400</v>
       </c>
       <c r="E89" s="3">
-        <v>388600</v>
+        <v>231300</v>
       </c>
       <c r="F89" s="3">
-        <v>143600</v>
+        <v>403400</v>
       </c>
       <c r="G89" s="3">
-        <v>132500</v>
+        <v>149100</v>
       </c>
       <c r="H89" s="3">
-        <v>154000</v>
+        <v>137500</v>
       </c>
       <c r="I89" s="3">
-        <v>145200</v>
+        <v>159900</v>
       </c>
       <c r="J89" s="3">
+        <v>150700</v>
+      </c>
+      <c r="K89" s="3">
         <v>116000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>57500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-77500</v>
+        <v>-107300</v>
       </c>
       <c r="E91" s="3">
-        <v>-52500</v>
+        <v>-80500</v>
       </c>
       <c r="F91" s="3">
-        <v>-62100</v>
+        <v>-54500</v>
       </c>
       <c r="G91" s="3">
-        <v>-54100</v>
+        <v>-64500</v>
       </c>
       <c r="H91" s="3">
-        <v>-48300</v>
+        <v>-56100</v>
       </c>
       <c r="I91" s="3">
-        <v>-38800</v>
+        <v>-50100</v>
       </c>
       <c r="J91" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-26200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-274800</v>
+        <v>-222300</v>
       </c>
       <c r="E94" s="3">
-        <v>-189500</v>
+        <v>-285300</v>
       </c>
       <c r="F94" s="3">
-        <v>-819000</v>
+        <v>-196700</v>
       </c>
       <c r="G94" s="3">
-        <v>-141400</v>
+        <v>-850300</v>
       </c>
       <c r="H94" s="3">
-        <v>-106100</v>
+        <v>-146800</v>
       </c>
       <c r="I94" s="3">
-        <v>-174300</v>
+        <v>-110100</v>
       </c>
       <c r="J94" s="3">
+        <v>-180900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-43000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-41600</v>
+        <v>-48200</v>
       </c>
       <c r="E96" s="3">
-        <v>-36600</v>
+        <v>-43100</v>
       </c>
       <c r="F96" s="3">
-        <v>-29400</v>
+        <v>-38000</v>
       </c>
       <c r="G96" s="3">
-        <v>-25000</v>
+        <v>-30500</v>
       </c>
       <c r="H96" s="3">
-        <v>-22800</v>
+        <v>-26000</v>
       </c>
       <c r="I96" s="3">
-        <v>-20600</v>
+        <v>-23700</v>
       </c>
       <c r="J96" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>32500</v>
+        <v>26000</v>
       </c>
       <c r="E100" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>775900</v>
+      </c>
+      <c r="H100" s="3">
+        <v>28300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100100</v>
       </c>
-      <c r="F100" s="3">
-        <v>747300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>27200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-35100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>26000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-100100</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-31400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19500</v>
+        <v>-48300</v>
       </c>
       <c r="E102" s="3">
-        <v>99400</v>
+        <v>-20300</v>
       </c>
       <c r="F102" s="3">
-        <v>72500</v>
+        <v>103200</v>
       </c>
       <c r="G102" s="3">
-        <v>17200</v>
+        <v>75300</v>
       </c>
       <c r="H102" s="3">
-        <v>13400</v>
+        <v>17900</v>
       </c>
       <c r="I102" s="3">
-        <v>-2900</v>
+        <v>13900</v>
       </c>
       <c r="J102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-28300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5179400</v>
+        <v>5056900</v>
       </c>
       <c r="E8" s="3">
-        <v>4492500</v>
+        <v>4386200</v>
       </c>
       <c r="F8" s="3">
-        <v>3833400</v>
+        <v>3742800</v>
       </c>
       <c r="G8" s="3">
-        <v>3328700</v>
+        <v>3250000</v>
       </c>
       <c r="H8" s="3">
-        <v>2670600</v>
+        <v>2607500</v>
       </c>
       <c r="I8" s="3">
-        <v>2390700</v>
+        <v>2334200</v>
       </c>
       <c r="J8" s="3">
-        <v>2050400</v>
+        <v>2001900</v>
       </c>
       <c r="K8" s="3">
         <v>1683500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3547600</v>
+        <v>3463700</v>
       </c>
       <c r="E9" s="3">
-        <v>3045900</v>
+        <v>2973800</v>
       </c>
       <c r="F9" s="3">
-        <v>2588100</v>
+        <v>2526900</v>
       </c>
       <c r="G9" s="3">
-        <v>2259500</v>
+        <v>2206000</v>
       </c>
       <c r="H9" s="3">
-        <v>1825500</v>
+        <v>1782300</v>
       </c>
       <c r="I9" s="3">
-        <v>1643800</v>
+        <v>1604900</v>
       </c>
       <c r="J9" s="3">
-        <v>1452000</v>
+        <v>1417600</v>
       </c>
       <c r="K9" s="3">
         <v>1177300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1631700</v>
+        <v>1593200</v>
       </c>
       <c r="E10" s="3">
-        <v>1446600</v>
+        <v>1412400</v>
       </c>
       <c r="F10" s="3">
-        <v>1245300</v>
+        <v>1215800</v>
       </c>
       <c r="G10" s="3">
-        <v>1069300</v>
+        <v>1044000</v>
       </c>
       <c r="H10" s="3">
-        <v>845100</v>
+        <v>825100</v>
       </c>
       <c r="I10" s="3">
-        <v>747000</v>
+        <v>729300</v>
       </c>
       <c r="J10" s="3">
-        <v>598400</v>
+        <v>584300</v>
       </c>
       <c r="K10" s="3">
         <v>506200</v>
@@ -897,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="E14" s="3">
         <v>-700</v>
       </c>
       <c r="F14" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G14" s="3">
-        <v>436700</v>
+        <v>426400</v>
       </c>
       <c r="H14" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="I14" s="3">
-        <v>11300</v>
+        <v>11000</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>152300</v>
+        <v>148700</v>
       </c>
       <c r="E15" s="3">
-        <v>136800</v>
+        <v>133600</v>
       </c>
       <c r="F15" s="3">
-        <v>136000</v>
+        <v>132800</v>
       </c>
       <c r="G15" s="3">
-        <v>110000</v>
+        <v>107400</v>
       </c>
       <c r="H15" s="3">
-        <v>73000</v>
+        <v>71200</v>
       </c>
       <c r="I15" s="3">
-        <v>58100</v>
+        <v>56800</v>
       </c>
       <c r="J15" s="3">
-        <v>51100</v>
+        <v>49900</v>
       </c>
       <c r="K15" s="3">
         <v>38600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4876500</v>
+        <v>4761200</v>
       </c>
       <c r="E17" s="3">
-        <v>4196400</v>
+        <v>4097100</v>
       </c>
       <c r="F17" s="3">
-        <v>3599200</v>
+        <v>3514100</v>
       </c>
       <c r="G17" s="3">
-        <v>3561500</v>
+        <v>3477300</v>
       </c>
       <c r="H17" s="3">
-        <v>2494300</v>
+        <v>2435300</v>
       </c>
       <c r="I17" s="3">
-        <v>2245600</v>
+        <v>2192500</v>
       </c>
       <c r="J17" s="3">
-        <v>1925200</v>
+        <v>1879700</v>
       </c>
       <c r="K17" s="3">
         <v>1589300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>302800</v>
+        <v>295700</v>
       </c>
       <c r="E18" s="3">
-        <v>296100</v>
+        <v>289100</v>
       </c>
       <c r="F18" s="3">
-        <v>234200</v>
+        <v>228700</v>
       </c>
       <c r="G18" s="3">
-        <v>-232800</v>
+        <v>-227300</v>
       </c>
       <c r="H18" s="3">
-        <v>176400</v>
+        <v>172200</v>
       </c>
       <c r="I18" s="3">
-        <v>145100</v>
+        <v>141700</v>
       </c>
       <c r="J18" s="3">
-        <v>125200</v>
+        <v>122200</v>
       </c>
       <c r="K18" s="3">
         <v>94200</v>
@@ -1059,7 +1059,7 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>15000</v>
+        <v>14700</v>
       </c>
       <c r="F20" s="3">
         <v>500</v>
@@ -1068,13 +1068,13 @@
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>2100</v>
       </c>
       <c r="J20" s="3">
-        <v>-12300</v>
+        <v>-12000</v>
       </c>
       <c r="K20" s="3">
         <v>-12200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>455100</v>
+        <v>444000</v>
       </c>
       <c r="E21" s="3">
-        <v>447800</v>
+        <v>436900</v>
       </c>
       <c r="F21" s="3">
-        <v>370600</v>
+        <v>361500</v>
       </c>
       <c r="G21" s="3">
-        <v>-123000</v>
+        <v>-120300</v>
       </c>
       <c r="H21" s="3">
-        <v>249600</v>
+        <v>243500</v>
       </c>
       <c r="I21" s="3">
-        <v>205300</v>
+        <v>200300</v>
       </c>
       <c r="J21" s="3">
-        <v>163900</v>
+        <v>159900</v>
       </c>
       <c r="K21" s="3">
         <v>121300</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34800</v>
+        <v>34000</v>
       </c>
       <c r="E22" s="3">
-        <v>22200</v>
+        <v>21600</v>
       </c>
       <c r="F22" s="3">
-        <v>33600</v>
+        <v>32800</v>
       </c>
       <c r="G22" s="3">
-        <v>44400</v>
+        <v>43300</v>
       </c>
       <c r="H22" s="3">
-        <v>17400</v>
+        <v>17000</v>
       </c>
       <c r="I22" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>268200</v>
+        <v>261900</v>
       </c>
       <c r="E23" s="3">
-        <v>289000</v>
+        <v>282200</v>
       </c>
       <c r="F23" s="3">
-        <v>201100</v>
+        <v>196400</v>
       </c>
       <c r="G23" s="3">
-        <v>-277200</v>
+        <v>-270700</v>
       </c>
       <c r="H23" s="3">
-        <v>159300</v>
+        <v>155500</v>
       </c>
       <c r="I23" s="3">
-        <v>133600</v>
+        <v>130400</v>
       </c>
       <c r="J23" s="3">
-        <v>112900</v>
+        <v>110200</v>
       </c>
       <c r="K23" s="3">
         <v>82100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>67700</v>
+        <v>66100</v>
       </c>
       <c r="E24" s="3">
-        <v>73100</v>
+        <v>71400</v>
       </c>
       <c r="F24" s="3">
-        <v>49600</v>
+        <v>48400</v>
       </c>
       <c r="G24" s="3">
-        <v>37500</v>
+        <v>36600</v>
       </c>
       <c r="H24" s="3">
-        <v>34500</v>
+        <v>33600</v>
       </c>
       <c r="I24" s="3">
-        <v>33300</v>
+        <v>32500</v>
       </c>
       <c r="J24" s="3">
-        <v>37900</v>
+        <v>37000</v>
       </c>
       <c r="K24" s="3">
         <v>31200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200500</v>
+        <v>195800</v>
       </c>
       <c r="E26" s="3">
-        <v>215900</v>
+        <v>210800</v>
       </c>
       <c r="F26" s="3">
-        <v>151500</v>
+        <v>147900</v>
       </c>
       <c r="G26" s="3">
-        <v>-314700</v>
+        <v>-307300</v>
       </c>
       <c r="H26" s="3">
-        <v>124800</v>
+        <v>121900</v>
       </c>
       <c r="I26" s="3">
-        <v>100300</v>
+        <v>97900</v>
       </c>
       <c r="J26" s="3">
-        <v>75000</v>
+        <v>73200</v>
       </c>
       <c r="K26" s="3">
         <v>50900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>167400</v>
+        <v>163400</v>
       </c>
       <c r="E27" s="3">
-        <v>187000</v>
+        <v>182500</v>
       </c>
       <c r="F27" s="3">
-        <v>120700</v>
+        <v>117800</v>
       </c>
       <c r="G27" s="3">
-        <v>-347900</v>
+        <v>-339700</v>
       </c>
       <c r="H27" s="3">
-        <v>91100</v>
+        <v>88900</v>
       </c>
       <c r="I27" s="3">
-        <v>67700</v>
+        <v>66100</v>
       </c>
       <c r="J27" s="3">
-        <v>46500</v>
+        <v>45400</v>
       </c>
       <c r="K27" s="3">
         <v>28500</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1455,7 +1455,7 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>-15000</v>
+        <v>-14700</v>
       </c>
       <c r="F32" s="3">
         <v>-500</v>
@@ -1464,13 +1464,13 @@
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>-2100</v>
       </c>
       <c r="J32" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="K32" s="3">
         <v>12200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>167400</v>
+        <v>163400</v>
       </c>
       <c r="E33" s="3">
-        <v>187000</v>
+        <v>182500</v>
       </c>
       <c r="F33" s="3">
-        <v>120700</v>
+        <v>117800</v>
       </c>
       <c r="G33" s="3">
-        <v>-347900</v>
+        <v>-339700</v>
       </c>
       <c r="H33" s="3">
-        <v>91100</v>
+        <v>88900</v>
       </c>
       <c r="I33" s="3">
-        <v>71100</v>
+        <v>69500</v>
       </c>
       <c r="J33" s="3">
-        <v>46500</v>
+        <v>45400</v>
       </c>
       <c r="K33" s="3">
         <v>28500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>167400</v>
+        <v>163400</v>
       </c>
       <c r="E35" s="3">
-        <v>187000</v>
+        <v>182500</v>
       </c>
       <c r="F35" s="3">
-        <v>120700</v>
+        <v>117800</v>
       </c>
       <c r="G35" s="3">
-        <v>-347900</v>
+        <v>-339700</v>
       </c>
       <c r="H35" s="3">
-        <v>91100</v>
+        <v>88900</v>
       </c>
       <c r="I35" s="3">
-        <v>71100</v>
+        <v>69500</v>
       </c>
       <c r="J35" s="3">
-        <v>46500</v>
+        <v>45400</v>
       </c>
       <c r="K35" s="3">
         <v>28500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>188400</v>
+        <v>183900</v>
       </c>
       <c r="E41" s="3">
-        <v>229100</v>
+        <v>223600</v>
       </c>
       <c r="F41" s="3">
-        <v>254800</v>
+        <v>248800</v>
       </c>
       <c r="G41" s="3">
-        <v>167600</v>
+        <v>163600</v>
       </c>
       <c r="H41" s="3">
-        <v>91700</v>
+        <v>89600</v>
       </c>
       <c r="I41" s="3">
-        <v>79100</v>
+        <v>77200</v>
       </c>
       <c r="J41" s="3">
-        <v>60000</v>
+        <v>58600</v>
       </c>
       <c r="K41" s="3">
         <v>60700</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>908200</v>
+        <v>886700</v>
       </c>
       <c r="E43" s="3">
-        <v>772100</v>
+        <v>753800</v>
       </c>
       <c r="F43" s="3">
-        <v>589400</v>
+        <v>575500</v>
       </c>
       <c r="G43" s="3">
-        <v>550100</v>
+        <v>537100</v>
       </c>
       <c r="H43" s="3">
-        <v>344700</v>
+        <v>336500</v>
       </c>
       <c r="I43" s="3">
-        <v>262900</v>
+        <v>256700</v>
       </c>
       <c r="J43" s="3">
-        <v>230400</v>
+        <v>225000</v>
       </c>
       <c r="K43" s="3">
         <v>165300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>335100</v>
+        <v>327200</v>
       </c>
       <c r="E44" s="3">
-        <v>223100</v>
+        <v>217900</v>
       </c>
       <c r="F44" s="3">
-        <v>196300</v>
+        <v>191700</v>
       </c>
       <c r="G44" s="3">
-        <v>130700</v>
+        <v>127600</v>
       </c>
       <c r="H44" s="3">
-        <v>66700</v>
+        <v>65100</v>
       </c>
       <c r="I44" s="3">
-        <v>105000</v>
+        <v>102500</v>
       </c>
       <c r="J44" s="3">
-        <v>41100</v>
+        <v>40100</v>
       </c>
       <c r="K44" s="3">
         <v>21500</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>101600</v>
+        <v>99200</v>
       </c>
       <c r="E45" s="3">
-        <v>109500</v>
+        <v>106900</v>
       </c>
       <c r="F45" s="3">
-        <v>92300</v>
+        <v>90100</v>
       </c>
       <c r="G45" s="3">
-        <v>75400</v>
+        <v>73600</v>
       </c>
       <c r="H45" s="3">
-        <v>70900</v>
+        <v>69200</v>
       </c>
       <c r="I45" s="3">
-        <v>56800</v>
+        <v>55400</v>
       </c>
       <c r="J45" s="3">
-        <v>88500</v>
+        <v>86500</v>
       </c>
       <c r="K45" s="3">
         <v>59100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1533200</v>
+        <v>1497000</v>
       </c>
       <c r="E46" s="3">
-        <v>1333800</v>
+        <v>1302300</v>
       </c>
       <c r="F46" s="3">
-        <v>1132900</v>
+        <v>1106100</v>
       </c>
       <c r="G46" s="3">
-        <v>923800</v>
+        <v>902000</v>
       </c>
       <c r="H46" s="3">
-        <v>573900</v>
+        <v>560300</v>
       </c>
       <c r="I46" s="3">
-        <v>451300</v>
+        <v>440600</v>
       </c>
       <c r="J46" s="3">
-        <v>420100</v>
+        <v>410100</v>
       </c>
       <c r="K46" s="3">
         <v>306600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="E47" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="F47" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="G47" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="H47" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="I47" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="J47" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="K47" s="3">
         <v>5100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>515100</v>
+        <v>503000</v>
       </c>
       <c r="E48" s="3">
-        <v>411800</v>
+        <v>402000</v>
       </c>
       <c r="F48" s="3">
-        <v>386800</v>
+        <v>377700</v>
       </c>
       <c r="G48" s="3">
-        <v>365600</v>
+        <v>357000</v>
       </c>
       <c r="H48" s="3">
-        <v>135600</v>
+        <v>132400</v>
       </c>
       <c r="I48" s="3">
-        <v>236200</v>
+        <v>230600</v>
       </c>
       <c r="J48" s="3">
-        <v>101100</v>
+        <v>98700</v>
       </c>
       <c r="K48" s="3">
         <v>76700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1734600</v>
+        <v>1693600</v>
       </c>
       <c r="E49" s="3">
-        <v>1694500</v>
+        <v>1654400</v>
       </c>
       <c r="F49" s="3">
-        <v>1496800</v>
+        <v>1461400</v>
       </c>
       <c r="G49" s="3">
-        <v>1398000</v>
+        <v>1364900</v>
       </c>
       <c r="H49" s="3">
-        <v>669200</v>
+        <v>653300</v>
       </c>
       <c r="I49" s="3">
-        <v>773800</v>
+        <v>755500</v>
       </c>
       <c r="J49" s="3">
-        <v>535500</v>
+        <v>522800</v>
       </c>
       <c r="K49" s="3">
         <v>399700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46600</v>
+        <v>45500</v>
       </c>
       <c r="E52" s="3">
-        <v>22600</v>
+        <v>22100</v>
       </c>
       <c r="F52" s="3">
-        <v>14900</v>
+        <v>14600</v>
       </c>
       <c r="G52" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="H52" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="I52" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="J52" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K52" s="3">
         <v>11600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3836300</v>
+        <v>3745600</v>
       </c>
       <c r="E54" s="3">
-        <v>3469200</v>
+        <v>3387200</v>
       </c>
       <c r="F54" s="3">
-        <v>3037200</v>
+        <v>2965300</v>
       </c>
       <c r="G54" s="3">
-        <v>2703800</v>
+        <v>2639900</v>
       </c>
       <c r="H54" s="3">
-        <v>1393000</v>
+        <v>1360100</v>
       </c>
       <c r="I54" s="3">
-        <v>1172900</v>
+        <v>1145200</v>
       </c>
       <c r="J54" s="3">
-        <v>1066000</v>
+        <v>1040800</v>
       </c>
       <c r="K54" s="3">
         <v>799700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>160400</v>
+        <v>156600</v>
       </c>
       <c r="E57" s="3">
-        <v>138400</v>
+        <v>135200</v>
       </c>
       <c r="F57" s="3">
-        <v>136200</v>
+        <v>133000</v>
       </c>
       <c r="G57" s="3">
-        <v>105400</v>
+        <v>102900</v>
       </c>
       <c r="H57" s="3">
-        <v>57700</v>
+        <v>56300</v>
       </c>
       <c r="I57" s="3">
-        <v>56800</v>
+        <v>55500</v>
       </c>
       <c r="J57" s="3">
-        <v>44700</v>
+        <v>43700</v>
       </c>
       <c r="K57" s="3">
         <v>32200</v>
@@ -2177,22 +2177,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>49300</v>
+        <v>48100</v>
       </c>
       <c r="E58" s="3">
-        <v>79400</v>
+        <v>77500</v>
       </c>
       <c r="F58" s="3">
-        <v>78100</v>
+        <v>76200</v>
       </c>
       <c r="G58" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="H58" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="I58" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="J58" s="3">
         <v>1400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>671100</v>
+        <v>655200</v>
       </c>
       <c r="E59" s="3">
-        <v>637300</v>
+        <v>622200</v>
       </c>
       <c r="F59" s="3">
-        <v>537600</v>
+        <v>524800</v>
       </c>
       <c r="G59" s="3">
-        <v>382200</v>
+        <v>373200</v>
       </c>
       <c r="H59" s="3">
-        <v>250700</v>
+        <v>244800</v>
       </c>
       <c r="I59" s="3">
-        <v>396000</v>
+        <v>386700</v>
       </c>
       <c r="J59" s="3">
-        <v>206600</v>
+        <v>201700</v>
       </c>
       <c r="K59" s="3">
         <v>135700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>880800</v>
+        <v>859900</v>
       </c>
       <c r="E60" s="3">
-        <v>855200</v>
+        <v>834900</v>
       </c>
       <c r="F60" s="3">
-        <v>751800</v>
+        <v>734100</v>
       </c>
       <c r="G60" s="3">
-        <v>495300</v>
+        <v>483600</v>
       </c>
       <c r="H60" s="3">
-        <v>313800</v>
+        <v>306400</v>
       </c>
       <c r="I60" s="3">
-        <v>295500</v>
+        <v>288500</v>
       </c>
       <c r="J60" s="3">
-        <v>252800</v>
+        <v>246800</v>
       </c>
       <c r="K60" s="3">
         <v>173300</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>966200</v>
+        <v>943400</v>
       </c>
       <c r="E61" s="3">
-        <v>823200</v>
+        <v>803700</v>
       </c>
       <c r="F61" s="3">
-        <v>737200</v>
+        <v>719700</v>
       </c>
       <c r="G61" s="3">
-        <v>1052300</v>
+        <v>1027500</v>
       </c>
       <c r="H61" s="3">
-        <v>457100</v>
+        <v>446300</v>
       </c>
       <c r="I61" s="3">
-        <v>369000</v>
+        <v>360300</v>
       </c>
       <c r="J61" s="3">
-        <v>345500</v>
+        <v>337300</v>
       </c>
       <c r="K61" s="3">
         <v>262600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>411800</v>
+        <v>402100</v>
       </c>
       <c r="E62" s="3">
-        <v>382100</v>
+        <v>373000</v>
       </c>
       <c r="F62" s="3">
-        <v>368100</v>
+        <v>359400</v>
       </c>
       <c r="G62" s="3">
-        <v>325800</v>
+        <v>318100</v>
       </c>
       <c r="H62" s="3">
-        <v>85900</v>
+        <v>83800</v>
       </c>
       <c r="I62" s="3">
-        <v>79800</v>
+        <v>77900</v>
       </c>
       <c r="J62" s="3">
-        <v>75900</v>
+        <v>74100</v>
       </c>
       <c r="K62" s="3">
         <v>38100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2581600</v>
+        <v>2520500</v>
       </c>
       <c r="E66" s="3">
-        <v>2363500</v>
+        <v>2307600</v>
       </c>
       <c r="F66" s="3">
-        <v>2124000</v>
+        <v>2073800</v>
       </c>
       <c r="G66" s="3">
-        <v>2115000</v>
+        <v>2064900</v>
       </c>
       <c r="H66" s="3">
-        <v>1066400</v>
+        <v>1041200</v>
       </c>
       <c r="I66" s="3">
-        <v>907000</v>
+        <v>885600</v>
       </c>
       <c r="J66" s="3">
-        <v>815700</v>
+        <v>796400</v>
       </c>
       <c r="K66" s="3">
         <v>577300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>24000</v>
+        <v>23400</v>
       </c>
       <c r="E72" s="3">
-        <v>-93900</v>
+        <v>-91700</v>
       </c>
       <c r="F72" s="3">
-        <v>-236600</v>
+        <v>-231000</v>
       </c>
       <c r="G72" s="3">
-        <v>-317800</v>
+        <v>-310300</v>
       </c>
       <c r="H72" s="3">
-        <v>63000</v>
+        <v>61500</v>
       </c>
       <c r="I72" s="3">
-        <v>10400</v>
+        <v>10200</v>
       </c>
       <c r="J72" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="K72" s="3">
         <v>-13500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1254800</v>
+        <v>1225100</v>
       </c>
       <c r="E76" s="3">
-        <v>1105800</v>
+        <v>1079600</v>
       </c>
       <c r="F76" s="3">
-        <v>913100</v>
+        <v>891500</v>
       </c>
       <c r="G76" s="3">
-        <v>588900</v>
+        <v>574900</v>
       </c>
       <c r="H76" s="3">
-        <v>326600</v>
+        <v>318900</v>
       </c>
       <c r="I76" s="3">
-        <v>265900</v>
+        <v>259600</v>
       </c>
       <c r="J76" s="3">
-        <v>250300</v>
+        <v>244400</v>
       </c>
       <c r="K76" s="3">
         <v>222400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>167400</v>
+        <v>163400</v>
       </c>
       <c r="E81" s="3">
-        <v>187000</v>
+        <v>182500</v>
       </c>
       <c r="F81" s="3">
-        <v>120700</v>
+        <v>117800</v>
       </c>
       <c r="G81" s="3">
-        <v>-347900</v>
+        <v>-339700</v>
       </c>
       <c r="H81" s="3">
-        <v>91100</v>
+        <v>88900</v>
       </c>
       <c r="I81" s="3">
-        <v>71100</v>
+        <v>69500</v>
       </c>
       <c r="J81" s="3">
-        <v>46500</v>
+        <v>45400</v>
       </c>
       <c r="K81" s="3">
         <v>28500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>152300</v>
+        <v>148700</v>
       </c>
       <c r="E83" s="3">
-        <v>136800</v>
+        <v>133600</v>
       </c>
       <c r="F83" s="3">
-        <v>136000</v>
+        <v>132800</v>
       </c>
       <c r="G83" s="3">
-        <v>110000</v>
+        <v>107400</v>
       </c>
       <c r="H83" s="3">
-        <v>73000</v>
+        <v>71200</v>
       </c>
       <c r="I83" s="3">
-        <v>58100</v>
+        <v>56800</v>
       </c>
       <c r="J83" s="3">
-        <v>51100</v>
+        <v>49900</v>
       </c>
       <c r="K83" s="3">
         <v>38600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>146400</v>
+        <v>143000</v>
       </c>
       <c r="E89" s="3">
-        <v>231300</v>
+        <v>225800</v>
       </c>
       <c r="F89" s="3">
-        <v>403400</v>
+        <v>393900</v>
       </c>
       <c r="G89" s="3">
-        <v>149100</v>
+        <v>145500</v>
       </c>
       <c r="H89" s="3">
-        <v>137500</v>
+        <v>134300</v>
       </c>
       <c r="I89" s="3">
-        <v>159900</v>
+        <v>156100</v>
       </c>
       <c r="J89" s="3">
-        <v>150700</v>
+        <v>147200</v>
       </c>
       <c r="K89" s="3">
         <v>116000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-107300</v>
+        <v>-104800</v>
       </c>
       <c r="E91" s="3">
-        <v>-80500</v>
+        <v>-78600</v>
       </c>
       <c r="F91" s="3">
-        <v>-54500</v>
+        <v>-53200</v>
       </c>
       <c r="G91" s="3">
-        <v>-64500</v>
+        <v>-62900</v>
       </c>
       <c r="H91" s="3">
-        <v>-56100</v>
+        <v>-54800</v>
       </c>
       <c r="I91" s="3">
-        <v>-50100</v>
+        <v>-48900</v>
       </c>
       <c r="J91" s="3">
-        <v>-40300</v>
+        <v>-39300</v>
       </c>
       <c r="K91" s="3">
         <v>-26200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-222300</v>
+        <v>-217100</v>
       </c>
       <c r="E94" s="3">
-        <v>-285300</v>
+        <v>-278500</v>
       </c>
       <c r="F94" s="3">
-        <v>-196700</v>
+        <v>-192100</v>
       </c>
       <c r="G94" s="3">
-        <v>-850300</v>
+        <v>-830200</v>
       </c>
       <c r="H94" s="3">
-        <v>-146800</v>
+        <v>-143400</v>
       </c>
       <c r="I94" s="3">
-        <v>-110100</v>
+        <v>-107500</v>
       </c>
       <c r="J94" s="3">
-        <v>-180900</v>
+        <v>-176600</v>
       </c>
       <c r="K94" s="3">
         <v>-43000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-48200</v>
+        <v>-47100</v>
       </c>
       <c r="E96" s="3">
-        <v>-43100</v>
+        <v>-42100</v>
       </c>
       <c r="F96" s="3">
-        <v>-38000</v>
+        <v>-37100</v>
       </c>
       <c r="G96" s="3">
-        <v>-30500</v>
+        <v>-29800</v>
       </c>
       <c r="H96" s="3">
-        <v>-26000</v>
+        <v>-25400</v>
       </c>
       <c r="I96" s="3">
-        <v>-23700</v>
+        <v>-23100</v>
       </c>
       <c r="J96" s="3">
-        <v>-21400</v>
+        <v>-20900</v>
       </c>
       <c r="K96" s="3">
         <v>-9600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>26000</v>
+        <v>25400</v>
       </c>
       <c r="E100" s="3">
-        <v>33800</v>
+        <v>33000</v>
       </c>
       <c r="F100" s="3">
-        <v>-104000</v>
+        <v>-101500</v>
       </c>
       <c r="G100" s="3">
-        <v>775900</v>
+        <v>757500</v>
       </c>
       <c r="H100" s="3">
-        <v>28300</v>
+        <v>27600</v>
       </c>
       <c r="I100" s="3">
-        <v>-36400</v>
+        <v>-35500</v>
       </c>
       <c r="J100" s="3">
-        <v>27000</v>
+        <v>26300</v>
       </c>
       <c r="K100" s="3">
         <v>-100100</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-48300</v>
+        <v>-47100</v>
       </c>
       <c r="E102" s="3">
-        <v>-20300</v>
+        <v>-19800</v>
       </c>
       <c r="F102" s="3">
-        <v>103200</v>
+        <v>100800</v>
       </c>
       <c r="G102" s="3">
-        <v>75300</v>
+        <v>73500</v>
       </c>
       <c r="H102" s="3">
-        <v>17900</v>
+        <v>17500</v>
       </c>
       <c r="I102" s="3">
-        <v>13900</v>
+        <v>13600</v>
       </c>
       <c r="J102" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="K102" s="3">
         <v>-28300</v>

--- a/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5056900</v>
+        <v>5059500</v>
       </c>
       <c r="E8" s="3">
-        <v>4386200</v>
+        <v>4388500</v>
       </c>
       <c r="F8" s="3">
-        <v>3742800</v>
+        <v>3744700</v>
       </c>
       <c r="G8" s="3">
-        <v>3250000</v>
+        <v>3251700</v>
       </c>
       <c r="H8" s="3">
-        <v>2607500</v>
+        <v>2608800</v>
       </c>
       <c r="I8" s="3">
-        <v>2334200</v>
+        <v>2335400</v>
       </c>
       <c r="J8" s="3">
-        <v>2001900</v>
+        <v>2002900</v>
       </c>
       <c r="K8" s="3">
         <v>1683500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3463700</v>
+        <v>3465500</v>
       </c>
       <c r="E9" s="3">
-        <v>2973800</v>
+        <v>2975400</v>
       </c>
       <c r="F9" s="3">
-        <v>2526900</v>
+        <v>2528200</v>
       </c>
       <c r="G9" s="3">
-        <v>2206000</v>
+        <v>2207200</v>
       </c>
       <c r="H9" s="3">
-        <v>1782300</v>
+        <v>1783300</v>
       </c>
       <c r="I9" s="3">
-        <v>1604900</v>
+        <v>1605700</v>
       </c>
       <c r="J9" s="3">
-        <v>1417600</v>
+        <v>1418400</v>
       </c>
       <c r="K9" s="3">
         <v>1177300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1593200</v>
+        <v>1594000</v>
       </c>
       <c r="E10" s="3">
-        <v>1412400</v>
+        <v>1413100</v>
       </c>
       <c r="F10" s="3">
-        <v>1215800</v>
+        <v>1216500</v>
       </c>
       <c r="G10" s="3">
-        <v>1044000</v>
+        <v>1044500</v>
       </c>
       <c r="H10" s="3">
-        <v>825100</v>
+        <v>825600</v>
       </c>
       <c r="I10" s="3">
-        <v>729300</v>
+        <v>729700</v>
       </c>
       <c r="J10" s="3">
-        <v>584300</v>
+        <v>584600</v>
       </c>
       <c r="K10" s="3">
         <v>506200</v>
@@ -906,7 +906,7 @@
         <v>5800</v>
       </c>
       <c r="G14" s="3">
-        <v>426400</v>
+        <v>426600</v>
       </c>
       <c r="H14" s="3">
         <v>6100</v>
@@ -930,19 +930,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>148700</v>
+        <v>148800</v>
       </c>
       <c r="E15" s="3">
-        <v>133600</v>
+        <v>133700</v>
       </c>
       <c r="F15" s="3">
-        <v>132800</v>
+        <v>132900</v>
       </c>
       <c r="G15" s="3">
-        <v>107400</v>
+        <v>107500</v>
       </c>
       <c r="H15" s="3">
-        <v>71200</v>
+        <v>71300</v>
       </c>
       <c r="I15" s="3">
         <v>56800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4761200</v>
+        <v>4763700</v>
       </c>
       <c r="E17" s="3">
-        <v>4097100</v>
+        <v>4099300</v>
       </c>
       <c r="F17" s="3">
-        <v>3514100</v>
+        <v>3515900</v>
       </c>
       <c r="G17" s="3">
-        <v>3477300</v>
+        <v>3479100</v>
       </c>
       <c r="H17" s="3">
-        <v>2435300</v>
+        <v>2436500</v>
       </c>
       <c r="I17" s="3">
-        <v>2192500</v>
+        <v>2193600</v>
       </c>
       <c r="J17" s="3">
-        <v>1879700</v>
+        <v>1880600</v>
       </c>
       <c r="K17" s="3">
         <v>1589300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>295700</v>
+        <v>295800</v>
       </c>
       <c r="E18" s="3">
-        <v>289100</v>
+        <v>289300</v>
       </c>
       <c r="F18" s="3">
-        <v>228700</v>
+        <v>228800</v>
       </c>
       <c r="G18" s="3">
-        <v>-227300</v>
+        <v>-227400</v>
       </c>
       <c r="H18" s="3">
-        <v>172200</v>
+        <v>172300</v>
       </c>
       <c r="I18" s="3">
-        <v>141700</v>
+        <v>141800</v>
       </c>
       <c r="J18" s="3">
-        <v>122200</v>
+        <v>122300</v>
       </c>
       <c r="K18" s="3">
         <v>94200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>444000</v>
+        <v>444800</v>
       </c>
       <c r="E21" s="3">
-        <v>436900</v>
+        <v>437600</v>
       </c>
       <c r="F21" s="3">
-        <v>361500</v>
+        <v>362200</v>
       </c>
       <c r="G21" s="3">
-        <v>-120300</v>
+        <v>-120000</v>
       </c>
       <c r="H21" s="3">
-        <v>243500</v>
+        <v>243900</v>
       </c>
       <c r="I21" s="3">
-        <v>200300</v>
+        <v>200600</v>
       </c>
       <c r="J21" s="3">
-        <v>159900</v>
+        <v>160200</v>
       </c>
       <c r="K21" s="3">
         <v>121300</v>
@@ -1125,7 +1125,7 @@
         <v>34000</v>
       </c>
       <c r="E22" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="F22" s="3">
         <v>32800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>261900</v>
+        <v>262000</v>
       </c>
       <c r="E23" s="3">
-        <v>282200</v>
+        <v>282300</v>
       </c>
       <c r="F23" s="3">
-        <v>196400</v>
+        <v>196500</v>
       </c>
       <c r="G23" s="3">
-        <v>-270700</v>
+        <v>-270800</v>
       </c>
       <c r="H23" s="3">
-        <v>155500</v>
+        <v>155600</v>
       </c>
       <c r="I23" s="3">
-        <v>130400</v>
+        <v>130500</v>
       </c>
       <c r="J23" s="3">
-        <v>110200</v>
+        <v>110300</v>
       </c>
       <c r="K23" s="3">
         <v>82100</v>
@@ -1197,10 +1197,10 @@
         <v>48400</v>
       </c>
       <c r="G24" s="3">
-        <v>36600</v>
+        <v>36700</v>
       </c>
       <c r="H24" s="3">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="I24" s="3">
         <v>32500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>195800</v>
+        <v>195900</v>
       </c>
       <c r="E26" s="3">
-        <v>210800</v>
+        <v>210900</v>
       </c>
       <c r="F26" s="3">
-        <v>147900</v>
+        <v>148000</v>
       </c>
       <c r="G26" s="3">
-        <v>-307300</v>
+        <v>-307500</v>
       </c>
       <c r="H26" s="3">
         <v>121900</v>
       </c>
       <c r="I26" s="3">
-        <v>97900</v>
+        <v>98000</v>
       </c>
       <c r="J26" s="3">
-        <v>73200</v>
+        <v>73300</v>
       </c>
       <c r="K26" s="3">
         <v>50900</v>
@@ -1287,19 +1287,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>163400</v>
+        <v>163500</v>
       </c>
       <c r="E27" s="3">
-        <v>182500</v>
+        <v>182600</v>
       </c>
       <c r="F27" s="3">
-        <v>117800</v>
+        <v>117900</v>
       </c>
       <c r="G27" s="3">
-        <v>-339700</v>
+        <v>-339800</v>
       </c>
       <c r="H27" s="3">
-        <v>88900</v>
+        <v>89000</v>
       </c>
       <c r="I27" s="3">
         <v>66100</v>
@@ -1485,19 +1485,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>163400</v>
+        <v>163500</v>
       </c>
       <c r="E33" s="3">
-        <v>182500</v>
+        <v>182600</v>
       </c>
       <c r="F33" s="3">
-        <v>117800</v>
+        <v>117900</v>
       </c>
       <c r="G33" s="3">
-        <v>-339700</v>
+        <v>-339800</v>
       </c>
       <c r="H33" s="3">
-        <v>88900</v>
+        <v>89000</v>
       </c>
       <c r="I33" s="3">
         <v>69500</v>
@@ -1551,19 +1551,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>163400</v>
+        <v>163500</v>
       </c>
       <c r="E35" s="3">
-        <v>182500</v>
+        <v>182600</v>
       </c>
       <c r="F35" s="3">
-        <v>117800</v>
+        <v>117900</v>
       </c>
       <c r="G35" s="3">
-        <v>-339700</v>
+        <v>-339800</v>
       </c>
       <c r="H35" s="3">
-        <v>88900</v>
+        <v>89000</v>
       </c>
       <c r="I35" s="3">
         <v>69500</v>
@@ -1652,16 +1652,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>183900</v>
+        <v>184000</v>
       </c>
       <c r="E41" s="3">
-        <v>223600</v>
+        <v>223800</v>
       </c>
       <c r="F41" s="3">
-        <v>248800</v>
+        <v>248900</v>
       </c>
       <c r="G41" s="3">
-        <v>163600</v>
+        <v>163700</v>
       </c>
       <c r="H41" s="3">
         <v>89600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>886700</v>
+        <v>887200</v>
       </c>
       <c r="E43" s="3">
-        <v>753800</v>
+        <v>754200</v>
       </c>
       <c r="F43" s="3">
-        <v>575500</v>
+        <v>575800</v>
       </c>
       <c r="G43" s="3">
-        <v>537100</v>
+        <v>537400</v>
       </c>
       <c r="H43" s="3">
-        <v>336500</v>
+        <v>336700</v>
       </c>
       <c r="I43" s="3">
-        <v>256700</v>
+        <v>256900</v>
       </c>
       <c r="J43" s="3">
-        <v>225000</v>
+        <v>225100</v>
       </c>
       <c r="K43" s="3">
         <v>165300</v>
@@ -1751,16 +1751,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>327200</v>
+        <v>327300</v>
       </c>
       <c r="E44" s="3">
-        <v>217900</v>
+        <v>218000</v>
       </c>
       <c r="F44" s="3">
-        <v>191700</v>
+        <v>191800</v>
       </c>
       <c r="G44" s="3">
-        <v>127600</v>
+        <v>127700</v>
       </c>
       <c r="H44" s="3">
         <v>65100</v>
@@ -1787,19 +1787,19 @@
         <v>99200</v>
       </c>
       <c r="E45" s="3">
-        <v>106900</v>
+        <v>107000</v>
       </c>
       <c r="F45" s="3">
-        <v>90100</v>
+        <v>90200</v>
       </c>
       <c r="G45" s="3">
-        <v>73600</v>
+        <v>73700</v>
       </c>
       <c r="H45" s="3">
         <v>69200</v>
       </c>
       <c r="I45" s="3">
-        <v>55400</v>
+        <v>55500</v>
       </c>
       <c r="J45" s="3">
         <v>86500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1497000</v>
+        <v>1497800</v>
       </c>
       <c r="E46" s="3">
-        <v>1302300</v>
+        <v>1303000</v>
       </c>
       <c r="F46" s="3">
-        <v>1106100</v>
+        <v>1106700</v>
       </c>
       <c r="G46" s="3">
-        <v>902000</v>
+        <v>902500</v>
       </c>
       <c r="H46" s="3">
-        <v>560300</v>
+        <v>560600</v>
       </c>
       <c r="I46" s="3">
-        <v>440600</v>
+        <v>440800</v>
       </c>
       <c r="J46" s="3">
-        <v>410100</v>
+        <v>410300</v>
       </c>
       <c r="K46" s="3">
         <v>306600</v>
@@ -1883,22 +1883,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>503000</v>
+        <v>503200</v>
       </c>
       <c r="E48" s="3">
-        <v>402000</v>
+        <v>402200</v>
       </c>
       <c r="F48" s="3">
-        <v>377700</v>
+        <v>377900</v>
       </c>
       <c r="G48" s="3">
-        <v>357000</v>
+        <v>357200</v>
       </c>
       <c r="H48" s="3">
-        <v>132400</v>
+        <v>132500</v>
       </c>
       <c r="I48" s="3">
-        <v>230600</v>
+        <v>115400</v>
       </c>
       <c r="J48" s="3">
         <v>98700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1693600</v>
+        <v>1694500</v>
       </c>
       <c r="E49" s="3">
-        <v>1654400</v>
+        <v>1655200</v>
       </c>
       <c r="F49" s="3">
-        <v>1461400</v>
+        <v>1462100</v>
       </c>
       <c r="G49" s="3">
-        <v>1364900</v>
+        <v>1365700</v>
       </c>
       <c r="H49" s="3">
-        <v>653300</v>
+        <v>653700</v>
       </c>
       <c r="I49" s="3">
-        <v>755500</v>
+        <v>755900</v>
       </c>
       <c r="J49" s="3">
-        <v>522800</v>
+        <v>523100</v>
       </c>
       <c r="K49" s="3">
         <v>399700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3745600</v>
+        <v>3747500</v>
       </c>
       <c r="E54" s="3">
-        <v>3387200</v>
+        <v>3388900</v>
       </c>
       <c r="F54" s="3">
-        <v>2965300</v>
+        <v>2966900</v>
       </c>
       <c r="G54" s="3">
-        <v>2639900</v>
+        <v>2641300</v>
       </c>
       <c r="H54" s="3">
-        <v>1360100</v>
+        <v>1360800</v>
       </c>
       <c r="I54" s="3">
-        <v>1145200</v>
+        <v>1145800</v>
       </c>
       <c r="J54" s="3">
-        <v>1040800</v>
+        <v>1041300</v>
       </c>
       <c r="K54" s="3">
         <v>799700</v>
@@ -2144,7 +2144,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>156600</v>
+        <v>156700</v>
       </c>
       <c r="E57" s="3">
         <v>135200</v>
@@ -2153,7 +2153,7 @@
         <v>133000</v>
       </c>
       <c r="G57" s="3">
-        <v>102900</v>
+        <v>103000</v>
       </c>
       <c r="H57" s="3">
         <v>56300</v>
@@ -2177,13 +2177,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>48100</v>
+        <v>48200</v>
       </c>
       <c r="E58" s="3">
-        <v>77500</v>
+        <v>77600</v>
       </c>
       <c r="F58" s="3">
-        <v>76200</v>
+        <v>76300</v>
       </c>
       <c r="G58" s="3">
         <v>7500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>655200</v>
+        <v>655500</v>
       </c>
       <c r="E59" s="3">
-        <v>622200</v>
+        <v>622600</v>
       </c>
       <c r="F59" s="3">
-        <v>524800</v>
+        <v>525100</v>
       </c>
       <c r="G59" s="3">
-        <v>373200</v>
+        <v>373400</v>
       </c>
       <c r="H59" s="3">
-        <v>244800</v>
+        <v>244900</v>
       </c>
       <c r="I59" s="3">
-        <v>386700</v>
+        <v>386900</v>
       </c>
       <c r="J59" s="3">
-        <v>201700</v>
+        <v>201800</v>
       </c>
       <c r="K59" s="3">
         <v>135700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>859900</v>
+        <v>860400</v>
       </c>
       <c r="E60" s="3">
-        <v>834900</v>
+        <v>835400</v>
       </c>
       <c r="F60" s="3">
-        <v>734100</v>
+        <v>734400</v>
       </c>
       <c r="G60" s="3">
-        <v>483600</v>
+        <v>483800</v>
       </c>
       <c r="H60" s="3">
-        <v>306400</v>
+        <v>306500</v>
       </c>
       <c r="I60" s="3">
-        <v>288500</v>
+        <v>288600</v>
       </c>
       <c r="J60" s="3">
-        <v>246800</v>
+        <v>246900</v>
       </c>
       <c r="K60" s="3">
         <v>173300</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>943400</v>
+        <v>943900</v>
       </c>
       <c r="E61" s="3">
-        <v>803700</v>
+        <v>804200</v>
       </c>
       <c r="F61" s="3">
-        <v>719700</v>
+        <v>720100</v>
       </c>
       <c r="G61" s="3">
-        <v>1027500</v>
+        <v>1028000</v>
       </c>
       <c r="H61" s="3">
-        <v>446300</v>
+        <v>446600</v>
       </c>
       <c r="I61" s="3">
-        <v>360300</v>
+        <v>360500</v>
       </c>
       <c r="J61" s="3">
-        <v>337300</v>
+        <v>337500</v>
       </c>
       <c r="K61" s="3">
         <v>262600</v>
@@ -2309,19 +2309,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>402100</v>
+        <v>402300</v>
       </c>
       <c r="E62" s="3">
-        <v>373000</v>
+        <v>373200</v>
       </c>
       <c r="F62" s="3">
-        <v>359400</v>
+        <v>359600</v>
       </c>
       <c r="G62" s="3">
-        <v>318100</v>
+        <v>318300</v>
       </c>
       <c r="H62" s="3">
-        <v>83800</v>
+        <v>83900</v>
       </c>
       <c r="I62" s="3">
         <v>77900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2520500</v>
+        <v>2521800</v>
       </c>
       <c r="E66" s="3">
-        <v>2307600</v>
+        <v>2308800</v>
       </c>
       <c r="F66" s="3">
-        <v>2073800</v>
+        <v>2074900</v>
       </c>
       <c r="G66" s="3">
-        <v>2064900</v>
+        <v>2066000</v>
       </c>
       <c r="H66" s="3">
-        <v>1041200</v>
+        <v>1041700</v>
       </c>
       <c r="I66" s="3">
-        <v>885600</v>
+        <v>886000</v>
       </c>
       <c r="J66" s="3">
-        <v>796400</v>
+        <v>796800</v>
       </c>
       <c r="K66" s="3">
         <v>577300</v>
@@ -2627,10 +2627,10 @@
         <v>-91700</v>
       </c>
       <c r="F72" s="3">
-        <v>-231000</v>
+        <v>-231100</v>
       </c>
       <c r="G72" s="3">
-        <v>-310300</v>
+        <v>-310500</v>
       </c>
       <c r="H72" s="3">
         <v>61500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1225100</v>
+        <v>1225700</v>
       </c>
       <c r="E76" s="3">
-        <v>1079600</v>
+        <v>1080200</v>
       </c>
       <c r="F76" s="3">
-        <v>891500</v>
+        <v>892000</v>
       </c>
       <c r="G76" s="3">
-        <v>574900</v>
+        <v>575200</v>
       </c>
       <c r="H76" s="3">
-        <v>318900</v>
+        <v>319100</v>
       </c>
       <c r="I76" s="3">
-        <v>259600</v>
+        <v>259700</v>
       </c>
       <c r="J76" s="3">
-        <v>244400</v>
+        <v>244500</v>
       </c>
       <c r="K76" s="3">
         <v>222400</v>
@@ -2857,19 +2857,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>163400</v>
+        <v>163500</v>
       </c>
       <c r="E81" s="3">
-        <v>182500</v>
+        <v>182600</v>
       </c>
       <c r="F81" s="3">
-        <v>117800</v>
+        <v>117900</v>
       </c>
       <c r="G81" s="3">
-        <v>-339700</v>
+        <v>-339800</v>
       </c>
       <c r="H81" s="3">
-        <v>88900</v>
+        <v>89000</v>
       </c>
       <c r="I81" s="3">
         <v>69500</v>
@@ -2905,19 +2905,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>148700</v>
+        <v>148800</v>
       </c>
       <c r="E83" s="3">
-        <v>133600</v>
+        <v>133700</v>
       </c>
       <c r="F83" s="3">
-        <v>132800</v>
+        <v>132900</v>
       </c>
       <c r="G83" s="3">
-        <v>107400</v>
+        <v>107500</v>
       </c>
       <c r="H83" s="3">
-        <v>71200</v>
+        <v>71300</v>
       </c>
       <c r="I83" s="3">
         <v>56800</v>
@@ -3106,19 +3106,19 @@
         <v>143000</v>
       </c>
       <c r="E89" s="3">
-        <v>225800</v>
+        <v>225900</v>
       </c>
       <c r="F89" s="3">
-        <v>393900</v>
+        <v>394100</v>
       </c>
       <c r="G89" s="3">
-        <v>145500</v>
+        <v>145600</v>
       </c>
       <c r="H89" s="3">
         <v>134300</v>
       </c>
       <c r="I89" s="3">
-        <v>156100</v>
+        <v>156200</v>
       </c>
       <c r="J89" s="3">
         <v>147200</v>
@@ -3160,13 +3160,13 @@
         <v>-53200</v>
       </c>
       <c r="G91" s="3">
-        <v>-62900</v>
+        <v>-63000</v>
       </c>
       <c r="H91" s="3">
         <v>-54800</v>
       </c>
       <c r="I91" s="3">
-        <v>-48900</v>
+        <v>-49000</v>
       </c>
       <c r="J91" s="3">
         <v>-39300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-217100</v>
+        <v>-217200</v>
       </c>
       <c r="E94" s="3">
-        <v>-278500</v>
+        <v>-278700</v>
       </c>
       <c r="F94" s="3">
-        <v>-192100</v>
+        <v>-192200</v>
       </c>
       <c r="G94" s="3">
-        <v>-830200</v>
+        <v>-830600</v>
       </c>
       <c r="H94" s="3">
         <v>-143400</v>
       </c>
       <c r="I94" s="3">
-        <v>-107500</v>
+        <v>-107600</v>
       </c>
       <c r="J94" s="3">
-        <v>-176600</v>
+        <v>-176700</v>
       </c>
       <c r="K94" s="3">
         <v>-43000</v>
@@ -3301,7 +3301,7 @@
         <v>-47100</v>
       </c>
       <c r="E96" s="3">
-        <v>-42100</v>
+        <v>-42200</v>
       </c>
       <c r="F96" s="3">
         <v>-37100</v>
@@ -3313,7 +3313,7 @@
         <v>-25400</v>
       </c>
       <c r="I96" s="3">
-        <v>-23100</v>
+        <v>-23200</v>
       </c>
       <c r="J96" s="3">
         <v>-20900</v>
@@ -3436,16 +3436,16 @@
         <v>33000</v>
       </c>
       <c r="F100" s="3">
-        <v>-101500</v>
+        <v>-101600</v>
       </c>
       <c r="G100" s="3">
-        <v>757500</v>
+        <v>757900</v>
       </c>
       <c r="H100" s="3">
         <v>27600</v>
       </c>
       <c r="I100" s="3">
-        <v>-35500</v>
+        <v>-35600</v>
       </c>
       <c r="J100" s="3">
         <v>26300</v>
@@ -3496,7 +3496,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-47100</v>
+        <v>-47200</v>
       </c>
       <c r="E102" s="3">
         <v>-19800</v>

--- a/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FSV_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5059500</v>
+        <v>5152400</v>
       </c>
       <c r="E8" s="3">
-        <v>4388500</v>
+        <v>4469100</v>
       </c>
       <c r="F8" s="3">
-        <v>3744700</v>
+        <v>3813500</v>
       </c>
       <c r="G8" s="3">
-        <v>3251700</v>
+        <v>3311400</v>
       </c>
       <c r="H8" s="3">
-        <v>2608800</v>
+        <v>2656700</v>
       </c>
       <c r="I8" s="3">
-        <v>2335400</v>
+        <v>2378300</v>
       </c>
       <c r="J8" s="3">
-        <v>2002900</v>
+        <v>2039700</v>
       </c>
       <c r="K8" s="3">
         <v>1683500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3465500</v>
+        <v>3529100</v>
       </c>
       <c r="E9" s="3">
-        <v>2975400</v>
+        <v>3030000</v>
       </c>
       <c r="F9" s="3">
-        <v>2528200</v>
+        <v>2574700</v>
       </c>
       <c r="G9" s="3">
-        <v>2207200</v>
+        <v>2247700</v>
       </c>
       <c r="H9" s="3">
-        <v>1783300</v>
+        <v>1816000</v>
       </c>
       <c r="I9" s="3">
-        <v>1605700</v>
+        <v>1635200</v>
       </c>
       <c r="J9" s="3">
-        <v>1418400</v>
+        <v>1444400</v>
       </c>
       <c r="K9" s="3">
         <v>1177300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1594000</v>
+        <v>1623200</v>
       </c>
       <c r="E10" s="3">
-        <v>1413100</v>
+        <v>1439100</v>
       </c>
       <c r="F10" s="3">
-        <v>1216500</v>
+        <v>1238800</v>
       </c>
       <c r="G10" s="3">
-        <v>1044500</v>
+        <v>1063700</v>
       </c>
       <c r="H10" s="3">
-        <v>825600</v>
+        <v>840700</v>
       </c>
       <c r="I10" s="3">
-        <v>729700</v>
+        <v>743100</v>
       </c>
       <c r="J10" s="3">
-        <v>584600</v>
+        <v>595300</v>
       </c>
       <c r="K10" s="3">
         <v>506200</v>
@@ -897,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="E14" s="3">
         <v>-700</v>
       </c>
       <c r="F14" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G14" s="3">
-        <v>426600</v>
+        <v>434400</v>
       </c>
       <c r="H14" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="I14" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>148800</v>
+        <v>151500</v>
       </c>
       <c r="E15" s="3">
-        <v>133700</v>
+        <v>136100</v>
       </c>
       <c r="F15" s="3">
-        <v>132900</v>
+        <v>135300</v>
       </c>
       <c r="G15" s="3">
-        <v>107500</v>
+        <v>109400</v>
       </c>
       <c r="H15" s="3">
-        <v>71300</v>
+        <v>72600</v>
       </c>
       <c r="I15" s="3">
-        <v>56800</v>
+        <v>57800</v>
       </c>
       <c r="J15" s="3">
-        <v>49900</v>
+        <v>50900</v>
       </c>
       <c r="K15" s="3">
         <v>38600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4763700</v>
+        <v>4851100</v>
       </c>
       <c r="E17" s="3">
-        <v>4099300</v>
+        <v>4174500</v>
       </c>
       <c r="F17" s="3">
-        <v>3515900</v>
+        <v>3580400</v>
       </c>
       <c r="G17" s="3">
-        <v>3479100</v>
+        <v>3542900</v>
       </c>
       <c r="H17" s="3">
-        <v>2436500</v>
+        <v>2481300</v>
       </c>
       <c r="I17" s="3">
-        <v>2193600</v>
+        <v>2233900</v>
       </c>
       <c r="J17" s="3">
-        <v>1880600</v>
+        <v>1915200</v>
       </c>
       <c r="K17" s="3">
         <v>1589300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>295800</v>
+        <v>301300</v>
       </c>
       <c r="E18" s="3">
-        <v>289300</v>
+        <v>294600</v>
       </c>
       <c r="F18" s="3">
-        <v>228800</v>
+        <v>233000</v>
       </c>
       <c r="G18" s="3">
-        <v>-227400</v>
+        <v>-231500</v>
       </c>
       <c r="H18" s="3">
-        <v>172300</v>
+        <v>175500</v>
       </c>
       <c r="I18" s="3">
-        <v>141800</v>
+        <v>144400</v>
       </c>
       <c r="J18" s="3">
-        <v>122300</v>
+        <v>124600</v>
       </c>
       <c r="K18" s="3">
         <v>94200</v>
@@ -1059,7 +1059,7 @@
         <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="F20" s="3">
         <v>500</v>
@@ -1074,7 +1074,7 @@
         <v>2100</v>
       </c>
       <c r="J20" s="3">
-        <v>-12000</v>
+        <v>-12300</v>
       </c>
       <c r="K20" s="3">
         <v>-12200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>444800</v>
+        <v>452100</v>
       </c>
       <c r="E21" s="3">
-        <v>437600</v>
+        <v>444900</v>
       </c>
       <c r="F21" s="3">
-        <v>362200</v>
+        <v>368100</v>
       </c>
       <c r="G21" s="3">
-        <v>-120000</v>
+        <v>-122800</v>
       </c>
       <c r="H21" s="3">
-        <v>243900</v>
+        <v>248000</v>
       </c>
       <c r="I21" s="3">
-        <v>200600</v>
+        <v>204000</v>
       </c>
       <c r="J21" s="3">
-        <v>160200</v>
+        <v>162800</v>
       </c>
       <c r="K21" s="3">
         <v>121300</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34000</v>
+        <v>34700</v>
       </c>
       <c r="E22" s="3">
-        <v>21700</v>
+        <v>22100</v>
       </c>
       <c r="F22" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="G22" s="3">
-        <v>43300</v>
+        <v>44100</v>
       </c>
       <c r="H22" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="I22" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>262000</v>
+        <v>266800</v>
       </c>
       <c r="E23" s="3">
-        <v>282300</v>
+        <v>287500</v>
       </c>
       <c r="F23" s="3">
-        <v>196500</v>
+        <v>200100</v>
       </c>
       <c r="G23" s="3">
-        <v>-270800</v>
+        <v>-275800</v>
       </c>
       <c r="H23" s="3">
-        <v>155600</v>
+        <v>158500</v>
       </c>
       <c r="I23" s="3">
-        <v>130500</v>
+        <v>132900</v>
       </c>
       <c r="J23" s="3">
-        <v>110300</v>
+        <v>112300</v>
       </c>
       <c r="K23" s="3">
         <v>82100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>66100</v>
+        <v>67400</v>
       </c>
       <c r="E24" s="3">
-        <v>71400</v>
+        <v>72700</v>
       </c>
       <c r="F24" s="3">
-        <v>48400</v>
+        <v>49300</v>
       </c>
       <c r="G24" s="3">
-        <v>36700</v>
+        <v>37300</v>
       </c>
       <c r="H24" s="3">
-        <v>33700</v>
+        <v>34300</v>
       </c>
       <c r="I24" s="3">
-        <v>32500</v>
+        <v>33100</v>
       </c>
       <c r="J24" s="3">
-        <v>37000</v>
+        <v>37700</v>
       </c>
       <c r="K24" s="3">
         <v>31200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>195900</v>
+        <v>199500</v>
       </c>
       <c r="E26" s="3">
-        <v>210900</v>
+        <v>214800</v>
       </c>
       <c r="F26" s="3">
-        <v>148000</v>
+        <v>150700</v>
       </c>
       <c r="G26" s="3">
-        <v>-307500</v>
+        <v>-313100</v>
       </c>
       <c r="H26" s="3">
-        <v>121900</v>
+        <v>124200</v>
       </c>
       <c r="I26" s="3">
-        <v>98000</v>
+        <v>99800</v>
       </c>
       <c r="J26" s="3">
-        <v>73300</v>
+        <v>74600</v>
       </c>
       <c r="K26" s="3">
         <v>50900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>163500</v>
+        <v>166500</v>
       </c>
       <c r="E27" s="3">
-        <v>182600</v>
+        <v>186000</v>
       </c>
       <c r="F27" s="3">
-        <v>117900</v>
+        <v>120000</v>
       </c>
       <c r="G27" s="3">
-        <v>-339800</v>
+        <v>-346100</v>
       </c>
       <c r="H27" s="3">
-        <v>89000</v>
+        <v>90600</v>
       </c>
       <c r="I27" s="3">
-        <v>66100</v>
+        <v>67300</v>
       </c>
       <c r="J27" s="3">
-        <v>45400</v>
+        <v>46200</v>
       </c>
       <c r="K27" s="3">
         <v>28500</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1455,7 +1455,7 @@
         <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>-14700</v>
+        <v>-15000</v>
       </c>
       <c r="F32" s="3">
         <v>-500</v>
@@ -1470,7 +1470,7 @@
         <v>-2100</v>
       </c>
       <c r="J32" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="K32" s="3">
         <v>12200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>163500</v>
+        <v>166500</v>
       </c>
       <c r="E33" s="3">
-        <v>182600</v>
+        <v>186000</v>
       </c>
       <c r="F33" s="3">
-        <v>117900</v>
+        <v>120000</v>
       </c>
       <c r="G33" s="3">
-        <v>-339800</v>
+        <v>-346100</v>
       </c>
       <c r="H33" s="3">
-        <v>89000</v>
+        <v>90600</v>
       </c>
       <c r="I33" s="3">
-        <v>69500</v>
+        <v>70800</v>
       </c>
       <c r="J33" s="3">
-        <v>45400</v>
+        <v>46200</v>
       </c>
       <c r="K33" s="3">
         <v>28500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>163500</v>
+        <v>166500</v>
       </c>
       <c r="E35" s="3">
-        <v>182600</v>
+        <v>186000</v>
       </c>
       <c r="F35" s="3">
-        <v>117900</v>
+        <v>120000</v>
       </c>
       <c r="G35" s="3">
-        <v>-339800</v>
+        <v>-346100</v>
       </c>
       <c r="H35" s="3">
-        <v>89000</v>
+        <v>90600</v>
       </c>
       <c r="I35" s="3">
-        <v>69500</v>
+        <v>70800</v>
       </c>
       <c r="J35" s="3">
-        <v>45400</v>
+        <v>46200</v>
       </c>
       <c r="K35" s="3">
         <v>28500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>184000</v>
+        <v>187400</v>
       </c>
       <c r="E41" s="3">
-        <v>223800</v>
+        <v>227900</v>
       </c>
       <c r="F41" s="3">
-        <v>248900</v>
+        <v>253500</v>
       </c>
       <c r="G41" s="3">
-        <v>163700</v>
+        <v>166700</v>
       </c>
       <c r="H41" s="3">
-        <v>89600</v>
+        <v>91300</v>
       </c>
       <c r="I41" s="3">
-        <v>77200</v>
+        <v>78700</v>
       </c>
       <c r="J41" s="3">
-        <v>58600</v>
+        <v>59700</v>
       </c>
       <c r="K41" s="3">
         <v>60700</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>887200</v>
+        <v>903500</v>
       </c>
       <c r="E43" s="3">
-        <v>754200</v>
+        <v>768100</v>
       </c>
       <c r="F43" s="3">
-        <v>575800</v>
+        <v>586400</v>
       </c>
       <c r="G43" s="3">
-        <v>537400</v>
+        <v>547300</v>
       </c>
       <c r="H43" s="3">
-        <v>336700</v>
+        <v>342900</v>
       </c>
       <c r="I43" s="3">
-        <v>256900</v>
+        <v>261600</v>
       </c>
       <c r="J43" s="3">
-        <v>225100</v>
+        <v>229200</v>
       </c>
       <c r="K43" s="3">
         <v>165300</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>327300</v>
+        <v>333300</v>
       </c>
       <c r="E44" s="3">
-        <v>218000</v>
+        <v>222000</v>
       </c>
       <c r="F44" s="3">
-        <v>191800</v>
+        <v>195300</v>
       </c>
       <c r="G44" s="3">
-        <v>127700</v>
+        <v>130000</v>
       </c>
       <c r="H44" s="3">
-        <v>65100</v>
+        <v>66300</v>
       </c>
       <c r="I44" s="3">
-        <v>102500</v>
+        <v>104400</v>
       </c>
       <c r="J44" s="3">
-        <v>40100</v>
+        <v>40900</v>
       </c>
       <c r="K44" s="3">
         <v>21500</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>99200</v>
+        <v>101100</v>
       </c>
       <c r="E45" s="3">
-        <v>107000</v>
+        <v>108900</v>
       </c>
       <c r="F45" s="3">
-        <v>90200</v>
+        <v>91800</v>
       </c>
       <c r="G45" s="3">
-        <v>73700</v>
+        <v>75000</v>
       </c>
       <c r="H45" s="3">
-        <v>69200</v>
+        <v>70500</v>
       </c>
       <c r="I45" s="3">
-        <v>55500</v>
+        <v>56500</v>
       </c>
       <c r="J45" s="3">
-        <v>86500</v>
+        <v>88100</v>
       </c>
       <c r="K45" s="3">
         <v>59100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1497800</v>
+        <v>1525300</v>
       </c>
       <c r="E46" s="3">
-        <v>1303000</v>
+        <v>1326900</v>
       </c>
       <c r="F46" s="3">
-        <v>1106700</v>
+        <v>1127000</v>
       </c>
       <c r="G46" s="3">
-        <v>902500</v>
+        <v>919000</v>
       </c>
       <c r="H46" s="3">
-        <v>560600</v>
+        <v>570900</v>
       </c>
       <c r="I46" s="3">
-        <v>440800</v>
+        <v>448900</v>
       </c>
       <c r="J46" s="3">
-        <v>410300</v>
+        <v>417900</v>
       </c>
       <c r="K46" s="3">
         <v>306600</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="E47" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="F47" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="G47" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H47" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="I47" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="J47" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="K47" s="3">
         <v>5100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>503200</v>
+        <v>512500</v>
       </c>
       <c r="E48" s="3">
-        <v>402200</v>
+        <v>409600</v>
       </c>
       <c r="F48" s="3">
-        <v>377900</v>
+        <v>384800</v>
       </c>
       <c r="G48" s="3">
-        <v>357200</v>
+        <v>363700</v>
       </c>
       <c r="H48" s="3">
-        <v>132500</v>
+        <v>134900</v>
       </c>
       <c r="I48" s="3">
-        <v>115400</v>
+        <v>117500</v>
       </c>
       <c r="J48" s="3">
-        <v>98700</v>
+        <v>100500</v>
       </c>
       <c r="K48" s="3">
         <v>76700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1694500</v>
+        <v>1725600</v>
       </c>
       <c r="E49" s="3">
-        <v>1655200</v>
+        <v>1685600</v>
       </c>
       <c r="F49" s="3">
-        <v>1462100</v>
+        <v>1489000</v>
       </c>
       <c r="G49" s="3">
-        <v>1365700</v>
+        <v>1390700</v>
       </c>
       <c r="H49" s="3">
-        <v>653700</v>
+        <v>665700</v>
       </c>
       <c r="I49" s="3">
-        <v>755900</v>
+        <v>769700</v>
       </c>
       <c r="J49" s="3">
-        <v>523100</v>
+        <v>532700</v>
       </c>
       <c r="K49" s="3">
         <v>399700</v>
@@ -2015,22 +2015,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45500</v>
+        <v>46300</v>
       </c>
       <c r="E52" s="3">
-        <v>22100</v>
+        <v>22500</v>
       </c>
       <c r="F52" s="3">
-        <v>14600</v>
+        <v>14900</v>
       </c>
       <c r="G52" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="H52" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="I52" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="J52" s="3">
         <v>4100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3747500</v>
+        <v>3816300</v>
       </c>
       <c r="E54" s="3">
-        <v>3388900</v>
+        <v>3451200</v>
       </c>
       <c r="F54" s="3">
-        <v>2966900</v>
+        <v>3021300</v>
       </c>
       <c r="G54" s="3">
-        <v>2641300</v>
+        <v>2689700</v>
       </c>
       <c r="H54" s="3">
-        <v>1360800</v>
+        <v>1385800</v>
       </c>
       <c r="I54" s="3">
-        <v>1145800</v>
+        <v>1166800</v>
       </c>
       <c r="J54" s="3">
-        <v>1041300</v>
+        <v>1060500</v>
       </c>
       <c r="K54" s="3">
         <v>799700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>156700</v>
+        <v>159500</v>
       </c>
       <c r="E57" s="3">
-        <v>135200</v>
+        <v>137700</v>
       </c>
       <c r="F57" s="3">
-        <v>133000</v>
+        <v>135500</v>
       </c>
       <c r="G57" s="3">
-        <v>103000</v>
+        <v>104800</v>
       </c>
       <c r="H57" s="3">
-        <v>56300</v>
+        <v>57400</v>
       </c>
       <c r="I57" s="3">
-        <v>55500</v>
+        <v>56500</v>
       </c>
       <c r="J57" s="3">
-        <v>43700</v>
+        <v>44500</v>
       </c>
       <c r="K57" s="3">
         <v>32200</v>
@@ -2177,22 +2177,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>48200</v>
+        <v>49100</v>
       </c>
       <c r="E58" s="3">
-        <v>77600</v>
+        <v>79000</v>
       </c>
       <c r="F58" s="3">
-        <v>76300</v>
+        <v>77700</v>
       </c>
       <c r="G58" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="H58" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="I58" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="J58" s="3">
         <v>1400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>655500</v>
+        <v>667600</v>
       </c>
       <c r="E59" s="3">
-        <v>622600</v>
+        <v>634000</v>
       </c>
       <c r="F59" s="3">
-        <v>525100</v>
+        <v>534800</v>
       </c>
       <c r="G59" s="3">
-        <v>373400</v>
+        <v>380200</v>
       </c>
       <c r="H59" s="3">
-        <v>244900</v>
+        <v>249400</v>
       </c>
       <c r="I59" s="3">
-        <v>386900</v>
+        <v>394000</v>
       </c>
       <c r="J59" s="3">
-        <v>201800</v>
+        <v>205500</v>
       </c>
       <c r="K59" s="3">
         <v>135700</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>860400</v>
+        <v>876200</v>
       </c>
       <c r="E60" s="3">
-        <v>835400</v>
+        <v>850700</v>
       </c>
       <c r="F60" s="3">
-        <v>734400</v>
+        <v>747900</v>
       </c>
       <c r="G60" s="3">
-        <v>483800</v>
+        <v>492700</v>
       </c>
       <c r="H60" s="3">
-        <v>306500</v>
+        <v>312200</v>
       </c>
       <c r="I60" s="3">
-        <v>288600</v>
+        <v>293900</v>
       </c>
       <c r="J60" s="3">
-        <v>246900</v>
+        <v>251500</v>
       </c>
       <c r="K60" s="3">
         <v>173300</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>943900</v>
+        <v>961200</v>
       </c>
       <c r="E61" s="3">
-        <v>804200</v>
+        <v>818900</v>
       </c>
       <c r="F61" s="3">
-        <v>720100</v>
+        <v>733300</v>
       </c>
       <c r="G61" s="3">
-        <v>1028000</v>
+        <v>1046900</v>
       </c>
       <c r="H61" s="3">
-        <v>446600</v>
+        <v>454800</v>
       </c>
       <c r="I61" s="3">
-        <v>360500</v>
+        <v>367100</v>
       </c>
       <c r="J61" s="3">
-        <v>337500</v>
+        <v>343700</v>
       </c>
       <c r="K61" s="3">
         <v>262600</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>402300</v>
+        <v>409700</v>
       </c>
       <c r="E62" s="3">
-        <v>373200</v>
+        <v>380100</v>
       </c>
       <c r="F62" s="3">
-        <v>359600</v>
+        <v>366200</v>
       </c>
       <c r="G62" s="3">
-        <v>318300</v>
+        <v>324100</v>
       </c>
       <c r="H62" s="3">
-        <v>83900</v>
+        <v>85400</v>
       </c>
       <c r="I62" s="3">
-        <v>77900</v>
+        <v>79400</v>
       </c>
       <c r="J62" s="3">
-        <v>74100</v>
+        <v>75500</v>
       </c>
       <c r="K62" s="3">
         <v>38100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2521800</v>
+        <v>2568100</v>
       </c>
       <c r="E66" s="3">
-        <v>2308800</v>
+        <v>2351100</v>
       </c>
       <c r="F66" s="3">
-        <v>2074900</v>
+        <v>2113000</v>
       </c>
       <c r="G66" s="3">
-        <v>2066000</v>
+        <v>2103900</v>
       </c>
       <c r="H66" s="3">
-        <v>1041700</v>
+        <v>1060900</v>
       </c>
       <c r="I66" s="3">
-        <v>886000</v>
+        <v>902300</v>
       </c>
       <c r="J66" s="3">
-        <v>796800</v>
+        <v>811500</v>
       </c>
       <c r="K66" s="3">
         <v>577300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23400</v>
+        <v>23900</v>
       </c>
       <c r="E72" s="3">
-        <v>-91700</v>
+        <v>-93400</v>
       </c>
       <c r="F72" s="3">
-        <v>-231100</v>
+        <v>-235300</v>
       </c>
       <c r="G72" s="3">
-        <v>-310500</v>
+        <v>-316200</v>
       </c>
       <c r="H72" s="3">
-        <v>61500</v>
+        <v>62600</v>
       </c>
       <c r="I72" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="J72" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K72" s="3">
         <v>-13500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1225700</v>
+        <v>1248200</v>
       </c>
       <c r="E76" s="3">
-        <v>1080200</v>
+        <v>1100000</v>
       </c>
       <c r="F76" s="3">
-        <v>892000</v>
+        <v>908400</v>
       </c>
       <c r="G76" s="3">
-        <v>575200</v>
+        <v>585800</v>
       </c>
       <c r="H76" s="3">
-        <v>319100</v>
+        <v>324900</v>
       </c>
       <c r="I76" s="3">
-        <v>259700</v>
+        <v>264500</v>
       </c>
       <c r="J76" s="3">
-        <v>244500</v>
+        <v>249000</v>
       </c>
       <c r="K76" s="3">
         <v>222400</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>163500</v>
+        <v>166500</v>
       </c>
       <c r="E81" s="3">
-        <v>182600</v>
+        <v>186000</v>
       </c>
       <c r="F81" s="3">
-        <v>117900</v>
+        <v>120000</v>
       </c>
       <c r="G81" s="3">
-        <v>-339800</v>
+        <v>-346100</v>
       </c>
       <c r="H81" s="3">
-        <v>89000</v>
+        <v>90600</v>
       </c>
       <c r="I81" s="3">
-        <v>69500</v>
+        <v>70800</v>
       </c>
       <c r="J81" s="3">
-        <v>45400</v>
+        <v>46200</v>
       </c>
       <c r="K81" s="3">
         <v>28500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>148800</v>
+        <v>151500</v>
       </c>
       <c r="E83" s="3">
-        <v>133700</v>
+        <v>136100</v>
       </c>
       <c r="F83" s="3">
-        <v>132900</v>
+        <v>135300</v>
       </c>
       <c r="G83" s="3">
-        <v>107500</v>
+        <v>109400</v>
       </c>
       <c r="H83" s="3">
-        <v>71300</v>
+        <v>72600</v>
       </c>
       <c r="I83" s="3">
-        <v>56800</v>
+        <v>57800</v>
       </c>
       <c r="J83" s="3">
-        <v>49900</v>
+        <v>50900</v>
       </c>
       <c r="K83" s="3">
         <v>38600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>143000</v>
+        <v>145700</v>
       </c>
       <c r="E89" s="3">
-        <v>225900</v>
+        <v>230100</v>
       </c>
       <c r="F89" s="3">
-        <v>394100</v>
+        <v>401300</v>
       </c>
       <c r="G89" s="3">
-        <v>145600</v>
+        <v>148300</v>
       </c>
       <c r="H89" s="3">
-        <v>134300</v>
+        <v>136800</v>
       </c>
       <c r="I89" s="3">
-        <v>156200</v>
+        <v>159100</v>
       </c>
       <c r="J89" s="3">
-        <v>147200</v>
+        <v>149900</v>
       </c>
       <c r="K89" s="3">
         <v>116000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-104800</v>
+        <v>-106800</v>
       </c>
       <c r="E91" s="3">
-        <v>-78600</v>
+        <v>-80100</v>
       </c>
       <c r="F91" s="3">
-        <v>-53200</v>
+        <v>-54200</v>
       </c>
       <c r="G91" s="3">
-        <v>-63000</v>
+        <v>-64100</v>
       </c>
       <c r="H91" s="3">
-        <v>-54800</v>
+        <v>-55800</v>
       </c>
       <c r="I91" s="3">
-        <v>-49000</v>
+        <v>-49900</v>
       </c>
       <c r="J91" s="3">
-        <v>-39300</v>
+        <v>-40100</v>
       </c>
       <c r="K91" s="3">
         <v>-26200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-217200</v>
+        <v>-221200</v>
       </c>
       <c r="E94" s="3">
-        <v>-278700</v>
+        <v>-283800</v>
       </c>
       <c r="F94" s="3">
-        <v>-192200</v>
+        <v>-195700</v>
       </c>
       <c r="G94" s="3">
-        <v>-830600</v>
+        <v>-845900</v>
       </c>
       <c r="H94" s="3">
-        <v>-143400</v>
+        <v>-146100</v>
       </c>
       <c r="I94" s="3">
-        <v>-107600</v>
+        <v>-109600</v>
       </c>
       <c r="J94" s="3">
-        <v>-176700</v>
+        <v>-180000</v>
       </c>
       <c r="K94" s="3">
         <v>-43000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-47100</v>
+        <v>-48000</v>
       </c>
       <c r="E96" s="3">
-        <v>-42200</v>
+        <v>-42900</v>
       </c>
       <c r="F96" s="3">
-        <v>-37100</v>
+        <v>-37800</v>
       </c>
       <c r="G96" s="3">
-        <v>-29800</v>
+        <v>-30300</v>
       </c>
       <c r="H96" s="3">
-        <v>-25400</v>
+        <v>-25800</v>
       </c>
       <c r="I96" s="3">
-        <v>-23200</v>
+        <v>-23600</v>
       </c>
       <c r="J96" s="3">
-        <v>-20900</v>
+        <v>-21300</v>
       </c>
       <c r="K96" s="3">
         <v>-9600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>25400</v>
+        <v>25800</v>
       </c>
       <c r="E100" s="3">
-        <v>33000</v>
+        <v>33600</v>
       </c>
       <c r="F100" s="3">
-        <v>-101600</v>
+        <v>-103400</v>
       </c>
       <c r="G100" s="3">
-        <v>757900</v>
+        <v>771900</v>
       </c>
       <c r="H100" s="3">
-        <v>27600</v>
+        <v>28100</v>
       </c>
       <c r="I100" s="3">
-        <v>-35600</v>
+        <v>-36200</v>
       </c>
       <c r="J100" s="3">
-        <v>26300</v>
+        <v>26800</v>
       </c>
       <c r="K100" s="3">
         <v>-100100</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-47200</v>
+        <v>-48000</v>
       </c>
       <c r="E102" s="3">
-        <v>-19800</v>
+        <v>-20200</v>
       </c>
       <c r="F102" s="3">
-        <v>100800</v>
+        <v>102700</v>
       </c>
       <c r="G102" s="3">
-        <v>73500</v>
+        <v>74900</v>
       </c>
       <c r="H102" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="I102" s="3">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="J102" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K102" s="3">
         <v>-28300</v>
